--- a/JupyterNotebooks/AvgHW/CopperA-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/CopperA-HW40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,37 +82,37 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
     <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +573,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +582,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,37 +653,37 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>0.9992381089628666</v>
+      </c>
+      <c r="D3">
+        <v>1.000193486149245</v>
+      </c>
+      <c r="E3">
         <v>1.000502567617163</v>
       </c>
-      <c r="D3">
+      <c r="F3">
+        <v>0.9998495529503783</v>
+      </c>
+      <c r="G3">
         <v>0.9992381089628666</v>
       </c>
-      <c r="E3">
-        <v>1.000193486149245</v>
-      </c>
-      <c r="F3">
+      <c r="H3">
+        <v>1.000188797419826</v>
+      </c>
+      <c r="I3">
+        <v>0.9995051374396164</v>
+      </c>
+      <c r="J3">
         <v>1.000502567617163</v>
       </c>
-      <c r="G3">
+      <c r="K3">
+        <v>1.000502567617163</v>
+      </c>
+      <c r="L3">
+        <v>1.00028312291439</v>
+      </c>
+      <c r="M3">
         <v>0.9998364691110123</v>
-      </c>
-      <c r="H3">
-        <v>1.00028312291439</v>
-      </c>
-      <c r="I3">
-        <v>1.000502567617163</v>
-      </c>
-      <c r="J3">
-        <v>0.9992381089628666</v>
-      </c>
-      <c r="K3">
-        <v>0.9998495529503783</v>
-      </c>
-      <c r="L3">
-        <v>1.000188797419826</v>
-      </c>
-      <c r="M3">
-        <v>0.9995051374396164</v>
       </c>
       <c r="N3">
         <v>1.000502567617163</v>
@@ -764,7 +716,7 @@
         <v>0.9999496553205621</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,37 +724,37 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>0.9985294072045284</v>
+      </c>
+      <c r="D4">
+        <v>1.000373151298786</v>
+      </c>
+      <c r="E4">
         <v>1.000970607713255</v>
       </c>
-      <c r="D4">
+      <c r="F4">
+        <v>0.999709407598304</v>
+      </c>
+      <c r="G4">
         <v>0.9985294072045284</v>
       </c>
-      <c r="E4">
-        <v>1.000373151298786</v>
-      </c>
-      <c r="F4">
+      <c r="H4">
+        <v>1.00036458846483</v>
+      </c>
+      <c r="I4">
+        <v>0.9990447674872985</v>
+      </c>
+      <c r="J4">
         <v>1.000970607713255</v>
       </c>
-      <c r="G4">
+      <c r="K4">
+        <v>1.000970607713255</v>
+      </c>
+      <c r="L4">
+        <v>1.0005464477392</v>
+      </c>
+      <c r="M4">
         <v>0.9996843367449811</v>
-      </c>
-      <c r="H4">
-        <v>1.0005464477392</v>
-      </c>
-      <c r="I4">
-        <v>1.000970607713255</v>
-      </c>
-      <c r="J4">
-        <v>0.9985294072045284</v>
-      </c>
-      <c r="K4">
-        <v>0.999709407598304</v>
-      </c>
-      <c r="L4">
-        <v>1.00036458846483</v>
-      </c>
-      <c r="M4">
-        <v>0.9990447674872982</v>
       </c>
       <c r="N4">
         <v>1.000970607713255</v>
@@ -835,7 +787,7 @@
         <v>0.999902839281398</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,37 +795,37 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>0.9971816778913513</v>
+      </c>
+      <c r="D5">
+        <v>1.000715278265388</v>
+      </c>
+      <c r="E5">
         <v>1.001859856043978</v>
       </c>
-      <c r="D5">
+      <c r="F5">
+        <v>0.9994431873935764</v>
+      </c>
+      <c r="G5">
         <v>0.9971816778913513</v>
       </c>
-      <c r="E5">
-        <v>1.000715278265388</v>
-      </c>
-      <c r="F5">
+      <c r="H5">
+        <v>1.000698635581767</v>
+      </c>
+      <c r="I5">
+        <v>0.9981693706086345</v>
+      </c>
+      <c r="J5">
         <v>1.001859856043978</v>
       </c>
-      <c r="G5">
+      <c r="K5">
+        <v>1.001859856043978</v>
+      </c>
+      <c r="L5">
+        <v>1.001047263998623</v>
+      </c>
+      <c r="M5">
         <v>0.9993950555238349</v>
-      </c>
-      <c r="H5">
-        <v>1.001047263998623</v>
-      </c>
-      <c r="I5">
-        <v>1.001859856043978</v>
-      </c>
-      <c r="J5">
-        <v>0.9971816778913513</v>
-      </c>
-      <c r="K5">
-        <v>0.9994431873935764</v>
-      </c>
-      <c r="L5">
-        <v>1.000698635581767</v>
-      </c>
-      <c r="M5">
-        <v>0.9981693706086345</v>
       </c>
       <c r="N5">
         <v>1.001859856043978</v>
@@ -906,7 +858,7 @@
         <v>0.9998137906633942</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,37 +866,37 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>0.9958664503166822</v>
+      </c>
+      <c r="D6">
+        <v>1.001049037046158</v>
+      </c>
+      <c r="E6">
         <v>1.002727867499512</v>
       </c>
-      <c r="D6">
+      <c r="F6">
+        <v>0.999183309142978</v>
+      </c>
+      <c r="G6">
         <v>0.9958664503166822</v>
       </c>
-      <c r="E6">
-        <v>1.001049037046158</v>
-      </c>
-      <c r="F6">
+      <c r="H6">
+        <v>1.001024681436365</v>
+      </c>
+      <c r="I6">
+        <v>0.9973150588626747</v>
+      </c>
+      <c r="J6">
         <v>1.002727867499512</v>
       </c>
-      <c r="G6">
+      <c r="K6">
+        <v>1.002727867499512</v>
+      </c>
+      <c r="L6">
+        <v>1.001535973025995</v>
+      </c>
+      <c r="M6">
         <v>0.999112746012403</v>
-      </c>
-      <c r="H6">
-        <v>1.001535973025995</v>
-      </c>
-      <c r="I6">
-        <v>1.002727867499512</v>
-      </c>
-      <c r="J6">
-        <v>0.9958664503166822</v>
-      </c>
-      <c r="K6">
-        <v>0.999183309142978</v>
-      </c>
-      <c r="L6">
-        <v>1.001024681436365</v>
-      </c>
-      <c r="M6">
-        <v>0.9973150588626747</v>
       </c>
       <c r="N6">
         <v>1.002727867499512</v>
@@ -977,7 +929,7 @@
         <v>0.9997268904178461</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,37 +937,37 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>0.9999297456829764</v>
+      </c>
+      <c r="D7">
+        <v>1.000017182081337</v>
+      </c>
+      <c r="E7">
         <v>1.000047512567815</v>
       </c>
-      <c r="D7">
-        <v>0.9999297456829761</v>
-      </c>
-      <c r="E7">
-        <v>1.000017182081337</v>
-      </c>
       <c r="F7">
+        <v>0.9999857074048794</v>
+      </c>
+      <c r="G7">
+        <v>0.9999297456829764</v>
+      </c>
+      <c r="H7">
+        <v>1.00001777506239</v>
+      </c>
+      <c r="I7">
+        <v>0.9999542554368407</v>
+      </c>
+      <c r="J7">
         <v>1.000047512567815</v>
       </c>
-      <c r="G7">
+      <c r="K7">
+        <v>1.000047512567815</v>
+      </c>
+      <c r="L7">
+        <v>1.000026037232888</v>
+      </c>
+      <c r="M7">
         <v>0.9999848812054625</v>
-      </c>
-      <c r="H7">
-        <v>1.000026037232888</v>
-      </c>
-      <c r="I7">
-        <v>1.000047512567815</v>
-      </c>
-      <c r="J7">
-        <v>0.9999297456829761</v>
-      </c>
-      <c r="K7">
-        <v>0.9999857074048794</v>
-      </c>
-      <c r="L7">
-        <v>1.00001777506239</v>
-      </c>
-      <c r="M7">
-        <v>0.9999542554368404</v>
       </c>
       <c r="N7">
         <v>1.000047512567815</v>
@@ -1024,31 +976,31 @@
         <v>1.000017182081337</v>
       </c>
       <c r="P7">
-        <v>0.9999734638821568</v>
+        <v>0.9999734638821569</v>
       </c>
       <c r="Q7">
         <v>1.0000010316434</v>
       </c>
       <c r="R7">
-        <v>0.9999981467773761</v>
+        <v>0.9999981467773762</v>
       </c>
       <c r="S7">
         <v>0.9999772696565921</v>
       </c>
       <c r="T7">
-        <v>0.9999981467773761</v>
+        <v>0.9999981467773763</v>
       </c>
       <c r="U7">
-        <v>0.9999948303843976</v>
+        <v>0.9999948303843978</v>
       </c>
       <c r="V7">
         <v>1.000005366821081</v>
       </c>
       <c r="W7">
-        <v>0.9999953870843236</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+        <v>0.9999953870843237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,37 +1008,37 @@
         <v>6</v>
       </c>
       <c r="C8">
+        <v>0.999790081748468</v>
+      </c>
+      <c r="D8">
+        <v>1.000051319594889</v>
+      </c>
+      <c r="E8">
         <v>1.000142005489614</v>
       </c>
-      <c r="D8">
+      <c r="F8">
+        <v>0.9999572765635076</v>
+      </c>
+      <c r="G8">
         <v>0.999790081748468</v>
       </c>
-      <c r="E8">
-        <v>1.000051319594889</v>
-      </c>
-      <c r="F8">
+      <c r="H8">
+        <v>1.000053123230251</v>
+      </c>
+      <c r="I8">
+        <v>0.9998633101722429</v>
+      </c>
+      <c r="J8">
         <v>1.000142005489614</v>
       </c>
-      <c r="G8">
-        <v>0.9999548240541944</v>
-      </c>
-      <c r="H8">
+      <c r="K8">
+        <v>1.000142005489614</v>
+      </c>
+      <c r="L8">
         <v>1.000077797746573</v>
       </c>
-      <c r="I8">
-        <v>1.000142005489614</v>
-      </c>
-      <c r="J8">
-        <v>0.999790081748468</v>
-      </c>
-      <c r="K8">
-        <v>0.9999572765635076</v>
-      </c>
-      <c r="L8">
-        <v>1.000053123230252</v>
-      </c>
       <c r="M8">
-        <v>0.9998633101722427</v>
+        <v>0.9999548240541947</v>
       </c>
       <c r="N8">
         <v>1.000142005489614</v>
@@ -1098,7 +1050,7 @@
         <v>0.9999207006716783</v>
       </c>
       <c r="Q8">
-        <v>1.000003071824541</v>
+        <v>1.000003071824542</v>
       </c>
       <c r="R8">
         <v>0.9999944689443235</v>
@@ -1110,16 +1062,16 @@
         <v>0.9999944689443235</v>
       </c>
       <c r="U8">
-        <v>0.9999845577217913</v>
+        <v>0.9999845577217914</v>
       </c>
       <c r="V8">
         <v>1.000016047275356</v>
       </c>
       <c r="W8">
-        <v>0.9999862173249675</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>0.9999862173249676</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,37 +1079,37 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>0.9996660720321847</v>
+      </c>
+      <c r="D9">
+        <v>1.000081485220526</v>
+      </c>
+      <c r="E9">
         <v>1.00022616796073</v>
       </c>
-      <c r="D9">
+      <c r="F9">
+        <v>0.9999319388480037</v>
+      </c>
+      <c r="G9">
         <v>0.9996660720321847</v>
       </c>
-      <c r="E9">
-        <v>1.000081485220526</v>
-      </c>
-      <c r="F9">
+      <c r="H9">
+        <v>1.00008459111099</v>
+      </c>
+      <c r="I9">
+        <v>0.999782533744879</v>
+      </c>
+      <c r="J9">
         <v>1.00022616796073</v>
       </c>
-      <c r="G9">
+      <c r="K9">
+        <v>1.00022616796073</v>
+      </c>
+      <c r="L9">
+        <v>1.000123740993518</v>
+      </c>
+      <c r="M9">
         <v>0.9999281273352481</v>
-      </c>
-      <c r="H9">
-        <v>1.000123740993518</v>
-      </c>
-      <c r="I9">
-        <v>1.00022616796073</v>
-      </c>
-      <c r="J9">
-        <v>0.9996660720321847</v>
-      </c>
-      <c r="K9">
-        <v>0.9999319388480037</v>
-      </c>
-      <c r="L9">
-        <v>1.00008459111099</v>
-      </c>
-      <c r="M9">
-        <v>0.999782533744879</v>
       </c>
       <c r="N9">
         <v>1.00022616796073</v>
@@ -1190,7 +1142,7 @@
         <v>0.99997808215576</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,37 +1150,37 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>0.9993168855967719</v>
+      </c>
+      <c r="D10">
+        <v>1.000166964835711</v>
+      </c>
+      <c r="E10">
         <v>1.000462189083728</v>
       </c>
-      <c r="D10">
+      <c r="F10">
+        <v>0.9998609383188491</v>
+      </c>
+      <c r="G10">
         <v>0.9993168855967719</v>
       </c>
-      <c r="E10">
-        <v>1.000166964835711</v>
-      </c>
-      <c r="F10">
+      <c r="H10">
+        <v>1.0001728969477</v>
+      </c>
+      <c r="I10">
+        <v>0.99955517637116</v>
+      </c>
+      <c r="J10">
         <v>1.000462189083728</v>
       </c>
-      <c r="G10">
+      <c r="K10">
+        <v>1.000462189083728</v>
+      </c>
+      <c r="L10">
+        <v>1.000253165435725</v>
+      </c>
+      <c r="M10">
         <v>0.9998529857167807</v>
-      </c>
-      <c r="H10">
-        <v>1.000253165435725</v>
-      </c>
-      <c r="I10">
-        <v>1.000462189083728</v>
-      </c>
-      <c r="J10">
-        <v>0.9993168855967719</v>
-      </c>
-      <c r="K10">
-        <v>0.9998609383188491</v>
-      </c>
-      <c r="L10">
-        <v>1.0001728969477</v>
-      </c>
-      <c r="M10">
-        <v>0.99955517637116</v>
       </c>
       <c r="N10">
         <v>1.000462189083728</v>
@@ -1237,22 +1189,22 @@
         <v>1.000166964835711</v>
       </c>
       <c r="P10">
-        <v>0.9997419252162412</v>
+        <v>0.9997419252162414</v>
       </c>
       <c r="Q10">
         <v>1.000009975276246</v>
       </c>
       <c r="R10">
-        <v>0.9999820131720702</v>
+        <v>0.9999820131720704</v>
       </c>
       <c r="S10">
-        <v>0.9997789453830878</v>
+        <v>0.9997789453830879</v>
       </c>
       <c r="T10">
-        <v>0.9999820131720702</v>
+        <v>0.9999820131720704</v>
       </c>
       <c r="U10">
-        <v>0.9999497563082479</v>
+        <v>0.999949756308248</v>
       </c>
       <c r="V10">
         <v>1.000052242863344</v>
@@ -1261,7 +1213,7 @@
         <v>0.9999551502883033</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,37 +1221,37 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>0.9987697250871665</v>
+      </c>
+      <c r="D11">
+        <v>1.000299905286059</v>
+      </c>
+      <c r="E11">
         <v>1.000833809521289</v>
       </c>
-      <c r="D11">
+      <c r="F11">
+        <v>0.9997490417996656</v>
+      </c>
+      <c r="G11">
         <v>0.9987697250871665</v>
       </c>
-      <c r="E11">
-        <v>1.000299905286059</v>
-      </c>
-      <c r="F11">
+      <c r="H11">
+        <v>1.000311826639849</v>
+      </c>
+      <c r="I11">
+        <v>0.999198739733415</v>
+      </c>
+      <c r="J11">
         <v>1.000833809521289</v>
       </c>
-      <c r="G11">
+      <c r="K11">
+        <v>1.000833809521289</v>
+      </c>
+      <c r="L11">
+        <v>1.000455861735736</v>
+      </c>
+      <c r="M11">
         <v>0.9997351845646913</v>
-      </c>
-      <c r="H11">
-        <v>1.000455861735736</v>
-      </c>
-      <c r="I11">
-        <v>1.000833809521289</v>
-      </c>
-      <c r="J11">
-        <v>0.9987697250871665</v>
-      </c>
-      <c r="K11">
-        <v>0.9997490417996656</v>
-      </c>
-      <c r="L11">
-        <v>1.000311826639849</v>
-      </c>
-      <c r="M11">
-        <v>0.999198739733415</v>
       </c>
       <c r="N11">
         <v>1.000833809521289</v>
@@ -1332,7 +1284,7 @@
         <v>0.9999192617959839</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,43 +1292,43 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>1.011900432336229</v>
+      </c>
+      <c r="D12">
+        <v>0.9970374114771908</v>
+      </c>
+      <c r="E12">
         <v>0.9920441157028639</v>
       </c>
-      <c r="D12">
+      <c r="F12">
+        <v>1.002388097741924</v>
+      </c>
+      <c r="G12">
         <v>1.011900432336229</v>
       </c>
-      <c r="E12">
-        <v>0.9970374114771907</v>
-      </c>
-      <c r="F12">
+      <c r="H12">
+        <v>0.9970179290362796</v>
+      </c>
+      <c r="I12">
+        <v>1.007739902697986</v>
+      </c>
+      <c r="J12">
         <v>0.9920441157028639</v>
       </c>
-      <c r="G12">
+      <c r="K12">
+        <v>0.9920441157028639</v>
+      </c>
+      <c r="L12">
+        <v>0.9955839789808788</v>
+      </c>
+      <c r="M12">
         <v>1.002557863807517</v>
-      </c>
-      <c r="H12">
-        <v>0.9955839789808788</v>
-      </c>
-      <c r="I12">
-        <v>0.9920441157028639</v>
-      </c>
-      <c r="J12">
-        <v>1.011900432336229</v>
-      </c>
-      <c r="K12">
-        <v>1.002388097741924</v>
-      </c>
-      <c r="L12">
-        <v>0.9970179290362796</v>
-      </c>
-      <c r="M12">
-        <v>1.007739902697986</v>
       </c>
       <c r="N12">
         <v>0.9920441157028639</v>
       </c>
       <c r="O12">
-        <v>0.9970374114771907</v>
+        <v>0.9970374114771908</v>
       </c>
       <c r="P12">
         <v>1.00446892190671</v>
@@ -1403,7 +1355,7 @@
         <v>1.000783716472609</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,37 +1363,37 @@
         <v>11</v>
       </c>
       <c r="C13">
+        <v>1.003092392309799</v>
+      </c>
+      <c r="D13">
+        <v>0.9992211398179152</v>
+      </c>
+      <c r="E13">
         <v>0.9979486510136296</v>
       </c>
-      <c r="D13">
+      <c r="F13">
+        <v>1.00061479192147</v>
+      </c>
+      <c r="G13">
         <v>1.003092392309799</v>
       </c>
-      <c r="E13">
-        <v>0.9992211398179152</v>
-      </c>
-      <c r="F13">
+      <c r="H13">
+        <v>0.9992301057684592</v>
+      </c>
+      <c r="I13">
+        <v>1.002009691371328</v>
+      </c>
+      <c r="J13">
         <v>0.9979486510136296</v>
       </c>
-      <c r="G13">
+      <c r="K13">
+        <v>0.9979486510136296</v>
+      </c>
+      <c r="L13">
+        <v>0.9988515272108537</v>
+      </c>
+      <c r="M13">
         <v>1.000664135200781</v>
-      </c>
-      <c r="H13">
-        <v>0.9988515272108537</v>
-      </c>
-      <c r="I13">
-        <v>0.9979486510136296</v>
-      </c>
-      <c r="J13">
-        <v>1.003092392309799</v>
-      </c>
-      <c r="K13">
-        <v>1.00061479192147</v>
-      </c>
-      <c r="L13">
-        <v>0.9992301057684592</v>
-      </c>
-      <c r="M13">
-        <v>1.002009691371328</v>
       </c>
       <c r="N13">
         <v>0.9979486510136296</v>
@@ -1474,7 +1426,7 @@
         <v>1.00020405432678</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,37 +1434,37 @@
         <v>12</v>
       </c>
       <c r="C14">
+        <v>0.9631303094325089</v>
+      </c>
+      <c r="D14">
+        <v>1.009630860170504</v>
+      </c>
+      <c r="E14">
         <v>1.02384479496947</v>
       </c>
-      <c r="D14">
+      <c r="F14">
+        <v>0.9928906591822821</v>
+      </c>
+      <c r="G14">
         <v>0.9631303094325089</v>
       </c>
-      <c r="E14">
-        <v>1.009630860170504</v>
-      </c>
-      <c r="F14">
+      <c r="H14">
+        <v>1.008987733906296</v>
+      </c>
+      <c r="I14">
+        <v>0.9760986970092749</v>
+      </c>
+      <c r="J14">
         <v>1.02384479496947</v>
       </c>
-      <c r="G14">
-        <v>0.9921024356548201</v>
-      </c>
-      <c r="H14">
+      <c r="K14">
+        <v>1.02384479496947</v>
+      </c>
+      <c r="L14">
         <v>1.013729099860233</v>
       </c>
-      <c r="I14">
-        <v>1.02384479496947</v>
-      </c>
-      <c r="J14">
-        <v>0.9631303094325089</v>
-      </c>
-      <c r="K14">
-        <v>0.9928906591822821</v>
-      </c>
-      <c r="L14">
-        <v>1.008987733906296</v>
-      </c>
       <c r="M14">
-        <v>0.9760986970092749</v>
+        <v>0.9921024356548199</v>
       </c>
       <c r="N14">
         <v>1.02384479496947</v>
@@ -1530,22 +1482,22 @@
         <v>0.9988686548574947</v>
       </c>
       <c r="S14">
-        <v>0.9882878684192778</v>
+        <v>0.9882878684192776</v>
       </c>
       <c r="T14">
         <v>0.9988686548574944</v>
       </c>
       <c r="U14">
-        <v>0.9971771000568259</v>
+        <v>0.9971771000568258</v>
       </c>
       <c r="V14">
         <v>1.002510639039355</v>
       </c>
       <c r="W14">
-        <v>0.9975518237731738</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
+        <v>0.9975518237731735</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,37 +1505,37 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>0.9903291887809755</v>
+      </c>
+      <c r="D15">
+        <v>1.002246693879998</v>
+      </c>
+      <c r="E15">
         <v>1.006751230633846</v>
       </c>
-      <c r="D15">
+      <c r="F15">
+        <v>0.9979563900521016</v>
+      </c>
+      <c r="G15">
         <v>0.9903291887809755</v>
       </c>
-      <c r="E15">
-        <v>1.002246693879998</v>
-      </c>
-      <c r="F15">
+      <c r="H15">
+        <v>1.002512707982678</v>
+      </c>
+      <c r="I15">
+        <v>0.9936823756656112</v>
+      </c>
+      <c r="J15">
         <v>1.006751230633846</v>
       </c>
-      <c r="G15">
+      <c r="K15">
+        <v>1.006751230633846</v>
+      </c>
+      <c r="L15">
+        <v>1.003571771507939</v>
+      </c>
+      <c r="M15">
         <v>0.9979116945411328</v>
-      </c>
-      <c r="H15">
-        <v>1.003571771507939</v>
-      </c>
-      <c r="I15">
-        <v>1.006751230633846</v>
-      </c>
-      <c r="J15">
-        <v>0.9903291887809755</v>
-      </c>
-      <c r="K15">
-        <v>0.9979563900521016</v>
-      </c>
-      <c r="L15">
-        <v>1.002512707982678</v>
-      </c>
-      <c r="M15">
-        <v>0.9936823756656112</v>
       </c>
       <c r="N15">
         <v>1.006751230633846</v>
@@ -1616,7 +1568,7 @@
         <v>0.9993702566305352</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000000378302178</v>
+        <v>0.9851338292353525</v>
       </c>
       <c r="D16">
-        <v>0.9999958985931375</v>
+        <v>1.003769542097964</v>
       </c>
       <c r="E16">
-        <v>1.000002349555793</v>
+        <v>1.009816541974986</v>
       </c>
       <c r="F16">
-        <v>1.000000378302178</v>
+        <v>0.9970606928783907</v>
       </c>
       <c r="G16">
-        <v>0.9999991983811195</v>
+        <v>0.9851338292353525</v>
       </c>
       <c r="H16">
-        <v>1.000001660911303</v>
+        <v>1.003687090035182</v>
       </c>
       <c r="I16">
-        <v>1.000000378302178</v>
+        <v>0.9903431132824988</v>
       </c>
       <c r="J16">
-        <v>0.9999958985931375</v>
+        <v>1.009816541974986</v>
       </c>
       <c r="K16">
-        <v>1.000000029576204</v>
+        <v>1.009816541974986</v>
       </c>
       <c r="L16">
-        <v>1.000000289101727</v>
+        <v>1.005523751821825</v>
       </c>
       <c r="M16">
-        <v>0.9999975637498933</v>
+        <v>0.9968088035370939</v>
       </c>
       <c r="N16">
-        <v>1.000000378302178</v>
+        <v>1.009816541974986</v>
       </c>
       <c r="O16">
-        <v>1.000002349555793</v>
+        <v>1.003769542097964</v>
       </c>
       <c r="P16">
-        <v>0.999999124074465</v>
+        <v>0.9944516856666585</v>
       </c>
       <c r="Q16">
-        <v>1.000000773968456</v>
+        <v>1.000289172817529</v>
       </c>
       <c r="R16">
-        <v>0.9999995421503692</v>
+        <v>0.9995733044361009</v>
       </c>
       <c r="S16">
-        <v>0.9999991488433498</v>
+        <v>0.9952373916234704</v>
       </c>
       <c r="T16">
-        <v>0.9999995421503693</v>
+        <v>0.9995733044361009</v>
       </c>
       <c r="U16">
-        <v>0.9999994562080569</v>
+        <v>0.9988821792113491</v>
       </c>
       <c r="V16">
-        <v>0.999999640626881</v>
+        <v>1.001069051764076</v>
       </c>
       <c r="W16">
-        <v>0.9999996710214194</v>
+        <v>0.9990179206079117</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000047512949314</v>
+        <v>0.9878150851796936</v>
       </c>
       <c r="D17">
-        <v>0.9999353741012039</v>
+        <v>1.00307297190045</v>
       </c>
       <c r="E17">
-        <v>1.000013664376807</v>
+        <v>1.008075719989094</v>
       </c>
       <c r="F17">
-        <v>1.000047512949314</v>
+        <v>0.9975801386025295</v>
       </c>
       <c r="G17">
-        <v>0.999985963712824</v>
+        <v>0.9878150851796936</v>
       </c>
       <c r="H17">
-        <v>1.000023727047024</v>
+        <v>1.003031365320209</v>
       </c>
       <c r="I17">
-        <v>1.000047512949314</v>
+        <v>0.9920819334189179</v>
       </c>
       <c r="J17">
-        <v>0.9999353741012039</v>
+        <v>1.008075719989094</v>
       </c>
       <c r="K17">
-        <v>0.9999854820288959</v>
+        <v>1.008075719989094</v>
       </c>
       <c r="L17">
-        <v>1.000017540400062</v>
+        <v>1.004525737913978</v>
       </c>
       <c r="M17">
-        <v>0.9999575497064417</v>
+        <v>0.9973833623484217</v>
       </c>
       <c r="N17">
-        <v>1.000047512949314</v>
+        <v>1.008075719989094</v>
       </c>
       <c r="O17">
-        <v>1.000013664376807</v>
+        <v>1.00307297190045</v>
       </c>
       <c r="P17">
-        <v>0.9999745192390053</v>
+        <v>0.9954440285400719</v>
       </c>
       <c r="Q17">
-        <v>0.9999998140448154</v>
+        <v>1.000228167124436</v>
       </c>
       <c r="R17">
-        <v>0.9999988504757749</v>
+        <v>0.9996545923564127</v>
       </c>
       <c r="S17">
-        <v>0.9999783340636115</v>
+        <v>0.9960904731428551</v>
       </c>
       <c r="T17">
-        <v>0.9999988504757749</v>
+        <v>0.9996545923564127</v>
       </c>
       <c r="U17">
-        <v>0.9999956287850371</v>
+        <v>0.9990867848544149</v>
       </c>
       <c r="V17">
-        <v>1.000006005617892</v>
+        <v>1.000884571881351</v>
       </c>
       <c r="W17">
-        <v>0.9999958517903216</v>
+        <v>0.9991957893341619</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.00014897154126</v>
+        <v>0.9931450482132246</v>
       </c>
       <c r="D18">
-        <v>0.9997621758003074</v>
+        <v>1.001687973404683</v>
       </c>
       <c r="E18">
-        <v>1.000064843675734</v>
+        <v>1.00461576843135</v>
       </c>
       <c r="F18">
-        <v>1.00014897154126</v>
+        <v>0.9986125234252649</v>
       </c>
       <c r="G18">
-        <v>0.9999492215724902</v>
+        <v>0.9931450482132246</v>
       </c>
       <c r="H18">
-        <v>1.000088844382107</v>
+        <v>1.001728049761702</v>
       </c>
       <c r="I18">
-        <v>1.00014897154126</v>
+        <v>0.9955384104381236</v>
       </c>
       <c r="J18">
-        <v>0.9997621758003074</v>
+        <v>1.00461576843135</v>
       </c>
       <c r="K18">
-        <v>0.9999558814590455</v>
+        <v>1.00461576843135</v>
       </c>
       <c r="L18">
-        <v>1.000056464699326</v>
+        <v>1.002541791989915</v>
       </c>
       <c r="M18">
-        <v>0.9998463027462602</v>
+        <v>0.9985254860081939</v>
       </c>
       <c r="N18">
-        <v>1.00014897154126</v>
+        <v>1.00461576843135</v>
       </c>
       <c r="O18">
-        <v>1.000064843675734</v>
+        <v>1.001687973404683</v>
       </c>
       <c r="P18">
-        <v>0.9999135097380205</v>
+        <v>0.9974165108089539</v>
       </c>
       <c r="Q18">
-        <v>1.000007032624112</v>
+        <v>1.000106729706439</v>
       </c>
       <c r="R18">
-        <v>0.999991997005767</v>
+        <v>0.9998162633497524</v>
       </c>
       <c r="S18">
-        <v>0.9999254136828437</v>
+        <v>0.9977861692087006</v>
       </c>
       <c r="T18">
-        <v>0.999991997005767</v>
+        <v>0.9998162633497524</v>
       </c>
       <c r="U18">
-        <v>0.9999813031474478</v>
+        <v>0.9994935690143628</v>
       </c>
       <c r="V18">
-        <v>1.00001483682621</v>
+        <v>1.00051800889776</v>
       </c>
       <c r="W18">
-        <v>0.9999840882345662</v>
+        <v>0.9995493814590573</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,66 +1789,350 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.992631998450247</v>
+      </c>
+      <c r="D19">
+        <v>1.001808807378255</v>
+      </c>
+      <c r="E19">
+        <v>1.00497100401709</v>
+      </c>
+      <c r="F19">
+        <v>0.998505156862693</v>
+      </c>
+      <c r="G19">
+        <v>0.992631998450247</v>
+      </c>
+      <c r="H19">
+        <v>1.001860438161862</v>
+      </c>
+      <c r="I19">
+        <v>0.9952035402848474</v>
+      </c>
+      <c r="J19">
+        <v>1.00497100401709</v>
+      </c>
+      <c r="K19">
+        <v>1.00497100401709</v>
+      </c>
+      <c r="L19">
+        <v>1.002731452441055</v>
+      </c>
+      <c r="M19">
+        <v>0.9984147971725121</v>
+      </c>
+      <c r="N19">
+        <v>1.00497100401709</v>
+      </c>
+      <c r="O19">
+        <v>1.001808807378255</v>
+      </c>
+      <c r="P19">
+        <v>0.9972204029142508</v>
+      </c>
+      <c r="Q19">
+        <v>1.000111802275383</v>
+      </c>
+      <c r="R19">
+        <v>0.9998039366151973</v>
+      </c>
+      <c r="S19">
+        <v>0.9976185343336713</v>
+      </c>
+      <c r="T19">
+        <v>0.9998039366151973</v>
+      </c>
+      <c r="U19">
+        <v>0.999456651754526</v>
+      </c>
+      <c r="V19">
+        <v>1.000559522207039</v>
+      </c>
+      <c r="W19">
+        <v>0.9995158993460701</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9999958985931373</v>
+      </c>
+      <c r="D20">
+        <v>1.000002349555793</v>
+      </c>
+      <c r="E20">
+        <v>1.000000378302178</v>
+      </c>
+      <c r="F20">
+        <v>1.000000029576204</v>
+      </c>
+      <c r="G20">
+        <v>0.9999958985931373</v>
+      </c>
+      <c r="H20">
+        <v>1.000000289101727</v>
+      </c>
+      <c r="I20">
+        <v>0.9999975637498933</v>
+      </c>
+      <c r="J20">
+        <v>1.000000378302178</v>
+      </c>
+      <c r="K20">
+        <v>1.000000378302178</v>
+      </c>
+      <c r="L20">
+        <v>1.000001660911303</v>
+      </c>
+      <c r="M20">
+        <v>0.9999991983811193</v>
+      </c>
+      <c r="N20">
+        <v>1.000000378302178</v>
+      </c>
+      <c r="O20">
+        <v>1.000002349555793</v>
+      </c>
+      <c r="P20">
+        <v>0.999999124074465</v>
+      </c>
+      <c r="Q20">
+        <v>1.000000773968456</v>
+      </c>
+      <c r="R20">
+        <v>0.9999995421503692</v>
+      </c>
+      <c r="S20">
+        <v>0.9999991488433498</v>
+      </c>
+      <c r="T20">
+        <v>0.9999995421503692</v>
+      </c>
+      <c r="U20">
+        <v>0.9999994562080567</v>
+      </c>
+      <c r="V20">
+        <v>0.999999640626881</v>
+      </c>
+      <c r="W20">
+        <v>0.9999996710214193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9999353741012039</v>
+      </c>
+      <c r="D21">
+        <v>1.000013664376807</v>
+      </c>
+      <c r="E21">
+        <v>1.000047512949314</v>
+      </c>
+      <c r="F21">
+        <v>0.9999854820288959</v>
+      </c>
+      <c r="G21">
+        <v>0.9999353741012039</v>
+      </c>
+      <c r="H21">
+        <v>1.000017540400062</v>
+      </c>
+      <c r="I21">
+        <v>0.9999575497064418</v>
+      </c>
+      <c r="J21">
+        <v>1.000047512949314</v>
+      </c>
+      <c r="K21">
+        <v>1.000047512949314</v>
+      </c>
+      <c r="L21">
+        <v>1.000023727047024</v>
+      </c>
+      <c r="M21">
+        <v>0.999985963712824</v>
+      </c>
+      <c r="N21">
+        <v>1.000047512949314</v>
+      </c>
+      <c r="O21">
+        <v>1.000013664376807</v>
+      </c>
+      <c r="P21">
+        <v>0.9999745192390053</v>
+      </c>
+      <c r="Q21">
+        <v>0.9999998140448154</v>
+      </c>
+      <c r="R21">
+        <v>0.9999988504757749</v>
+      </c>
+      <c r="S21">
+        <v>0.9999783340636115</v>
+      </c>
+      <c r="T21">
+        <v>0.9999988504757749</v>
+      </c>
+      <c r="U21">
+        <v>0.9999956287850371</v>
+      </c>
+      <c r="V21">
+        <v>1.000006005617892</v>
+      </c>
+      <c r="W21">
+        <v>0.9999958517903216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9997621758003074</v>
+      </c>
+      <c r="D22">
+        <v>1.000064843675734</v>
+      </c>
+      <c r="E22">
+        <v>1.00014897154126</v>
+      </c>
+      <c r="F22">
+        <v>0.9999558814590455</v>
+      </c>
+      <c r="G22">
+        <v>0.9997621758003074</v>
+      </c>
+      <c r="H22">
+        <v>1.000056464699326</v>
+      </c>
+      <c r="I22">
+        <v>0.9998463027462602</v>
+      </c>
+      <c r="J22">
+        <v>1.00014897154126</v>
+      </c>
+      <c r="K22">
+        <v>1.00014897154126</v>
+      </c>
+      <c r="L22">
+        <v>1.000088844382107</v>
+      </c>
+      <c r="M22">
+        <v>0.9999492215724902</v>
+      </c>
+      <c r="N22">
+        <v>1.00014897154126</v>
+      </c>
+      <c r="O22">
+        <v>1.000064843675734</v>
+      </c>
+      <c r="P22">
+        <v>0.9999135097380205</v>
+      </c>
+      <c r="Q22">
+        <v>1.000007032624112</v>
+      </c>
+      <c r="R22">
+        <v>0.999991997005767</v>
+      </c>
+      <c r="S22">
+        <v>0.9999254136828437</v>
+      </c>
+      <c r="T22">
+        <v>0.999991997005767</v>
+      </c>
+      <c r="U22">
+        <v>0.9999813031474478</v>
+      </c>
+      <c r="V22">
+        <v>1.00001483682621</v>
+      </c>
+      <c r="W22">
+        <v>0.9999840882345663</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9994364206954567</v>
+      </c>
+      <c r="D23">
+        <v>1.000162356846793</v>
+      </c>
+      <c r="E23">
         <v>1.000337564965188</v>
       </c>
-      <c r="D19">
+      <c r="F23">
+        <v>0.9999010236639695</v>
+      </c>
+      <c r="G23">
         <v>0.9994364206954567</v>
       </c>
-      <c r="E19">
+      <c r="H23">
+        <v>1.000128976715944</v>
+      </c>
+      <c r="I23">
+        <v>0.9996372793556936</v>
+      </c>
+      <c r="J23">
+        <v>1.000337564965188</v>
+      </c>
+      <c r="K23">
+        <v>1.000337564965188</v>
+      </c>
+      <c r="L23">
+        <v>1.00021145247161</v>
+      </c>
+      <c r="M23">
+        <v>0.999880191432483</v>
+      </c>
+      <c r="N23">
+        <v>1.000337564965188</v>
+      </c>
+      <c r="O23">
         <v>1.000162356846793</v>
       </c>
-      <c r="F19">
-        <v>1.000337564965188</v>
-      </c>
-      <c r="G19">
-        <v>0.999880191432483</v>
-      </c>
-      <c r="H19">
-        <v>1.00021145247161</v>
-      </c>
-      <c r="I19">
-        <v>1.000337564965188</v>
-      </c>
-      <c r="J19">
-        <v>0.9994364206954567</v>
-      </c>
-      <c r="K19">
-        <v>0.9999010236639695</v>
-      </c>
-      <c r="L19">
-        <v>1.000128976715944</v>
-      </c>
-      <c r="M19">
-        <v>0.9996372793556936</v>
-      </c>
-      <c r="N19">
-        <v>1.000337564965188</v>
-      </c>
-      <c r="O19">
-        <v>1.000162356846793</v>
-      </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.999799388771125</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.000021274139638</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9999787808358128</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9998263229915776</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9999787808358128</v>
       </c>
-      <c r="U19">
+      <c r="U23">
         <v>0.9999541334849803</v>
       </c>
-      <c r="V19">
+      <c r="V23">
         <v>1.000030819781022</v>
       </c>
-      <c r="W19">
+      <c r="W23">
         <v>0.9999619082683923</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/CopperA-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/CopperA-HW40.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 0, 0]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9992381089628666</v>
+        <v>0.9918932464985607</v>
       </c>
       <c r="D3">
-        <v>1.000193486149245</v>
+        <v>1.001995315367437</v>
       </c>
       <c r="E3">
-        <v>1.000502567617163</v>
+        <v>1.005460269351582</v>
       </c>
       <c r="F3">
-        <v>0.9998495529503783</v>
+        <v>0.9983585744092227</v>
       </c>
       <c r="G3">
-        <v>0.9992381089628666</v>
+        <v>0.9918932464985607</v>
       </c>
       <c r="H3">
-        <v>1.000188797419826</v>
+        <v>1.002044117074929</v>
       </c>
       <c r="I3">
-        <v>0.9995051374396164</v>
+        <v>0.9947235115850159</v>
       </c>
       <c r="J3">
-        <v>1.000502567617163</v>
+        <v>1.005460269351582</v>
       </c>
       <c r="K3">
-        <v>1.000502567617163</v>
+        <v>1.005460269351582</v>
       </c>
       <c r="L3">
-        <v>1.00028312291439</v>
+        <v>1.003005860453888</v>
       </c>
       <c r="M3">
-        <v>0.9998364691110123</v>
+        <v>0.9982561669668547</v>
       </c>
       <c r="N3">
-        <v>1.000502567617163</v>
+        <v>1.005460269351582</v>
       </c>
       <c r="O3">
-        <v>1.000193486149245</v>
+        <v>1.001995315367437</v>
       </c>
       <c r="P3">
-        <v>0.9997157975560559</v>
+        <v>0.9969442809329987</v>
       </c>
       <c r="Q3">
-        <v>1.000014977630129</v>
+        <v>1.000125741167146</v>
       </c>
       <c r="R3">
-        <v>0.9999780542430914</v>
+        <v>0.9997829437391932</v>
       </c>
       <c r="S3">
-        <v>0.999756021407708</v>
+        <v>0.9973815762776174</v>
       </c>
       <c r="T3">
-        <v>0.9999780542430914</v>
+        <v>0.9997829437391932</v>
       </c>
       <c r="U3">
-        <v>0.9999426579600716</v>
+        <v>0.9994012495461085</v>
       </c>
       <c r="V3">
-        <v>1.00005463989149</v>
+        <v>1.000613053507203</v>
       </c>
       <c r="W3">
-        <v>0.9999496553205621</v>
+        <v>0.9994671327134362</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9985294072045284</v>
+        <v>0.9926633315421158</v>
       </c>
       <c r="D4">
-        <v>1.000373151298786</v>
+        <v>1.001806169332837</v>
       </c>
       <c r="E4">
-        <v>1.000970607713255</v>
+        <v>1.004940880333588</v>
       </c>
       <c r="F4">
-        <v>0.999709407598304</v>
+        <v>0.9985147510873971</v>
       </c>
       <c r="G4">
-        <v>0.9985294072045284</v>
+        <v>0.9926633315421158</v>
       </c>
       <c r="H4">
-        <v>1.00036458846483</v>
+        <v>1.00184972052367</v>
       </c>
       <c r="I4">
-        <v>0.9990447674872985</v>
+        <v>0.9952248095546069</v>
       </c>
       <c r="J4">
-        <v>1.000970607713255</v>
+        <v>1.004940880333588</v>
       </c>
       <c r="K4">
-        <v>1.000970607713255</v>
+        <v>1.004940880333588</v>
       </c>
       <c r="L4">
-        <v>1.0005464477392</v>
+        <v>1.002720366530007</v>
       </c>
       <c r="M4">
-        <v>0.9996843367449811</v>
+        <v>0.9984218426705218</v>
       </c>
       <c r="N4">
-        <v>1.000970607713255</v>
+        <v>1.004940880333588</v>
       </c>
       <c r="O4">
-        <v>1.000373151298786</v>
+        <v>1.001806169332837</v>
       </c>
       <c r="P4">
-        <v>0.9994512792516574</v>
+        <v>0.9972347504374766</v>
       </c>
       <c r="Q4">
-        <v>1.000028744021884</v>
+        <v>1.00011400600168</v>
       </c>
       <c r="R4">
-        <v>0.9999577220721901</v>
+        <v>0.9998034604028471</v>
       </c>
       <c r="S4">
-        <v>0.9995289650827653</v>
+        <v>0.9976304478484916</v>
       </c>
       <c r="T4">
-        <v>0.9999577220721901</v>
+        <v>0.9998034604028471</v>
       </c>
       <c r="U4">
-        <v>0.9998893757403878</v>
+        <v>0.9994580559697658</v>
       </c>
       <c r="V4">
-        <v>1.000105622134961</v>
+        <v>1.00055462084253</v>
       </c>
       <c r="W4">
-        <v>0.999902839281398</v>
+        <v>0.9995177339468431</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9971816778913513</v>
+        <v>0.9903840498382758</v>
       </c>
       <c r="D5">
-        <v>1.000715278265388</v>
+        <v>1.00236575148248</v>
       </c>
       <c r="E5">
-        <v>1.001859856043978</v>
+        <v>1.006478599541778</v>
       </c>
       <c r="F5">
-        <v>0.9994431873935764</v>
+        <v>0.9980523452560675</v>
       </c>
       <c r="G5">
-        <v>0.9971816778913513</v>
+        <v>0.9903840498382758</v>
       </c>
       <c r="H5">
-        <v>1.000698635581767</v>
+        <v>1.002425228544473</v>
       </c>
       <c r="I5">
-        <v>0.9981693706086345</v>
+        <v>0.9937410373854445</v>
       </c>
       <c r="J5">
-        <v>1.001859856043978</v>
+        <v>1.006478599541778</v>
       </c>
       <c r="K5">
-        <v>1.001859856043978</v>
+        <v>1.006478599541778</v>
       </c>
       <c r="L5">
-        <v>1.001047263998623</v>
+        <v>1.003565336792454</v>
       </c>
       <c r="M5">
-        <v>0.9993950555238349</v>
+        <v>0.9979314664150929</v>
       </c>
       <c r="N5">
-        <v>1.001859856043978</v>
+        <v>1.006478599541778</v>
       </c>
       <c r="O5">
-        <v>1.000715278265388</v>
+        <v>1.00236575148248</v>
       </c>
       <c r="P5">
-        <v>0.9989484780783697</v>
+        <v>0.9963749006603781</v>
       </c>
       <c r="Q5">
-        <v>1.000055166894612</v>
+        <v>1.000148608948787</v>
       </c>
       <c r="R5">
-        <v>0.999918937400239</v>
+        <v>0.9997428002875116</v>
       </c>
       <c r="S5">
-        <v>0.9990973372268582</v>
+        <v>0.9968937559119496</v>
       </c>
       <c r="T5">
-        <v>0.999918937400239</v>
+        <v>0.9997428002875114</v>
       </c>
       <c r="U5">
-        <v>0.999787966931138</v>
+        <v>0.9992899668194068</v>
       </c>
       <c r="V5">
-        <v>1.000202344753706</v>
+        <v>1.000727693363881</v>
       </c>
       <c r="W5">
-        <v>0.9998137906633942</v>
+        <v>0.9993679769070084</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9958664503166822</v>
+        <v>0.988919353181818</v>
       </c>
       <c r="D6">
-        <v>1.001049037046158</v>
+        <v>1.002724972215908</v>
       </c>
       <c r="E6">
-        <v>1.002727867499512</v>
+        <v>1.007467409431817</v>
       </c>
       <c r="F6">
-        <v>0.999183309142978</v>
+        <v>0.9977549592613639</v>
       </c>
       <c r="G6">
-        <v>0.9958664503166822</v>
+        <v>0.988919353181818</v>
       </c>
       <c r="H6">
-        <v>1.001024681436365</v>
+        <v>1.002795266193182</v>
       </c>
       <c r="I6">
-        <v>0.9973150588626747</v>
+        <v>0.9927874817045458</v>
       </c>
       <c r="J6">
-        <v>1.002727867499512</v>
+        <v>1.007467409431817</v>
       </c>
       <c r="K6">
-        <v>1.002727867499512</v>
+        <v>1.007467409431817</v>
       </c>
       <c r="L6">
-        <v>1.001535973025995</v>
+        <v>1.004108289829545</v>
       </c>
       <c r="M6">
-        <v>0.999112746012403</v>
+        <v>0.9976163185227275</v>
       </c>
       <c r="N6">
-        <v>1.002727867499512</v>
+        <v>1.007467409431817</v>
       </c>
       <c r="O6">
-        <v>1.001049037046158</v>
+        <v>1.002724972215908</v>
       </c>
       <c r="P6">
-        <v>0.9984577436814199</v>
+        <v>0.995822162698863</v>
       </c>
       <c r="Q6">
-        <v>1.00008089152928</v>
+        <v>1.000170645369318</v>
       </c>
       <c r="R6">
-        <v>0.9998811182874506</v>
+        <v>0.9997039116098477</v>
       </c>
       <c r="S6">
-        <v>0.9986760777917475</v>
+        <v>0.9964202146401512</v>
       </c>
       <c r="T6">
-        <v>0.9998811182874507</v>
+        <v>0.9997039116098477</v>
       </c>
       <c r="U6">
-        <v>0.9996890252186887</v>
+        <v>0.9991820133380677</v>
       </c>
       <c r="V6">
-        <v>1.000296793674853</v>
+        <v>1.000839092556818</v>
       </c>
       <c r="W6">
-        <v>0.9997268904178461</v>
+        <v>0.9992717562926136</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999297456829764</v>
+        <v>0.9838743933161824</v>
       </c>
       <c r="D7">
-        <v>1.000017182081337</v>
+        <v>1.003781365376344</v>
       </c>
       <c r="E7">
-        <v>1.000047512567815</v>
+        <v>1.01119492156438</v>
       </c>
       <c r="F7">
-        <v>0.9999857074048794</v>
+        <v>0.9966148555372029</v>
       </c>
       <c r="G7">
-        <v>0.9999297456829764</v>
+        <v>0.9838743933161824</v>
       </c>
       <c r="H7">
-        <v>1.00001777506239</v>
+        <v>1.004170320983482</v>
       </c>
       <c r="I7">
-        <v>0.9999542554368407</v>
+        <v>0.9894717402323421</v>
       </c>
       <c r="J7">
-        <v>1.000047512567815</v>
+        <v>1.01119492156438</v>
       </c>
       <c r="K7">
-        <v>1.000047512567815</v>
+        <v>1.01119492156438</v>
       </c>
       <c r="L7">
-        <v>1.000026037232888</v>
+        <v>1.005959427799075</v>
       </c>
       <c r="M7">
-        <v>0.9999848812054625</v>
+        <v>0.9965199585857974</v>
       </c>
       <c r="N7">
-        <v>1.000047512567815</v>
+        <v>1.01119492156438</v>
       </c>
       <c r="O7">
-        <v>1.000017182081337</v>
+        <v>1.003781365376344</v>
       </c>
       <c r="P7">
-        <v>0.9999734638821569</v>
+        <v>0.9938278793462633</v>
       </c>
       <c r="Q7">
-        <v>1.0000010316434</v>
+        <v>1.000150661981071</v>
       </c>
       <c r="R7">
-        <v>0.9999981467773762</v>
+        <v>0.999616893418969</v>
       </c>
       <c r="S7">
-        <v>0.9999772696565921</v>
+        <v>0.9947252390927747</v>
       </c>
       <c r="T7">
-        <v>0.9999981467773763</v>
+        <v>0.999616893418969</v>
       </c>
       <c r="U7">
-        <v>0.9999948303843978</v>
+        <v>0.9988426597106761</v>
       </c>
       <c r="V7">
-        <v>1.000005366821081</v>
+        <v>1.001313112081417</v>
       </c>
       <c r="W7">
-        <v>0.9999953870843237</v>
+        <v>0.9989483729243507</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.999790081748468</v>
+        <v>0.9835397744832932</v>
       </c>
       <c r="D8">
-        <v>1.000051319594889</v>
+        <v>1.003863953474714</v>
       </c>
       <c r="E8">
-        <v>1.000142005489614</v>
+        <v>1.011419896858945</v>
       </c>
       <c r="F8">
-        <v>0.9999572765635076</v>
+        <v>0.9965472491412568</v>
       </c>
       <c r="G8">
-        <v>0.999790081748468</v>
+        <v>0.9835397744832932</v>
       </c>
       <c r="H8">
-        <v>1.000053123230251</v>
+        <v>1.004254568284014</v>
       </c>
       <c r="I8">
-        <v>0.9998633101722429</v>
+        <v>0.9892539844968623</v>
       </c>
       <c r="J8">
-        <v>1.000142005489614</v>
+        <v>1.011419896858945</v>
       </c>
       <c r="K8">
-        <v>1.000142005489614</v>
+        <v>1.011419896858945</v>
       </c>
       <c r="L8">
-        <v>1.000077797746573</v>
+        <v>1.006083523288294</v>
       </c>
       <c r="M8">
-        <v>0.9999548240541947</v>
+        <v>0.9964479929250627</v>
       </c>
       <c r="N8">
-        <v>1.000142005489614</v>
+        <v>1.011419896858945</v>
       </c>
       <c r="O8">
-        <v>1.000051319594889</v>
+        <v>1.003863953474714</v>
       </c>
       <c r="P8">
-        <v>0.9999207006716783</v>
+        <v>0.9937018639790038</v>
       </c>
       <c r="Q8">
-        <v>1.000003071824542</v>
+        <v>1.000155973199889</v>
       </c>
       <c r="R8">
-        <v>0.9999944689443235</v>
+        <v>0.9996078749389842</v>
       </c>
       <c r="S8">
-        <v>0.999932075132517</v>
+        <v>0.9946172402943567</v>
       </c>
       <c r="T8">
-        <v>0.9999944689443235</v>
+        <v>0.9996078749389842</v>
       </c>
       <c r="U8">
-        <v>0.9999845577217914</v>
+        <v>0.9988179044355039</v>
       </c>
       <c r="V8">
-        <v>1.000016047275356</v>
+        <v>1.001338302920192</v>
       </c>
       <c r="W8">
-        <v>0.9999862173249676</v>
+        <v>0.9989263678690554</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9996660720321847</v>
+        <v>0.9833410951961981</v>
       </c>
       <c r="D9">
-        <v>1.000081485220526</v>
+        <v>1.003913786521433</v>
       </c>
       <c r="E9">
-        <v>1.00022616796073</v>
+        <v>1.011552059199341</v>
       </c>
       <c r="F9">
-        <v>0.9999319388480037</v>
+        <v>0.9965076178589222</v>
       </c>
       <c r="G9">
-        <v>0.9996660720321847</v>
+        <v>0.9833410951961981</v>
       </c>
       <c r="H9">
-        <v>1.00008459111099</v>
+        <v>1.004304147451621</v>
       </c>
       <c r="I9">
-        <v>0.999782533744879</v>
+        <v>0.9891248304038073</v>
       </c>
       <c r="J9">
-        <v>1.00022616796073</v>
+        <v>1.011552059199341</v>
       </c>
       <c r="K9">
-        <v>1.00022616796073</v>
+        <v>1.011552059199341</v>
       </c>
       <c r="L9">
-        <v>1.000123740993518</v>
+        <v>1.006157288278683</v>
       </c>
       <c r="M9">
-        <v>0.9999281273352481</v>
+        <v>0.9964053113278635</v>
       </c>
       <c r="N9">
-        <v>1.00022616796073</v>
+        <v>1.011552059199341</v>
       </c>
       <c r="O9">
-        <v>1.000081485220526</v>
+        <v>1.003913786521433</v>
       </c>
       <c r="P9">
-        <v>0.9998737786263556</v>
+        <v>0.9936274408588155</v>
       </c>
       <c r="Q9">
-        <v>1.000004806277887</v>
+        <v>1.000159548924648</v>
       </c>
       <c r="R9">
-        <v>0.9999912417378137</v>
+        <v>0.9996023136389908</v>
       </c>
       <c r="S9">
-        <v>0.9998918948626532</v>
+        <v>0.9945533976818316</v>
       </c>
       <c r="T9">
-        <v>0.9999912417378137</v>
+        <v>0.9996023136389908</v>
       </c>
       <c r="U9">
-        <v>0.9999754631371722</v>
+        <v>0.998803063061209</v>
       </c>
       <c r="V9">
-        <v>1.000025604101884</v>
+        <v>1.001352862288835</v>
       </c>
       <c r="W9">
-        <v>0.99997808215576</v>
+        <v>0.9989132670297336</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9993168855967719</v>
+        <v>0.9820728755546354</v>
       </c>
       <c r="D10">
-        <v>1.000166964835711</v>
+        <v>1.004225900584895</v>
       </c>
       <c r="E10">
-        <v>1.000462189083728</v>
+        <v>1.012406322806415</v>
       </c>
       <c r="F10">
-        <v>0.9998609383188491</v>
+        <v>0.9962508117838873</v>
       </c>
       <c r="G10">
-        <v>0.9993168855967719</v>
+        <v>0.9820728755546354</v>
       </c>
       <c r="H10">
-        <v>1.0001728969477</v>
+        <v>1.004623947081277</v>
       </c>
       <c r="I10">
-        <v>0.99955517637116</v>
+        <v>0.9882993712999414</v>
       </c>
       <c r="J10">
-        <v>1.000462189083728</v>
+        <v>1.012406322806415</v>
       </c>
       <c r="K10">
-        <v>1.000462189083728</v>
+        <v>1.012406322806415</v>
       </c>
       <c r="L10">
-        <v>1.000253165435725</v>
+        <v>1.006627521344533</v>
       </c>
       <c r="M10">
-        <v>0.9998529857167807</v>
+        <v>0.9961325043659198</v>
       </c>
       <c r="N10">
-        <v>1.000462189083728</v>
+        <v>1.012406322806415</v>
       </c>
       <c r="O10">
-        <v>1.000166964835711</v>
+        <v>1.004225900584895</v>
       </c>
       <c r="P10">
-        <v>0.9997419252162414</v>
+        <v>0.9931493880697653</v>
       </c>
       <c r="Q10">
-        <v>1.000009975276246</v>
+        <v>1.000179202475407</v>
       </c>
       <c r="R10">
-        <v>0.9999820131720704</v>
+        <v>0.9995683663153153</v>
       </c>
       <c r="S10">
-        <v>0.9997789453830879</v>
+        <v>0.9941437601684835</v>
       </c>
       <c r="T10">
-        <v>0.9999820131720704</v>
+        <v>0.9995683663153153</v>
       </c>
       <c r="U10">
-        <v>0.999949756308248</v>
+        <v>0.9987094008279664</v>
       </c>
       <c r="V10">
-        <v>1.000052242863344</v>
+        <v>1.001448785223656</v>
       </c>
       <c r="W10">
-        <v>0.9999551502883033</v>
+        <v>0.9988299068526881</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9987697250871665</v>
+        <v>0.9991283159091601</v>
       </c>
       <c r="D11">
-        <v>1.000299905286059</v>
+        <v>1.000218842449253</v>
       </c>
       <c r="E11">
-        <v>1.000833809521289</v>
+        <v>1.00057948312</v>
       </c>
       <c r="F11">
-        <v>0.9997490417996656</v>
+        <v>0.999826255486405</v>
       </c>
       <c r="G11">
-        <v>0.9987697250871665</v>
+        <v>0.9991283159091601</v>
       </c>
       <c r="H11">
-        <v>1.000311826639849</v>
+        <v>1.000217408302308</v>
       </c>
       <c r="I11">
-        <v>0.999198739733415</v>
+        <v>0.9994333865012439</v>
       </c>
       <c r="J11">
-        <v>1.000833809521289</v>
+        <v>1.00057948312</v>
       </c>
       <c r="K11">
-        <v>1.000833809521289</v>
+        <v>1.00057948312</v>
       </c>
       <c r="L11">
-        <v>1.000455861735736</v>
+        <v>1.000323657782904</v>
       </c>
       <c r="M11">
-        <v>0.9997351845646913</v>
+        <v>0.9998127518177365</v>
       </c>
       <c r="N11">
-        <v>1.000833809521289</v>
+        <v>1.00057948312</v>
       </c>
       <c r="O11">
-        <v>1.000299905286059</v>
+        <v>1.000218842449253</v>
       </c>
       <c r="P11">
-        <v>0.999534815186613</v>
+        <v>0.9996735791792064</v>
       </c>
       <c r="Q11">
-        <v>1.000017544925375</v>
+        <v>1.000015797133495</v>
       </c>
       <c r="R11">
-        <v>0.9999678132981714</v>
+        <v>0.999975547159471</v>
       </c>
       <c r="S11">
-        <v>0.9996016049793058</v>
+        <v>0.9997199700587164</v>
       </c>
       <c r="T11">
-        <v>0.9999678132981714</v>
+        <v>0.999975547159471</v>
       </c>
       <c r="U11">
-        <v>0.9999096561148014</v>
+        <v>0.9999348483240373</v>
       </c>
       <c r="V11">
-        <v>1.000094486796099</v>
+        <v>1.00006377528323</v>
       </c>
       <c r="W11">
-        <v>0.9999192617959839</v>
+        <v>0.9999425126711263</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.011900432336229</v>
+        <v>0.9995042017601423</v>
       </c>
       <c r="D12">
-        <v>0.9970374114771908</v>
+        <v>1.000124609676972</v>
       </c>
       <c r="E12">
-        <v>0.9920441157028639</v>
+        <v>1.000329356269016</v>
       </c>
       <c r="F12">
-        <v>1.002388097741924</v>
+        <v>0.9999012653975561</v>
       </c>
       <c r="G12">
-        <v>1.011900432336229</v>
+        <v>0.9995042017601423</v>
       </c>
       <c r="H12">
-        <v>0.9970179290362796</v>
+        <v>1.000123582060757</v>
       </c>
       <c r="I12">
-        <v>1.007739902697986</v>
+        <v>0.9996777447771098</v>
       </c>
       <c r="J12">
-        <v>0.9920441157028639</v>
+        <v>1.000329356269016</v>
       </c>
       <c r="K12">
-        <v>0.9920441157028639</v>
+        <v>1.000329356269016</v>
       </c>
       <c r="L12">
-        <v>0.9955839789808788</v>
+        <v>1.000184104657217</v>
       </c>
       <c r="M12">
-        <v>1.002557863807517</v>
+        <v>0.9998935046430218</v>
       </c>
       <c r="N12">
-        <v>0.9920441157028639</v>
+        <v>1.000329356269016</v>
       </c>
       <c r="O12">
-        <v>0.9970374114771908</v>
+        <v>1.000124609676972</v>
       </c>
       <c r="P12">
-        <v>1.00446892190671</v>
+        <v>0.9998144057185571</v>
       </c>
       <c r="Q12">
-        <v>0.9997976376423541</v>
+        <v>1.000009057159997</v>
       </c>
       <c r="R12">
-        <v>1.000327319838761</v>
+        <v>0.9999860559020434</v>
       </c>
       <c r="S12">
-        <v>1.003831902540312</v>
+        <v>0.9998407720267121</v>
       </c>
       <c r="T12">
-        <v>1.000327319838761</v>
+        <v>0.9999860559020434</v>
       </c>
       <c r="U12">
-        <v>1.00088495583095</v>
+        <v>0.999962918087288</v>
       </c>
       <c r="V12">
-        <v>0.9991167878053329</v>
+        <v>1.000036205723634</v>
       </c>
       <c r="W12">
-        <v>1.000783716472609</v>
+        <v>0.999967296155224</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.003092392309799</v>
+        <v>0.9980307298270579</v>
       </c>
       <c r="D13">
-        <v>0.9992211398179152</v>
+        <v>1.000496193553624</v>
       </c>
       <c r="E13">
-        <v>0.9979486510136296</v>
+        <v>1.001305955245132</v>
       </c>
       <c r="F13">
-        <v>1.00061479192147</v>
+        <v>0.9996086302276378</v>
       </c>
       <c r="G13">
-        <v>1.003092392309799</v>
+        <v>0.9980307298270579</v>
       </c>
       <c r="H13">
-        <v>0.9992301057684592</v>
+        <v>1.000490167051717</v>
       </c>
       <c r="I13">
-        <v>1.002009691371328</v>
+        <v>0.9987202449603033</v>
       </c>
       <c r="J13">
-        <v>0.9979486510136296</v>
+        <v>1.001305955245132</v>
       </c>
       <c r="K13">
-        <v>0.9979486510136296</v>
+        <v>1.001305955245132</v>
       </c>
       <c r="L13">
-        <v>0.9988515272108537</v>
+        <v>1.000731382262755</v>
       </c>
       <c r="M13">
-        <v>1.000664135200781</v>
+        <v>0.999577085043406</v>
       </c>
       <c r="N13">
-        <v>0.9979486510136296</v>
+        <v>1.001305955245132</v>
       </c>
       <c r="O13">
-        <v>0.9992211398179152</v>
+        <v>1.000496193553624</v>
       </c>
       <c r="P13">
-        <v>1.001156766063857</v>
+        <v>0.9992634616903407</v>
       </c>
       <c r="Q13">
-        <v>0.9999426375093483</v>
+        <v>1.000036639298515</v>
       </c>
       <c r="R13">
-        <v>1.000087394380448</v>
+        <v>0.9999442928752712</v>
       </c>
       <c r="S13">
-        <v>1.000992555776165</v>
+        <v>0.9993680028080293</v>
       </c>
       <c r="T13">
-        <v>1.000087394380448</v>
+        <v>0.9999442928752712</v>
       </c>
       <c r="U13">
-        <v>1.000231579585531</v>
+        <v>0.9998524909173049</v>
       </c>
       <c r="V13">
-        <v>0.9997749938711511</v>
+        <v>1.00014318378287</v>
       </c>
       <c r="W13">
-        <v>1.00020405432678</v>
+        <v>0.9998700485214542</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9631303094325089</v>
+        <v>0.9978655184421815</v>
       </c>
       <c r="D14">
-        <v>1.009630860170504</v>
+        <v>1.000541609512625</v>
       </c>
       <c r="E14">
-        <v>1.02384479496947</v>
+        <v>1.00140877872042</v>
       </c>
       <c r="F14">
-        <v>0.9928906591822821</v>
+        <v>0.999578222152764</v>
       </c>
       <c r="G14">
-        <v>0.9631303094325089</v>
+        <v>0.9978655184421815</v>
       </c>
       <c r="H14">
-        <v>1.008987733906296</v>
+        <v>1.000529182578764</v>
       </c>
       <c r="I14">
-        <v>0.9760986970092749</v>
+        <v>0.9986135361768216</v>
       </c>
       <c r="J14">
-        <v>1.02384479496947</v>
+        <v>1.00140877872042</v>
       </c>
       <c r="K14">
-        <v>1.02384479496947</v>
+        <v>1.00140877872042</v>
       </c>
       <c r="L14">
-        <v>1.013729099860233</v>
+        <v>1.000793138884305</v>
       </c>
       <c r="M14">
-        <v>0.9921024356548199</v>
+        <v>0.9995418317252531</v>
       </c>
       <c r="N14">
-        <v>1.02384479496947</v>
+        <v>1.00140877872042</v>
       </c>
       <c r="O14">
-        <v>1.009630860170504</v>
+        <v>1.000541609512625</v>
       </c>
       <c r="P14">
-        <v>0.9863805848015066</v>
+        <v>0.9992035639774035</v>
       </c>
       <c r="Q14">
-        <v>1.000866647912662</v>
+        <v>1.000041720618939</v>
       </c>
       <c r="R14">
-        <v>0.9988686548574947</v>
+        <v>0.9999386355584091</v>
       </c>
       <c r="S14">
-        <v>0.9882878684192776</v>
+        <v>0.9993163198933533</v>
       </c>
       <c r="T14">
-        <v>0.9988686548574944</v>
+        <v>0.9999386355584091</v>
       </c>
       <c r="U14">
-        <v>0.9971771000568258</v>
+        <v>0.99983943460012</v>
       </c>
       <c r="V14">
-        <v>1.002510639039355</v>
+        <v>1.00015330342418</v>
       </c>
       <c r="W14">
-        <v>0.9975518237731735</v>
+        <v>0.9998589772741419</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9903291887809755</v>
+        <v>0.9992381089628666</v>
       </c>
       <c r="D15">
-        <v>1.002246693879998</v>
+        <v>1.000193486149245</v>
       </c>
       <c r="E15">
-        <v>1.006751230633846</v>
+        <v>1.000502567617163</v>
       </c>
       <c r="F15">
-        <v>0.9979563900521016</v>
+        <v>0.9998495529503783</v>
       </c>
       <c r="G15">
-        <v>0.9903291887809755</v>
+        <v>0.9992381089628666</v>
       </c>
       <c r="H15">
-        <v>1.002512707982678</v>
+        <v>1.000188797419826</v>
       </c>
       <c r="I15">
-        <v>0.9936823756656112</v>
+        <v>0.9995051374396164</v>
       </c>
       <c r="J15">
-        <v>1.006751230633846</v>
+        <v>1.000502567617163</v>
       </c>
       <c r="K15">
-        <v>1.006751230633846</v>
+        <v>1.000502567617163</v>
       </c>
       <c r="L15">
-        <v>1.003571771507939</v>
+        <v>1.00028312291439</v>
       </c>
       <c r="M15">
-        <v>0.9979116945411328</v>
+        <v>0.9998364691110123</v>
       </c>
       <c r="N15">
-        <v>1.006751230633846</v>
+        <v>1.000502567617163</v>
       </c>
       <c r="O15">
-        <v>1.002246693879998</v>
+        <v>1.000193486149245</v>
       </c>
       <c r="P15">
-        <v>0.9962879413304866</v>
+        <v>0.9997157975560559</v>
       </c>
       <c r="Q15">
-        <v>1.000079194210565</v>
+        <v>1.000014977630129</v>
       </c>
       <c r="R15">
-        <v>0.9997757044316063</v>
+        <v>0.9999780542430914</v>
       </c>
       <c r="S15">
-        <v>0.996829192400702</v>
+        <v>0.999756021407708</v>
       </c>
       <c r="T15">
-        <v>0.9997757044316063</v>
+        <v>0.9999780542430914</v>
       </c>
       <c r="U15">
-        <v>0.9993097019589879</v>
+        <v>0.9999426579600716</v>
       </c>
       <c r="V15">
-        <v>1.00079800769396</v>
+        <v>1.00005463989149</v>
       </c>
       <c r="W15">
-        <v>0.9993702566305352</v>
+        <v>0.9999496553205621</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9851338292353525</v>
+        <v>0.9985294072045284</v>
       </c>
       <c r="D16">
-        <v>1.003769542097964</v>
+        <v>1.000373151298786</v>
       </c>
       <c r="E16">
-        <v>1.009816541974986</v>
+        <v>1.000970607713255</v>
       </c>
       <c r="F16">
-        <v>0.9970606928783907</v>
+        <v>0.999709407598304</v>
       </c>
       <c r="G16">
-        <v>0.9851338292353525</v>
+        <v>0.9985294072045284</v>
       </c>
       <c r="H16">
-        <v>1.003687090035182</v>
+        <v>1.00036458846483</v>
       </c>
       <c r="I16">
-        <v>0.9903431132824988</v>
+        <v>0.9990447674872985</v>
       </c>
       <c r="J16">
-        <v>1.009816541974986</v>
+        <v>1.000970607713255</v>
       </c>
       <c r="K16">
-        <v>1.009816541974986</v>
+        <v>1.000970607713255</v>
       </c>
       <c r="L16">
-        <v>1.005523751821825</v>
+        <v>1.0005464477392</v>
       </c>
       <c r="M16">
-        <v>0.9968088035370939</v>
+        <v>0.9996843367449811</v>
       </c>
       <c r="N16">
-        <v>1.009816541974986</v>
+        <v>1.000970607713255</v>
       </c>
       <c r="O16">
-        <v>1.003769542097964</v>
+        <v>1.000373151298786</v>
       </c>
       <c r="P16">
-        <v>0.9944516856666585</v>
+        <v>0.9994512792516574</v>
       </c>
       <c r="Q16">
-        <v>1.000289172817529</v>
+        <v>1.000028744021884</v>
       </c>
       <c r="R16">
-        <v>0.9995733044361009</v>
+        <v>0.9999577220721901</v>
       </c>
       <c r="S16">
-        <v>0.9952373916234704</v>
+        <v>0.9995289650827653</v>
       </c>
       <c r="T16">
-        <v>0.9995733044361009</v>
+        <v>0.9999577220721901</v>
       </c>
       <c r="U16">
-        <v>0.9988821792113491</v>
+        <v>0.9998893757403878</v>
       </c>
       <c r="V16">
-        <v>1.001069051764076</v>
+        <v>1.000105622134961</v>
       </c>
       <c r="W16">
-        <v>0.9990179206079117</v>
+        <v>0.999902839281398</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9878150851796936</v>
+        <v>0.9971816778913513</v>
       </c>
       <c r="D17">
-        <v>1.00307297190045</v>
+        <v>1.000715278265388</v>
       </c>
       <c r="E17">
-        <v>1.008075719989094</v>
+        <v>1.001859856043978</v>
       </c>
       <c r="F17">
-        <v>0.9975801386025295</v>
+        <v>0.9994431873935764</v>
       </c>
       <c r="G17">
-        <v>0.9878150851796936</v>
+        <v>0.9971816778913513</v>
       </c>
       <c r="H17">
-        <v>1.003031365320209</v>
+        <v>1.000698635581767</v>
       </c>
       <c r="I17">
-        <v>0.9920819334189179</v>
+        <v>0.9981693706086345</v>
       </c>
       <c r="J17">
-        <v>1.008075719989094</v>
+        <v>1.001859856043978</v>
       </c>
       <c r="K17">
-        <v>1.008075719989094</v>
+        <v>1.001859856043978</v>
       </c>
       <c r="L17">
-        <v>1.004525737913978</v>
+        <v>1.001047263998623</v>
       </c>
       <c r="M17">
-        <v>0.9973833623484217</v>
+        <v>0.9993950555238349</v>
       </c>
       <c r="N17">
-        <v>1.008075719989094</v>
+        <v>1.001859856043978</v>
       </c>
       <c r="O17">
-        <v>1.00307297190045</v>
+        <v>1.000715278265388</v>
       </c>
       <c r="P17">
-        <v>0.9954440285400719</v>
+        <v>0.9989484780783697</v>
       </c>
       <c r="Q17">
-        <v>1.000228167124436</v>
+        <v>1.000055166894612</v>
       </c>
       <c r="R17">
-        <v>0.9996545923564127</v>
+        <v>0.999918937400239</v>
       </c>
       <c r="S17">
-        <v>0.9960904731428551</v>
+        <v>0.9990973372268582</v>
       </c>
       <c r="T17">
-        <v>0.9996545923564127</v>
+        <v>0.999918937400239</v>
       </c>
       <c r="U17">
-        <v>0.9990867848544149</v>
+        <v>0.999787966931138</v>
       </c>
       <c r="V17">
-        <v>1.000884571881351</v>
+        <v>1.000202344753706</v>
       </c>
       <c r="W17">
-        <v>0.9991957893341619</v>
+        <v>0.9998137906633942</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9931450482132246</v>
+        <v>0.9958664503166822</v>
       </c>
       <c r="D18">
-        <v>1.001687973404683</v>
+        <v>1.001049037046158</v>
       </c>
       <c r="E18">
-        <v>1.00461576843135</v>
+        <v>1.002727867499512</v>
       </c>
       <c r="F18">
-        <v>0.9986125234252649</v>
+        <v>0.999183309142978</v>
       </c>
       <c r="G18">
-        <v>0.9931450482132246</v>
+        <v>0.9958664503166822</v>
       </c>
       <c r="H18">
-        <v>1.001728049761702</v>
+        <v>1.001024681436365</v>
       </c>
       <c r="I18">
-        <v>0.9955384104381236</v>
+        <v>0.9973150588626747</v>
       </c>
       <c r="J18">
-        <v>1.00461576843135</v>
+        <v>1.002727867499512</v>
       </c>
       <c r="K18">
-        <v>1.00461576843135</v>
+        <v>1.002727867499512</v>
       </c>
       <c r="L18">
-        <v>1.002541791989915</v>
+        <v>1.001535973025995</v>
       </c>
       <c r="M18">
-        <v>0.9985254860081939</v>
+        <v>0.999112746012403</v>
       </c>
       <c r="N18">
-        <v>1.00461576843135</v>
+        <v>1.002727867499512</v>
       </c>
       <c r="O18">
-        <v>1.001687973404683</v>
+        <v>1.001049037046158</v>
       </c>
       <c r="P18">
-        <v>0.9974165108089539</v>
+        <v>0.9984577436814199</v>
       </c>
       <c r="Q18">
-        <v>1.000106729706439</v>
+        <v>1.00008089152928</v>
       </c>
       <c r="R18">
-        <v>0.9998162633497524</v>
+        <v>0.9998811182874506</v>
       </c>
       <c r="S18">
-        <v>0.9977861692087006</v>
+        <v>0.9986760777917475</v>
       </c>
       <c r="T18">
-        <v>0.9998162633497524</v>
+        <v>0.9998811182874507</v>
       </c>
       <c r="U18">
-        <v>0.9994935690143628</v>
+        <v>0.9996890252186887</v>
       </c>
       <c r="V18">
-        <v>1.00051800889776</v>
+        <v>1.000296793674853</v>
       </c>
       <c r="W18">
-        <v>0.9995493814590573</v>
+        <v>0.9997268904178461</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.992631998450247</v>
+        <v>0.9999297456829764</v>
       </c>
       <c r="D19">
-        <v>1.001808807378255</v>
+        <v>1.000017182081337</v>
       </c>
       <c r="E19">
-        <v>1.00497100401709</v>
+        <v>1.000047512567815</v>
       </c>
       <c r="F19">
-        <v>0.998505156862693</v>
+        <v>0.9999857074048794</v>
       </c>
       <c r="G19">
-        <v>0.992631998450247</v>
+        <v>0.9999297456829764</v>
       </c>
       <c r="H19">
-        <v>1.001860438161862</v>
+        <v>1.00001777506239</v>
       </c>
       <c r="I19">
-        <v>0.9952035402848474</v>
+        <v>0.9999542554368407</v>
       </c>
       <c r="J19">
-        <v>1.00497100401709</v>
+        <v>1.000047512567815</v>
       </c>
       <c r="K19">
-        <v>1.00497100401709</v>
+        <v>1.000047512567815</v>
       </c>
       <c r="L19">
-        <v>1.002731452441055</v>
+        <v>1.000026037232888</v>
       </c>
       <c r="M19">
-        <v>0.9984147971725121</v>
+        <v>0.9999848812054625</v>
       </c>
       <c r="N19">
-        <v>1.00497100401709</v>
+        <v>1.000047512567815</v>
       </c>
       <c r="O19">
-        <v>1.001808807378255</v>
+        <v>1.000017182081337</v>
       </c>
       <c r="P19">
-        <v>0.9972204029142508</v>
+        <v>0.9999734638821569</v>
       </c>
       <c r="Q19">
-        <v>1.000111802275383</v>
+        <v>1.0000010316434</v>
       </c>
       <c r="R19">
-        <v>0.9998039366151973</v>
+        <v>0.9999981467773762</v>
       </c>
       <c r="S19">
-        <v>0.9976185343336713</v>
+        <v>0.9999772696565921</v>
       </c>
       <c r="T19">
-        <v>0.9998039366151973</v>
+        <v>0.9999981467773763</v>
       </c>
       <c r="U19">
-        <v>0.999456651754526</v>
+        <v>0.9999948303843978</v>
       </c>
       <c r="V19">
-        <v>1.000559522207039</v>
+        <v>1.000005366821081</v>
       </c>
       <c r="W19">
-        <v>0.9995158993460701</v>
+        <v>0.9999953870843237</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9999958985931373</v>
+        <v>0.999790081748468</v>
       </c>
       <c r="D20">
-        <v>1.000002349555793</v>
+        <v>1.000051319594889</v>
       </c>
       <c r="E20">
-        <v>1.000000378302178</v>
+        <v>1.000142005489614</v>
       </c>
       <c r="F20">
-        <v>1.000000029576204</v>
+        <v>0.9999572765635076</v>
       </c>
       <c r="G20">
-        <v>0.9999958985931373</v>
+        <v>0.999790081748468</v>
       </c>
       <c r="H20">
-        <v>1.000000289101727</v>
+        <v>1.000053123230251</v>
       </c>
       <c r="I20">
-        <v>0.9999975637498933</v>
+        <v>0.9998633101722429</v>
       </c>
       <c r="J20">
-        <v>1.000000378302178</v>
+        <v>1.000142005489614</v>
       </c>
       <c r="K20">
-        <v>1.000000378302178</v>
+        <v>1.000142005489614</v>
       </c>
       <c r="L20">
-        <v>1.000001660911303</v>
+        <v>1.000077797746573</v>
       </c>
       <c r="M20">
-        <v>0.9999991983811193</v>
+        <v>0.9999548240541947</v>
       </c>
       <c r="N20">
-        <v>1.000000378302178</v>
+        <v>1.000142005489614</v>
       </c>
       <c r="O20">
-        <v>1.000002349555793</v>
+        <v>1.000051319594889</v>
       </c>
       <c r="P20">
-        <v>0.999999124074465</v>
+        <v>0.9999207006716783</v>
       </c>
       <c r="Q20">
-        <v>1.000000773968456</v>
+        <v>1.000003071824542</v>
       </c>
       <c r="R20">
-        <v>0.9999995421503692</v>
+        <v>0.9999944689443235</v>
       </c>
       <c r="S20">
-        <v>0.9999991488433498</v>
+        <v>0.999932075132517</v>
       </c>
       <c r="T20">
-        <v>0.9999995421503692</v>
+        <v>0.9999944689443235</v>
       </c>
       <c r="U20">
-        <v>0.9999994562080567</v>
+        <v>0.9999845577217914</v>
       </c>
       <c r="V20">
-        <v>0.999999640626881</v>
+        <v>1.000016047275356</v>
       </c>
       <c r="W20">
-        <v>0.9999996710214193</v>
+        <v>0.9999862173249676</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9999353741012039</v>
+        <v>0.9996660720321847</v>
       </c>
       <c r="D21">
-        <v>1.000013664376807</v>
+        <v>1.000081485220526</v>
       </c>
       <c r="E21">
-        <v>1.000047512949314</v>
+        <v>1.00022616796073</v>
       </c>
       <c r="F21">
-        <v>0.9999854820288959</v>
+        <v>0.9999319388480037</v>
       </c>
       <c r="G21">
-        <v>0.9999353741012039</v>
+        <v>0.9996660720321847</v>
       </c>
       <c r="H21">
-        <v>1.000017540400062</v>
+        <v>1.00008459111099</v>
       </c>
       <c r="I21">
-        <v>0.9999575497064418</v>
+        <v>0.999782533744879</v>
       </c>
       <c r="J21">
-        <v>1.000047512949314</v>
+        <v>1.00022616796073</v>
       </c>
       <c r="K21">
-        <v>1.000047512949314</v>
+        <v>1.00022616796073</v>
       </c>
       <c r="L21">
-        <v>1.000023727047024</v>
+        <v>1.000123740993518</v>
       </c>
       <c r="M21">
-        <v>0.999985963712824</v>
+        <v>0.9999281273352481</v>
       </c>
       <c r="N21">
-        <v>1.000047512949314</v>
+        <v>1.00022616796073</v>
       </c>
       <c r="O21">
-        <v>1.000013664376807</v>
+        <v>1.000081485220526</v>
       </c>
       <c r="P21">
-        <v>0.9999745192390053</v>
+        <v>0.9998737786263556</v>
       </c>
       <c r="Q21">
-        <v>0.9999998140448154</v>
+        <v>1.000004806277887</v>
       </c>
       <c r="R21">
-        <v>0.9999988504757749</v>
+        <v>0.9999912417378137</v>
       </c>
       <c r="S21">
-        <v>0.9999783340636115</v>
+        <v>0.9998918948626532</v>
       </c>
       <c r="T21">
-        <v>0.9999988504757749</v>
+        <v>0.9999912417378137</v>
       </c>
       <c r="U21">
-        <v>0.9999956287850371</v>
+        <v>0.9999754631371722</v>
       </c>
       <c r="V21">
-        <v>1.000006005617892</v>
+        <v>1.000025604101884</v>
       </c>
       <c r="W21">
-        <v>0.9999958517903216</v>
+        <v>0.99997808215576</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9997621758003074</v>
+        <v>0.9993168855967719</v>
       </c>
       <c r="D22">
-        <v>1.000064843675734</v>
+        <v>1.000166964835711</v>
       </c>
       <c r="E22">
-        <v>1.00014897154126</v>
+        <v>1.000462189083728</v>
       </c>
       <c r="F22">
-        <v>0.9999558814590455</v>
+        <v>0.9998609383188491</v>
       </c>
       <c r="G22">
-        <v>0.9997621758003074</v>
+        <v>0.9993168855967719</v>
       </c>
       <c r="H22">
-        <v>1.000056464699326</v>
+        <v>1.0001728969477</v>
       </c>
       <c r="I22">
-        <v>0.9998463027462602</v>
+        <v>0.99955517637116</v>
       </c>
       <c r="J22">
-        <v>1.00014897154126</v>
+        <v>1.000462189083728</v>
       </c>
       <c r="K22">
-        <v>1.00014897154126</v>
+        <v>1.000462189083728</v>
       </c>
       <c r="L22">
-        <v>1.000088844382107</v>
+        <v>1.000253165435725</v>
       </c>
       <c r="M22">
-        <v>0.9999492215724902</v>
+        <v>0.9998529857167807</v>
       </c>
       <c r="N22">
-        <v>1.00014897154126</v>
+        <v>1.000462189083728</v>
       </c>
       <c r="O22">
-        <v>1.000064843675734</v>
+        <v>1.000166964835711</v>
       </c>
       <c r="P22">
-        <v>0.9999135097380205</v>
+        <v>0.9997419252162414</v>
       </c>
       <c r="Q22">
-        <v>1.000007032624112</v>
+        <v>1.000009975276246</v>
       </c>
       <c r="R22">
-        <v>0.999991997005767</v>
+        <v>0.9999820131720704</v>
       </c>
       <c r="S22">
-        <v>0.9999254136828437</v>
+        <v>0.9997789453830879</v>
       </c>
       <c r="T22">
-        <v>0.999991997005767</v>
+        <v>0.9999820131720704</v>
       </c>
       <c r="U22">
-        <v>0.9999813031474478</v>
+        <v>0.999949756308248</v>
       </c>
       <c r="V22">
-        <v>1.00001483682621</v>
+        <v>1.000052242863344</v>
       </c>
       <c r="W22">
-        <v>0.9999840882345663</v>
+        <v>0.9999551502883033</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9987697250871665</v>
+      </c>
+      <c r="D23">
+        <v>1.000299905286059</v>
+      </c>
+      <c r="E23">
+        <v>1.000833809521289</v>
+      </c>
+      <c r="F23">
+        <v>0.9997490417996656</v>
+      </c>
+      <c r="G23">
+        <v>0.9987697250871665</v>
+      </c>
+      <c r="H23">
+        <v>1.000311826639849</v>
+      </c>
+      <c r="I23">
+        <v>0.999198739733415</v>
+      </c>
+      <c r="J23">
+        <v>1.000833809521289</v>
+      </c>
+      <c r="K23">
+        <v>1.000833809521289</v>
+      </c>
+      <c r="L23">
+        <v>1.000455861735736</v>
+      </c>
+      <c r="M23">
+        <v>0.9997351845646913</v>
+      </c>
+      <c r="N23">
+        <v>1.000833809521289</v>
+      </c>
+      <c r="O23">
+        <v>1.000299905286059</v>
+      </c>
+      <c r="P23">
+        <v>0.999534815186613</v>
+      </c>
+      <c r="Q23">
+        <v>1.000017544925375</v>
+      </c>
+      <c r="R23">
+        <v>0.9999678132981714</v>
+      </c>
+      <c r="S23">
+        <v>0.9996016049793058</v>
+      </c>
+      <c r="T23">
+        <v>0.9999678132981714</v>
+      </c>
+      <c r="U23">
+        <v>0.9999096561148014</v>
+      </c>
+      <c r="V23">
+        <v>1.000094486796099</v>
+      </c>
+      <c r="W23">
+        <v>0.9999192617959839</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.011900432336229</v>
+      </c>
+      <c r="D24">
+        <v>0.9970374114771908</v>
+      </c>
+      <c r="E24">
+        <v>0.9920441157028639</v>
+      </c>
+      <c r="F24">
+        <v>1.002388097741924</v>
+      </c>
+      <c r="G24">
+        <v>1.011900432336229</v>
+      </c>
+      <c r="H24">
+        <v>0.9970179290362796</v>
+      </c>
+      <c r="I24">
+        <v>1.007739902697986</v>
+      </c>
+      <c r="J24">
+        <v>0.9920441157028639</v>
+      </c>
+      <c r="K24">
+        <v>0.9920441157028639</v>
+      </c>
+      <c r="L24">
+        <v>0.9955839789808788</v>
+      </c>
+      <c r="M24">
+        <v>1.002557863807517</v>
+      </c>
+      <c r="N24">
+        <v>0.9920441157028639</v>
+      </c>
+      <c r="O24">
+        <v>0.9970374114771908</v>
+      </c>
+      <c r="P24">
+        <v>1.00446892190671</v>
+      </c>
+      <c r="Q24">
+        <v>0.9997976376423541</v>
+      </c>
+      <c r="R24">
+        <v>1.000327319838761</v>
+      </c>
+      <c r="S24">
+        <v>1.003831902540312</v>
+      </c>
+      <c r="T24">
+        <v>1.000327319838761</v>
+      </c>
+      <c r="U24">
+        <v>1.00088495583095</v>
+      </c>
+      <c r="V24">
+        <v>0.9991167878053329</v>
+      </c>
+      <c r="W24">
+        <v>1.000783716472609</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.003092392309799</v>
+      </c>
+      <c r="D25">
+        <v>0.9992211398179152</v>
+      </c>
+      <c r="E25">
+        <v>0.9979486510136296</v>
+      </c>
+      <c r="F25">
+        <v>1.00061479192147</v>
+      </c>
+      <c r="G25">
+        <v>1.003092392309799</v>
+      </c>
+      <c r="H25">
+        <v>0.9992301057684592</v>
+      </c>
+      <c r="I25">
+        <v>1.002009691371328</v>
+      </c>
+      <c r="J25">
+        <v>0.9979486510136296</v>
+      </c>
+      <c r="K25">
+        <v>0.9979486510136296</v>
+      </c>
+      <c r="L25">
+        <v>0.9988515272108537</v>
+      </c>
+      <c r="M25">
+        <v>1.000664135200781</v>
+      </c>
+      <c r="N25">
+        <v>0.9979486510136296</v>
+      </c>
+      <c r="O25">
+        <v>0.9992211398179152</v>
+      </c>
+      <c r="P25">
+        <v>1.001156766063857</v>
+      </c>
+      <c r="Q25">
+        <v>0.9999426375093483</v>
+      </c>
+      <c r="R25">
+        <v>1.000087394380448</v>
+      </c>
+      <c r="S25">
+        <v>1.000992555776165</v>
+      </c>
+      <c r="T25">
+        <v>1.000087394380448</v>
+      </c>
+      <c r="U25">
+        <v>1.000231579585531</v>
+      </c>
+      <c r="V25">
+        <v>0.9997749938711511</v>
+      </c>
+      <c r="W25">
+        <v>1.00020405432678</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9631303094325089</v>
+      </c>
+      <c r="D26">
+        <v>1.009630860170504</v>
+      </c>
+      <c r="E26">
+        <v>1.02384479496947</v>
+      </c>
+      <c r="F26">
+        <v>0.9928906591822821</v>
+      </c>
+      <c r="G26">
+        <v>0.9631303094325089</v>
+      </c>
+      <c r="H26">
+        <v>1.008987733906296</v>
+      </c>
+      <c r="I26">
+        <v>0.9760986970092749</v>
+      </c>
+      <c r="J26">
+        <v>1.02384479496947</v>
+      </c>
+      <c r="K26">
+        <v>1.02384479496947</v>
+      </c>
+      <c r="L26">
+        <v>1.013729099860233</v>
+      </c>
+      <c r="M26">
+        <v>0.9921024356548199</v>
+      </c>
+      <c r="N26">
+        <v>1.02384479496947</v>
+      </c>
+      <c r="O26">
+        <v>1.009630860170504</v>
+      </c>
+      <c r="P26">
+        <v>0.9863805848015066</v>
+      </c>
+      <c r="Q26">
+        <v>1.000866647912662</v>
+      </c>
+      <c r="R26">
+        <v>0.9988686548574947</v>
+      </c>
+      <c r="S26">
+        <v>0.9882878684192776</v>
+      </c>
+      <c r="T26">
+        <v>0.9988686548574944</v>
+      </c>
+      <c r="U26">
+        <v>0.9971771000568258</v>
+      </c>
+      <c r="V26">
+        <v>1.002510639039355</v>
+      </c>
+      <c r="W26">
+        <v>0.9975518237731735</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9903291887809755</v>
+      </c>
+      <c r="D27">
+        <v>1.002246693879998</v>
+      </c>
+      <c r="E27">
+        <v>1.006751230633846</v>
+      </c>
+      <c r="F27">
+        <v>0.9979563900521016</v>
+      </c>
+      <c r="G27">
+        <v>0.9903291887809755</v>
+      </c>
+      <c r="H27">
+        <v>1.002512707982678</v>
+      </c>
+      <c r="I27">
+        <v>0.9936823756656112</v>
+      </c>
+      <c r="J27">
+        <v>1.006751230633846</v>
+      </c>
+      <c r="K27">
+        <v>1.006751230633846</v>
+      </c>
+      <c r="L27">
+        <v>1.003571771507939</v>
+      </c>
+      <c r="M27">
+        <v>0.9979116945411328</v>
+      </c>
+      <c r="N27">
+        <v>1.006751230633846</v>
+      </c>
+      <c r="O27">
+        <v>1.002246693879998</v>
+      </c>
+      <c r="P27">
+        <v>0.9962879413304866</v>
+      </c>
+      <c r="Q27">
+        <v>1.000079194210565</v>
+      </c>
+      <c r="R27">
+        <v>0.9997757044316063</v>
+      </c>
+      <c r="S27">
+        <v>0.996829192400702</v>
+      </c>
+      <c r="T27">
+        <v>0.9997757044316063</v>
+      </c>
+      <c r="U27">
+        <v>0.9993097019589879</v>
+      </c>
+      <c r="V27">
+        <v>1.00079800769396</v>
+      </c>
+      <c r="W27">
+        <v>0.9993702566305352</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9851338292353525</v>
+      </c>
+      <c r="D28">
+        <v>1.003769542097964</v>
+      </c>
+      <c r="E28">
+        <v>1.009816541974986</v>
+      </c>
+      <c r="F28">
+        <v>0.9970606928783907</v>
+      </c>
+      <c r="G28">
+        <v>0.9851338292353525</v>
+      </c>
+      <c r="H28">
+        <v>1.003687090035182</v>
+      </c>
+      <c r="I28">
+        <v>0.9903431132824988</v>
+      </c>
+      <c r="J28">
+        <v>1.009816541974986</v>
+      </c>
+      <c r="K28">
+        <v>1.009816541974986</v>
+      </c>
+      <c r="L28">
+        <v>1.005523751821825</v>
+      </c>
+      <c r="M28">
+        <v>0.9968088035370939</v>
+      </c>
+      <c r="N28">
+        <v>1.009816541974986</v>
+      </c>
+      <c r="O28">
+        <v>1.003769542097964</v>
+      </c>
+      <c r="P28">
+        <v>0.9944516856666585</v>
+      </c>
+      <c r="Q28">
+        <v>1.000289172817529</v>
+      </c>
+      <c r="R28">
+        <v>0.9995733044361009</v>
+      </c>
+      <c r="S28">
+        <v>0.9952373916234704</v>
+      </c>
+      <c r="T28">
+        <v>0.9995733044361009</v>
+      </c>
+      <c r="U28">
+        <v>0.9988821792113491</v>
+      </c>
+      <c r="V28">
+        <v>1.001069051764076</v>
+      </c>
+      <c r="W28">
+        <v>0.9990179206079117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9878150851796936</v>
+      </c>
+      <c r="D29">
+        <v>1.00307297190045</v>
+      </c>
+      <c r="E29">
+        <v>1.008075719989094</v>
+      </c>
+      <c r="F29">
+        <v>0.9975801386025295</v>
+      </c>
+      <c r="G29">
+        <v>0.9878150851796936</v>
+      </c>
+      <c r="H29">
+        <v>1.003031365320209</v>
+      </c>
+      <c r="I29">
+        <v>0.9920819334189179</v>
+      </c>
+      <c r="J29">
+        <v>1.008075719989094</v>
+      </c>
+      <c r="K29">
+        <v>1.008075719989094</v>
+      </c>
+      <c r="L29">
+        <v>1.004525737913978</v>
+      </c>
+      <c r="M29">
+        <v>0.9973833623484217</v>
+      </c>
+      <c r="N29">
+        <v>1.008075719989094</v>
+      </c>
+      <c r="O29">
+        <v>1.00307297190045</v>
+      </c>
+      <c r="P29">
+        <v>0.9954440285400719</v>
+      </c>
+      <c r="Q29">
+        <v>1.000228167124436</v>
+      </c>
+      <c r="R29">
+        <v>0.9996545923564127</v>
+      </c>
+      <c r="S29">
+        <v>0.9960904731428551</v>
+      </c>
+      <c r="T29">
+        <v>0.9996545923564127</v>
+      </c>
+      <c r="U29">
+        <v>0.9990867848544149</v>
+      </c>
+      <c r="V29">
+        <v>1.000884571881351</v>
+      </c>
+      <c r="W29">
+        <v>0.9991957893341619</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9931450482132246</v>
+      </c>
+      <c r="D30">
+        <v>1.001687973404683</v>
+      </c>
+      <c r="E30">
+        <v>1.00461576843135</v>
+      </c>
+      <c r="F30">
+        <v>0.9986125234252649</v>
+      </c>
+      <c r="G30">
+        <v>0.9931450482132246</v>
+      </c>
+      <c r="H30">
+        <v>1.001728049761702</v>
+      </c>
+      <c r="I30">
+        <v>0.9955384104381236</v>
+      </c>
+      <c r="J30">
+        <v>1.00461576843135</v>
+      </c>
+      <c r="K30">
+        <v>1.00461576843135</v>
+      </c>
+      <c r="L30">
+        <v>1.002541791989915</v>
+      </c>
+      <c r="M30">
+        <v>0.9985254860081939</v>
+      </c>
+      <c r="N30">
+        <v>1.00461576843135</v>
+      </c>
+      <c r="O30">
+        <v>1.001687973404683</v>
+      </c>
+      <c r="P30">
+        <v>0.9974165108089539</v>
+      </c>
+      <c r="Q30">
+        <v>1.000106729706439</v>
+      </c>
+      <c r="R30">
+        <v>0.9998162633497524</v>
+      </c>
+      <c r="S30">
+        <v>0.9977861692087006</v>
+      </c>
+      <c r="T30">
+        <v>0.9998162633497524</v>
+      </c>
+      <c r="U30">
+        <v>0.9994935690143628</v>
+      </c>
+      <c r="V30">
+        <v>1.00051800889776</v>
+      </c>
+      <c r="W30">
+        <v>0.9995493814590573</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.992631998450247</v>
+      </c>
+      <c r="D31">
+        <v>1.001808807378255</v>
+      </c>
+      <c r="E31">
+        <v>1.00497100401709</v>
+      </c>
+      <c r="F31">
+        <v>0.998505156862693</v>
+      </c>
+      <c r="G31">
+        <v>0.992631998450247</v>
+      </c>
+      <c r="H31">
+        <v>1.001860438161862</v>
+      </c>
+      <c r="I31">
+        <v>0.9952035402848474</v>
+      </c>
+      <c r="J31">
+        <v>1.00497100401709</v>
+      </c>
+      <c r="K31">
+        <v>1.00497100401709</v>
+      </c>
+      <c r="L31">
+        <v>1.002731452441055</v>
+      </c>
+      <c r="M31">
+        <v>0.9984147971725121</v>
+      </c>
+      <c r="N31">
+        <v>1.00497100401709</v>
+      </c>
+      <c r="O31">
+        <v>1.001808807378255</v>
+      </c>
+      <c r="P31">
+        <v>0.9972204029142508</v>
+      </c>
+      <c r="Q31">
+        <v>1.000111802275383</v>
+      </c>
+      <c r="R31">
+        <v>0.9998039366151973</v>
+      </c>
+      <c r="S31">
+        <v>0.9976185343336713</v>
+      </c>
+      <c r="T31">
+        <v>0.9998039366151973</v>
+      </c>
+      <c r="U31">
+        <v>0.999456651754526</v>
+      </c>
+      <c r="V31">
+        <v>1.000559522207039</v>
+      </c>
+      <c r="W31">
+        <v>0.9995158993460701</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.9809506079452054</v>
+      </c>
+      <c r="D32">
+        <v>1.004828233972603</v>
+      </c>
+      <c r="E32">
+        <v>1.012582444109589</v>
+      </c>
+      <c r="F32">
+        <v>0.996232296986301</v>
+      </c>
+      <c r="G32">
+        <v>0.9809506079452054</v>
+      </c>
+      <c r="H32">
+        <v>1.00472573369863</v>
+      </c>
+      <c r="I32">
+        <v>0.9876253915068492</v>
+      </c>
+      <c r="J32">
+        <v>1.012582444109589</v>
+      </c>
+      <c r="K32">
+        <v>1.012582444109589</v>
+      </c>
+      <c r="L32">
+        <v>1.007077878630137</v>
+      </c>
+      <c r="M32">
+        <v>0.9959107046575345</v>
+      </c>
+      <c r="N32">
+        <v>1.012582444109589</v>
+      </c>
+      <c r="O32">
+        <v>1.004828233972603</v>
+      </c>
+      <c r="P32">
+        <v>0.9928894209589041</v>
+      </c>
+      <c r="Q32">
+        <v>1.000369469315069</v>
+      </c>
+      <c r="R32">
+        <v>0.9994537620091323</v>
+      </c>
+      <c r="S32">
+        <v>0.9938965155251142</v>
+      </c>
+      <c r="T32">
+        <v>0.9994537620091323</v>
+      </c>
+      <c r="U32">
+        <v>0.9985679976712328</v>
+      </c>
+      <c r="V32">
+        <v>1.001370886958904</v>
+      </c>
+      <c r="W32">
+        <v>0.9987416614383561</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.9530422889473683</v>
+      </c>
+      <c r="D33">
+        <v>1.01201257368421</v>
+      </c>
+      <c r="E33">
+        <v>1.030819547368421</v>
+      </c>
+      <c r="F33">
+        <v>0.9907832736842105</v>
+      </c>
+      <c r="G33">
+        <v>0.9530422889473683</v>
+      </c>
+      <c r="H33">
+        <v>1.011587684210526</v>
+      </c>
+      <c r="I33">
+        <v>0.9695151210526316</v>
+      </c>
+      <c r="J33">
+        <v>1.030819547368421</v>
+      </c>
+      <c r="K33">
+        <v>1.030819547368421</v>
+      </c>
+      <c r="L33">
+        <v>1.017458952631579</v>
+      </c>
+      <c r="M33">
+        <v>0.989926330526316</v>
+      </c>
+      <c r="N33">
+        <v>1.030819547368421</v>
+      </c>
+      <c r="O33">
+        <v>1.01201257368421</v>
+      </c>
+      <c r="P33">
+        <v>0.9825274313157895</v>
+      </c>
+      <c r="Q33">
+        <v>1.000969452105263</v>
+      </c>
+      <c r="R33">
+        <v>0.9986248033333333</v>
+      </c>
+      <c r="S33">
+        <v>0.9849937310526317</v>
+      </c>
+      <c r="T33">
+        <v>0.9986248033333333</v>
+      </c>
+      <c r="U33">
+        <v>0.996450185131579</v>
+      </c>
+      <c r="V33">
+        <v>1.003324057578947</v>
+      </c>
+      <c r="W33">
+        <v>0.9968932215131578</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.9790700236842105</v>
+      </c>
+      <c r="D34">
+        <v>1.004966313157895</v>
+      </c>
+      <c r="E34">
+        <v>1.014426531578947</v>
+      </c>
+      <c r="F34">
+        <v>0.99564365</v>
+      </c>
+      <c r="G34">
+        <v>0.9790700236842105</v>
+      </c>
+      <c r="H34">
+        <v>1.005380383157895</v>
+      </c>
+      <c r="I34">
+        <v>0.9863451168421055</v>
+      </c>
+      <c r="J34">
+        <v>1.014426531578947</v>
+      </c>
+      <c r="K34">
+        <v>1.014426531578947</v>
+      </c>
+      <c r="L34">
+        <v>1.007741071052632</v>
+      </c>
+      <c r="M34">
+        <v>0.9954866447368419</v>
+      </c>
+      <c r="N34">
+        <v>1.014426531578947</v>
+      </c>
+      <c r="O34">
+        <v>1.004966313157895</v>
+      </c>
+      <c r="P34">
+        <v>0.9920181684210526</v>
+      </c>
+      <c r="Q34">
+        <v>1.000226478947368</v>
+      </c>
+      <c r="R34">
+        <v>0.9994876228070174</v>
+      </c>
+      <c r="S34">
+        <v>0.9931743271929824</v>
+      </c>
+      <c r="T34">
+        <v>0.9994876228070174</v>
+      </c>
+      <c r="U34">
+        <v>0.9984873782894735</v>
+      </c>
+      <c r="V34">
+        <v>1.001675208947368</v>
+      </c>
+      <c r="W34">
+        <v>0.9986324667763158</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.9734344280050384</v>
+      </c>
+      <c r="D35">
+        <v>1.006502701740315</v>
+      </c>
+      <c r="E35">
+        <v>1.017956891462178</v>
+      </c>
+      <c r="F35">
+        <v>0.9945981417537488</v>
+      </c>
+      <c r="G35">
+        <v>0.9734344280050384</v>
+      </c>
+      <c r="H35">
+        <v>1.006718450423402</v>
+      </c>
+      <c r="I35">
+        <v>0.9827029036667746</v>
+      </c>
+      <c r="J35">
+        <v>1.017956891462178</v>
+      </c>
+      <c r="K35">
+        <v>1.017956891462178</v>
+      </c>
+      <c r="L35">
+        <v>1.009846329914978</v>
+      </c>
+      <c r="M35">
+        <v>0.994283358648875</v>
+      </c>
+      <c r="N35">
+        <v>1.017956891462178</v>
+      </c>
+      <c r="O35">
+        <v>1.006502701740315</v>
+      </c>
+      <c r="P35">
+        <v>0.9899685648726769</v>
+      </c>
+      <c r="Q35">
+        <v>1.000393030194595</v>
+      </c>
+      <c r="R35">
+        <v>0.9992980070691772</v>
+      </c>
+      <c r="S35">
+        <v>0.991406829464743</v>
+      </c>
+      <c r="T35">
+        <v>0.9992980070691772</v>
+      </c>
+      <c r="U35">
+        <v>0.9980443449641015</v>
+      </c>
+      <c r="V35">
+        <v>1.002026854263717</v>
+      </c>
+      <c r="W35">
+        <v>0.9982554007019138</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9999958985931373</v>
+      </c>
+      <c r="D36">
+        <v>1.000002349555793</v>
+      </c>
+      <c r="E36">
+        <v>1.000000378302178</v>
+      </c>
+      <c r="F36">
+        <v>1.000000029576204</v>
+      </c>
+      <c r="G36">
+        <v>0.9999958985931373</v>
+      </c>
+      <c r="H36">
+        <v>1.000000289101727</v>
+      </c>
+      <c r="I36">
+        <v>0.9999975637498933</v>
+      </c>
+      <c r="J36">
+        <v>1.000000378302178</v>
+      </c>
+      <c r="K36">
+        <v>1.000000378302178</v>
+      </c>
+      <c r="L36">
+        <v>1.000001660911303</v>
+      </c>
+      <c r="M36">
+        <v>0.9999991983811193</v>
+      </c>
+      <c r="N36">
+        <v>1.000000378302178</v>
+      </c>
+      <c r="O36">
+        <v>1.000002349555793</v>
+      </c>
+      <c r="P36">
+        <v>0.999999124074465</v>
+      </c>
+      <c r="Q36">
+        <v>1.000000773968456</v>
+      </c>
+      <c r="R36">
+        <v>0.9999995421503692</v>
+      </c>
+      <c r="S36">
+        <v>0.9999991488433498</v>
+      </c>
+      <c r="T36">
+        <v>0.9999995421503692</v>
+      </c>
+      <c r="U36">
+        <v>0.9999994562080567</v>
+      </c>
+      <c r="V36">
+        <v>0.999999640626881</v>
+      </c>
+      <c r="W36">
+        <v>0.9999996710214193</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9999353741012039</v>
+      </c>
+      <c r="D37">
+        <v>1.000013664376807</v>
+      </c>
+      <c r="E37">
+        <v>1.000047512949314</v>
+      </c>
+      <c r="F37">
+        <v>0.9999854820288959</v>
+      </c>
+      <c r="G37">
+        <v>0.9999353741012039</v>
+      </c>
+      <c r="H37">
+        <v>1.000017540400062</v>
+      </c>
+      <c r="I37">
+        <v>0.9999575497064418</v>
+      </c>
+      <c r="J37">
+        <v>1.000047512949314</v>
+      </c>
+      <c r="K37">
+        <v>1.000047512949314</v>
+      </c>
+      <c r="L37">
+        <v>1.000023727047024</v>
+      </c>
+      <c r="M37">
+        <v>0.999985963712824</v>
+      </c>
+      <c r="N37">
+        <v>1.000047512949314</v>
+      </c>
+      <c r="O37">
+        <v>1.000013664376807</v>
+      </c>
+      <c r="P37">
+        <v>0.9999745192390053</v>
+      </c>
+      <c r="Q37">
+        <v>0.9999998140448154</v>
+      </c>
+      <c r="R37">
+        <v>0.9999988504757749</v>
+      </c>
+      <c r="S37">
+        <v>0.9999783340636115</v>
+      </c>
+      <c r="T37">
+        <v>0.9999988504757749</v>
+      </c>
+      <c r="U37">
+        <v>0.9999956287850371</v>
+      </c>
+      <c r="V37">
+        <v>1.000006005617892</v>
+      </c>
+      <c r="W37">
+        <v>0.9999958517903216</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9997621758003074</v>
+      </c>
+      <c r="D38">
+        <v>1.000064843675734</v>
+      </c>
+      <c r="E38">
+        <v>1.00014897154126</v>
+      </c>
+      <c r="F38">
+        <v>0.9999558814590455</v>
+      </c>
+      <c r="G38">
+        <v>0.9997621758003074</v>
+      </c>
+      <c r="H38">
+        <v>1.000056464699326</v>
+      </c>
+      <c r="I38">
+        <v>0.9998463027462602</v>
+      </c>
+      <c r="J38">
+        <v>1.00014897154126</v>
+      </c>
+      <c r="K38">
+        <v>1.00014897154126</v>
+      </c>
+      <c r="L38">
+        <v>1.000088844382107</v>
+      </c>
+      <c r="M38">
+        <v>0.9999492215724902</v>
+      </c>
+      <c r="N38">
+        <v>1.00014897154126</v>
+      </c>
+      <c r="O38">
+        <v>1.000064843675734</v>
+      </c>
+      <c r="P38">
+        <v>0.9999135097380205</v>
+      </c>
+      <c r="Q38">
+        <v>1.000007032624112</v>
+      </c>
+      <c r="R38">
+        <v>0.999991997005767</v>
+      </c>
+      <c r="S38">
+        <v>0.9999254136828437</v>
+      </c>
+      <c r="T38">
+        <v>0.999991997005767</v>
+      </c>
+      <c r="U38">
+        <v>0.9999813031474478</v>
+      </c>
+      <c r="V38">
+        <v>1.00001483682621</v>
+      </c>
+      <c r="W38">
+        <v>0.9999840882345663</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9994364206954567</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.000162356846793</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.000337564965188</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9999010236639695</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9994364206954567</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.000128976715944</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9996372793556936</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.000337564965188</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.000337564965188</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.00021145247161</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.999880191432483</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.000337564965188</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.000162356846793</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.999799388771125</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.000021274139638</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9999787808358128</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9998263229915776</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9999787808358128</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>0.9999541334849803</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>1.000030819781022</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>0.9999619082683923</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.9925287322123724</v>
+      </c>
+      <c r="D40">
+        <v>1.001944550056633</v>
+      </c>
+      <c r="E40">
+        <v>1.004844426022796</v>
+      </c>
+      <c r="F40">
+        <v>0.998554859342634</v>
+      </c>
+      <c r="G40">
+        <v>0.9925287322123724</v>
+      </c>
+      <c r="H40">
+        <v>1.001825183956162</v>
+      </c>
+      <c r="I40">
+        <v>0.9951554259965935</v>
+      </c>
+      <c r="J40">
+        <v>1.004844426022796</v>
+      </c>
+      <c r="K40">
+        <v>1.004844426022796</v>
+      </c>
+      <c r="L40">
+        <v>1.002781319427469</v>
+      </c>
+      <c r="M40">
+        <v>0.9983992164839069</v>
+      </c>
+      <c r="N40">
+        <v>1.004844426022796</v>
+      </c>
+      <c r="O40">
+        <v>1.001944550056633</v>
+      </c>
+      <c r="P40">
+        <v>0.9972366411345025</v>
+      </c>
+      <c r="Q40">
+        <v>1.00017188327027</v>
+      </c>
+      <c r="R40">
+        <v>0.9997725694306002</v>
+      </c>
+      <c r="S40">
+        <v>0.9976241662509707</v>
+      </c>
+      <c r="T40">
+        <v>0.9997725694306002</v>
+      </c>
+      <c r="U40">
+        <v>0.9994292311939269</v>
+      </c>
+      <c r="V40">
+        <v>1.000512270159701</v>
+      </c>
+      <c r="W40">
+        <v>0.9995042141873207</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.011467936703802</v>
+      </c>
+      <c r="D41">
+        <v>0.9971091682420162</v>
+      </c>
+      <c r="E41">
+        <v>0.9923971019056682</v>
+      </c>
+      <c r="F41">
+        <v>1.002278327990047</v>
+      </c>
+      <c r="G41">
+        <v>1.011467936703802</v>
+      </c>
+      <c r="H41">
+        <v>0.9971462644007678</v>
+      </c>
+      <c r="I41">
+        <v>1.007452390461893</v>
+      </c>
+      <c r="J41">
+        <v>0.9923971019056682</v>
+      </c>
+      <c r="K41">
+        <v>0.9923971019056682</v>
+      </c>
+      <c r="L41">
+        <v>0.9957406993716285</v>
+      </c>
+      <c r="M41">
+        <v>1.002462752028172</v>
+      </c>
+      <c r="N41">
+        <v>0.9923971019056682</v>
+      </c>
+      <c r="O41">
+        <v>0.9971091682420162</v>
+      </c>
+      <c r="P41">
+        <v>1.004288552472909</v>
+      </c>
+      <c r="Q41">
+        <v>0.999785960135094</v>
+      </c>
+      <c r="R41">
+        <v>1.000324735617162</v>
+      </c>
+      <c r="S41">
+        <v>1.003679952324663</v>
+      </c>
+      <c r="T41">
+        <v>1.000324735617162</v>
+      </c>
+      <c r="U41">
+        <v>1.000859239719915</v>
+      </c>
+      <c r="V41">
+        <v>0.9991668121570653</v>
+      </c>
+      <c r="W41">
+        <v>1.000756830137999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.9964814824953228</v>
+      </c>
+      <c r="D42">
+        <v>1.001005961628463</v>
+      </c>
+      <c r="E42">
+        <v>1.002121079060997</v>
+      </c>
+      <c r="F42">
+        <v>0.999377155378712</v>
+      </c>
+      <c r="G42">
+        <v>0.9964814824953228</v>
+      </c>
+      <c r="H42">
+        <v>1.00080944010748</v>
+      </c>
+      <c r="I42">
+        <v>0.9977341153994931</v>
+      </c>
+      <c r="J42">
+        <v>1.002121079060997</v>
+      </c>
+      <c r="K42">
+        <v>1.002121079060997</v>
+      </c>
+      <c r="L42">
+        <v>1.001319300917228</v>
+      </c>
+      <c r="M42">
+        <v>0.9992515501906157</v>
+      </c>
+      <c r="N42">
+        <v>1.002121079060997</v>
+      </c>
+      <c r="O42">
+        <v>1.001005961628463</v>
+      </c>
+      <c r="P42">
+        <v>0.9987437220618929</v>
+      </c>
+      <c r="Q42">
+        <v>1.000128755909539</v>
+      </c>
+      <c r="R42">
+        <v>0.999869507728261</v>
+      </c>
+      <c r="S42">
+        <v>0.9989129981048005</v>
+      </c>
+      <c r="T42">
+        <v>0.999869507728261</v>
+      </c>
+      <c r="U42">
+        <v>0.9997150183438497</v>
+      </c>
+      <c r="V42">
+        <v>1.000196230487279</v>
+      </c>
+      <c r="W42">
+        <v>0.9997625106472889</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/CopperA-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/CopperA-HW40.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,55 +85,52 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
     <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +591,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +600,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,70 +671,70 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000502567617163</v>
+        <v>0.999790081748468</v>
       </c>
       <c r="D3">
-        <v>0.9992381089628666</v>
+        <v>1.000051319594889</v>
       </c>
       <c r="E3">
-        <v>1.000193486149245</v>
+        <v>1.000142005489614</v>
       </c>
       <c r="F3">
-        <v>1.000502567617163</v>
+        <v>0.9999572765635076</v>
       </c>
       <c r="G3">
-        <v>0.9998364691110123</v>
+        <v>0.999790081748468</v>
       </c>
       <c r="H3">
-        <v>1.00028312291439</v>
+        <v>1.000053123230251</v>
       </c>
       <c r="I3">
-        <v>1.000502567617163</v>
+        <v>0.9998633101722429</v>
       </c>
       <c r="J3">
-        <v>0.9992381089628666</v>
+        <v>1.000142005489614</v>
       </c>
       <c r="K3">
-        <v>0.9998495529503783</v>
+        <v>1.000142005489614</v>
       </c>
       <c r="L3">
-        <v>1.000188797419826</v>
+        <v>1.000077797746573</v>
       </c>
       <c r="M3">
-        <v>0.9995051374396164</v>
+        <v>0.9999548240541947</v>
       </c>
       <c r="N3">
-        <v>1.000502567617163</v>
+        <v>1.000142005489614</v>
       </c>
       <c r="O3">
-        <v>1.000193486149245</v>
+        <v>1.000051319594889</v>
       </c>
       <c r="P3">
-        <v>0.9997157975560559</v>
+        <v>0.9999207006716783</v>
       </c>
       <c r="Q3">
-        <v>1.000014977630129</v>
+        <v>1.000003071824542</v>
       </c>
       <c r="R3">
-        <v>0.9999780542430914</v>
+        <v>0.9999944689443235</v>
       </c>
       <c r="S3">
-        <v>0.999756021407708</v>
+        <v>0.999932075132517</v>
       </c>
       <c r="T3">
-        <v>0.9999780542430914</v>
+        <v>0.9999944689443235</v>
       </c>
       <c r="U3">
-        <v>0.9999426579600716</v>
+        <v>0.9999845577217914</v>
       </c>
       <c r="V3">
-        <v>1.00005463989149</v>
+        <v>1.000016047275356</v>
       </c>
       <c r="W3">
-        <v>0.9999496553205621</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33">
+        <v>0.9999862173249676</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,70 +742,70 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000970607713255</v>
+        <v>0.9925287322123724</v>
       </c>
       <c r="D4">
-        <v>0.9985294072045284</v>
+        <v>1.001944550056633</v>
       </c>
       <c r="E4">
-        <v>1.000373151298786</v>
+        <v>1.004844426022796</v>
       </c>
       <c r="F4">
-        <v>1.000970607713255</v>
+        <v>0.998554859342634</v>
       </c>
       <c r="G4">
-        <v>0.9996843367449811</v>
+        <v>0.9925287322123724</v>
       </c>
       <c r="H4">
-        <v>1.0005464477392</v>
+        <v>1.001825183956162</v>
       </c>
       <c r="I4">
-        <v>1.000970607713255</v>
+        <v>0.9951554259965935</v>
       </c>
       <c r="J4">
-        <v>0.9985294072045284</v>
+        <v>1.004844426022796</v>
       </c>
       <c r="K4">
-        <v>0.999709407598304</v>
+        <v>1.004844426022796</v>
       </c>
       <c r="L4">
-        <v>1.00036458846483</v>
+        <v>1.002781319427469</v>
       </c>
       <c r="M4">
-        <v>0.9990447674872982</v>
+        <v>0.9983992164839069</v>
       </c>
       <c r="N4">
-        <v>1.000970607713255</v>
+        <v>1.004844426022796</v>
       </c>
       <c r="O4">
-        <v>1.000373151298786</v>
+        <v>1.001944550056633</v>
       </c>
       <c r="P4">
-        <v>0.9994512792516574</v>
+        <v>0.9972366411345025</v>
       </c>
       <c r="Q4">
-        <v>1.000028744021884</v>
+        <v>1.00017188327027</v>
       </c>
       <c r="R4">
-        <v>0.9999577220721901</v>
+        <v>0.9997725694306002</v>
       </c>
       <c r="S4">
-        <v>0.9995289650827653</v>
+        <v>0.9976241662509707</v>
       </c>
       <c r="T4">
-        <v>0.9999577220721901</v>
+        <v>0.9997725694306002</v>
       </c>
       <c r="U4">
-        <v>0.9998893757403878</v>
+        <v>0.9994292311939269</v>
       </c>
       <c r="V4">
-        <v>1.000105622134961</v>
+        <v>1.000512270159701</v>
       </c>
       <c r="W4">
-        <v>0.999902839281398</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
+        <v>0.9995042141873207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,70 +813,70 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.001859856043978</v>
+        <v>0.9918932464985607</v>
       </c>
       <c r="D5">
-        <v>0.9971816778913513</v>
+        <v>1.001995315367437</v>
       </c>
       <c r="E5">
-        <v>1.000715278265388</v>
+        <v>1.005460269351582</v>
       </c>
       <c r="F5">
-        <v>1.001859856043978</v>
+        <v>0.9983585744092227</v>
       </c>
       <c r="G5">
-        <v>0.9993950555238349</v>
+        <v>0.9918932464985607</v>
       </c>
       <c r="H5">
-        <v>1.001047263998623</v>
+        <v>1.002044117074929</v>
       </c>
       <c r="I5">
-        <v>1.001859856043978</v>
+        <v>0.9947235115850159</v>
       </c>
       <c r="J5">
-        <v>0.9971816778913513</v>
+        <v>1.005460269351582</v>
       </c>
       <c r="K5">
-        <v>0.9994431873935764</v>
+        <v>1.005460269351582</v>
       </c>
       <c r="L5">
-        <v>1.000698635581767</v>
+        <v>1.003005860453888</v>
       </c>
       <c r="M5">
-        <v>0.9981693706086345</v>
+        <v>0.9982561669668547</v>
       </c>
       <c r="N5">
-        <v>1.001859856043978</v>
+        <v>1.005460269351582</v>
       </c>
       <c r="O5">
-        <v>1.000715278265388</v>
+        <v>1.001995315367437</v>
       </c>
       <c r="P5">
-        <v>0.9989484780783697</v>
+        <v>0.9969442809329987</v>
       </c>
       <c r="Q5">
-        <v>1.000055166894612</v>
+        <v>1.000125741167146</v>
       </c>
       <c r="R5">
-        <v>0.999918937400239</v>
+        <v>0.9997829437391932</v>
       </c>
       <c r="S5">
-        <v>0.9990973372268582</v>
+        <v>0.9973815762776174</v>
       </c>
       <c r="T5">
-        <v>0.999918937400239</v>
+        <v>0.9997829437391932</v>
       </c>
       <c r="U5">
-        <v>0.999787966931138</v>
+        <v>0.9994012495461085</v>
       </c>
       <c r="V5">
-        <v>1.000202344753706</v>
+        <v>1.000613053507203</v>
       </c>
       <c r="W5">
-        <v>0.9998137906633942</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33">
+        <v>0.9994671327134362</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,70 +884,70 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.002727867499512</v>
+        <v>0.9734344280050384</v>
       </c>
       <c r="D6">
-        <v>0.9958664503166822</v>
+        <v>1.006502701740315</v>
       </c>
       <c r="E6">
-        <v>1.001049037046158</v>
+        <v>1.017956891462178</v>
       </c>
       <c r="F6">
-        <v>1.002727867499512</v>
+        <v>0.9945981417537488</v>
       </c>
       <c r="G6">
-        <v>0.999112746012403</v>
+        <v>0.9734344280050384</v>
       </c>
       <c r="H6">
-        <v>1.001535973025995</v>
+        <v>1.006718450423402</v>
       </c>
       <c r="I6">
-        <v>1.002727867499512</v>
+        <v>0.9827029036667746</v>
       </c>
       <c r="J6">
-        <v>0.9958664503166822</v>
+        <v>1.017956891462178</v>
       </c>
       <c r="K6">
-        <v>0.999183309142978</v>
+        <v>1.017956891462178</v>
       </c>
       <c r="L6">
-        <v>1.001024681436365</v>
+        <v>1.009846329914978</v>
       </c>
       <c r="M6">
-        <v>0.9973150588626747</v>
+        <v>0.994283358648875</v>
       </c>
       <c r="N6">
-        <v>1.002727867499512</v>
+        <v>1.017956891462178</v>
       </c>
       <c r="O6">
-        <v>1.001049037046158</v>
+        <v>1.006502701740315</v>
       </c>
       <c r="P6">
-        <v>0.9984577436814199</v>
+        <v>0.9899685648726769</v>
       </c>
       <c r="Q6">
-        <v>1.00008089152928</v>
+        <v>1.000393030194595</v>
       </c>
       <c r="R6">
-        <v>0.9998811182874506</v>
+        <v>0.9992980070691772</v>
       </c>
       <c r="S6">
-        <v>0.9986760777917475</v>
+        <v>0.991406829464743</v>
       </c>
       <c r="T6">
-        <v>0.9998811182874507</v>
+        <v>0.9992980070691772</v>
       </c>
       <c r="U6">
-        <v>0.9996890252186887</v>
+        <v>0.9980443449641015</v>
       </c>
       <c r="V6">
-        <v>1.000296793674853</v>
+        <v>1.002026854263717</v>
       </c>
       <c r="W6">
-        <v>0.9997268904178461</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
+        <v>0.9982554007019138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,70 +955,70 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000047512567815</v>
+        <v>0.9991283159091601</v>
       </c>
       <c r="D7">
-        <v>0.9999297456829761</v>
+        <v>1.000218842449253</v>
       </c>
       <c r="E7">
-        <v>1.000017182081337</v>
+        <v>1.00057948312</v>
       </c>
       <c r="F7">
-        <v>1.000047512567815</v>
+        <v>0.999826255486405</v>
       </c>
       <c r="G7">
-        <v>0.9999848812054625</v>
+        <v>0.9991283159091601</v>
       </c>
       <c r="H7">
-        <v>1.000026037232888</v>
+        <v>1.000217408302308</v>
       </c>
       <c r="I7">
-        <v>1.000047512567815</v>
+        <v>0.9994333865012439</v>
       </c>
       <c r="J7">
-        <v>0.9999297456829761</v>
+        <v>1.00057948312</v>
       </c>
       <c r="K7">
-        <v>0.9999857074048794</v>
+        <v>1.00057948312</v>
       </c>
       <c r="L7">
-        <v>1.00001777506239</v>
+        <v>1.000323657782904</v>
       </c>
       <c r="M7">
-        <v>0.9999542554368404</v>
+        <v>0.9998127518177365</v>
       </c>
       <c r="N7">
-        <v>1.000047512567815</v>
+        <v>1.00057948312</v>
       </c>
       <c r="O7">
-        <v>1.000017182081337</v>
+        <v>1.000218842449253</v>
       </c>
       <c r="P7">
-        <v>0.9999734638821568</v>
+        <v>0.9996735791792064</v>
       </c>
       <c r="Q7">
-        <v>1.0000010316434</v>
+        <v>1.000015797133495</v>
       </c>
       <c r="R7">
-        <v>0.9999981467773761</v>
+        <v>0.999975547159471</v>
       </c>
       <c r="S7">
-        <v>0.9999772696565921</v>
+        <v>0.9997199700587164</v>
       </c>
       <c r="T7">
-        <v>0.9999981467773761</v>
+        <v>0.999975547159471</v>
       </c>
       <c r="U7">
-        <v>0.9999948303843976</v>
+        <v>0.9999348483240373</v>
       </c>
       <c r="V7">
-        <v>1.000005366821081</v>
+        <v>1.00006377528323</v>
       </c>
       <c r="W7">
-        <v>0.9999953870843236</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+        <v>0.9999425126711263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,70 +1026,70 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000142005489614</v>
+        <v>0.9999353741012039</v>
       </c>
       <c r="D8">
-        <v>0.999790081748468</v>
+        <v>1.000013664376807</v>
       </c>
       <c r="E8">
-        <v>1.000051319594889</v>
+        <v>1.000047512949314</v>
       </c>
       <c r="F8">
-        <v>1.000142005489614</v>
+        <v>0.9999854820288959</v>
       </c>
       <c r="G8">
-        <v>0.9999548240541944</v>
+        <v>0.9999353741012039</v>
       </c>
       <c r="H8">
-        <v>1.000077797746573</v>
+        <v>1.000017540400062</v>
       </c>
       <c r="I8">
-        <v>1.000142005489614</v>
+        <v>0.9999575497064418</v>
       </c>
       <c r="J8">
-        <v>0.999790081748468</v>
+        <v>1.000047512949314</v>
       </c>
       <c r="K8">
-        <v>0.9999572765635076</v>
+        <v>1.000047512949314</v>
       </c>
       <c r="L8">
-        <v>1.000053123230252</v>
+        <v>1.000023727047024</v>
       </c>
       <c r="M8">
-        <v>0.9998633101722427</v>
+        <v>0.999985963712824</v>
       </c>
       <c r="N8">
-        <v>1.000142005489614</v>
+        <v>1.000047512949314</v>
       </c>
       <c r="O8">
-        <v>1.000051319594889</v>
+        <v>1.000013664376807</v>
       </c>
       <c r="P8">
-        <v>0.9999207006716783</v>
+        <v>0.9999745192390053</v>
       </c>
       <c r="Q8">
-        <v>1.000003071824541</v>
+        <v>0.9999998140448154</v>
       </c>
       <c r="R8">
-        <v>0.9999944689443235</v>
+        <v>0.9999988504757749</v>
       </c>
       <c r="S8">
-        <v>0.999932075132517</v>
+        <v>0.9999783340636115</v>
       </c>
       <c r="T8">
-        <v>0.9999944689443235</v>
+        <v>0.9999988504757749</v>
       </c>
       <c r="U8">
-        <v>0.9999845577217913</v>
+        <v>0.9999956287850371</v>
       </c>
       <c r="V8">
-        <v>1.000016047275356</v>
+        <v>1.000006005617892</v>
       </c>
       <c r="W8">
-        <v>0.9999862173249675</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>0.9999958517903216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,70 +1097,70 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.00022616796073</v>
+        <v>0.9985294072045284</v>
       </c>
       <c r="D9">
-        <v>0.9996660720321847</v>
+        <v>1.000373151298786</v>
       </c>
       <c r="E9">
-        <v>1.000081485220526</v>
+        <v>1.000970607713255</v>
       </c>
       <c r="F9">
-        <v>1.00022616796073</v>
+        <v>0.999709407598304</v>
       </c>
       <c r="G9">
-        <v>0.9999281273352481</v>
+        <v>0.9985294072045284</v>
       </c>
       <c r="H9">
-        <v>1.000123740993518</v>
+        <v>1.00036458846483</v>
       </c>
       <c r="I9">
-        <v>1.00022616796073</v>
+        <v>0.9990447674872985</v>
       </c>
       <c r="J9">
-        <v>0.9996660720321847</v>
+        <v>1.000970607713255</v>
       </c>
       <c r="K9">
-        <v>0.9999319388480037</v>
+        <v>1.000970607713255</v>
       </c>
       <c r="L9">
-        <v>1.00008459111099</v>
+        <v>1.0005464477392</v>
       </c>
       <c r="M9">
-        <v>0.999782533744879</v>
+        <v>0.9996843367449811</v>
       </c>
       <c r="N9">
-        <v>1.00022616796073</v>
+        <v>1.000970607713255</v>
       </c>
       <c r="O9">
-        <v>1.000081485220526</v>
+        <v>1.000373151298786</v>
       </c>
       <c r="P9">
-        <v>0.9998737786263556</v>
+        <v>0.9994512792516574</v>
       </c>
       <c r="Q9">
-        <v>1.000004806277887</v>
+        <v>1.000028744021884</v>
       </c>
       <c r="R9">
-        <v>0.9999912417378137</v>
+        <v>0.9999577220721901</v>
       </c>
       <c r="S9">
-        <v>0.9998918948626532</v>
+        <v>0.9995289650827653</v>
       </c>
       <c r="T9">
-        <v>0.9999912417378137</v>
+        <v>0.9999577220721901</v>
       </c>
       <c r="U9">
-        <v>0.9999754631371722</v>
+        <v>0.9998893757403878</v>
       </c>
       <c r="V9">
-        <v>1.000025604101884</v>
+        <v>1.000105622134961</v>
       </c>
       <c r="W9">
-        <v>0.99997808215576</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
+        <v>0.999902839281398</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,70 +1168,70 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000462189083728</v>
+        <v>0.9730416487440269</v>
       </c>
       <c r="D10">
-        <v>0.9993168855967719</v>
+        <v>1.00659657855665</v>
       </c>
       <c r="E10">
-        <v>1.000166964835711</v>
+        <v>1.018226420655612</v>
       </c>
       <c r="F10">
-        <v>1.000462189083728</v>
+        <v>0.9945168220059994</v>
       </c>
       <c r="G10">
-        <v>0.9998529857167807</v>
+        <v>0.9730416487440269</v>
       </c>
       <c r="H10">
-        <v>1.000253165435725</v>
+        <v>1.006819044154509</v>
       </c>
       <c r="I10">
-        <v>1.000462189083728</v>
+        <v>0.9824467685433133</v>
       </c>
       <c r="J10">
-        <v>0.9993168855967719</v>
+        <v>1.018226420655612</v>
       </c>
       <c r="K10">
-        <v>0.9998609383188491</v>
+        <v>1.018226420655612</v>
       </c>
       <c r="L10">
-        <v>1.0001728969477</v>
+        <v>1.009991673261425</v>
       </c>
       <c r="M10">
-        <v>0.99955517637116</v>
+        <v>0.9941986996291773</v>
       </c>
       <c r="N10">
-        <v>1.000462189083728</v>
+        <v>1.018226420655612</v>
       </c>
       <c r="O10">
-        <v>1.000166964835711</v>
+        <v>1.00659657855665</v>
       </c>
       <c r="P10">
-        <v>0.9997419252162412</v>
+        <v>0.9898191136503387</v>
       </c>
       <c r="Q10">
-        <v>1.000009975276246</v>
+        <v>1.000397639092914</v>
       </c>
       <c r="R10">
-        <v>0.9999820131720702</v>
+        <v>0.9992882159854298</v>
       </c>
       <c r="S10">
-        <v>0.9997789453830878</v>
+        <v>0.9912789756432848</v>
       </c>
       <c r="T10">
-        <v>0.9999820131720702</v>
+        <v>0.9992882159854298</v>
       </c>
       <c r="U10">
-        <v>0.9999497563082479</v>
+        <v>0.9980158368963666</v>
       </c>
       <c r="V10">
-        <v>1.000052242863344</v>
+        <v>1.002057953648216</v>
       </c>
       <c r="W10">
-        <v>0.9999551502883033</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33">
+        <v>0.9982297069438393</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,70 +1239,70 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000833809521289</v>
+        <v>1.004255291846079</v>
       </c>
       <c r="D11">
-        <v>0.9987697250871665</v>
+        <v>0.9989910918505308</v>
       </c>
       <c r="E11">
-        <v>1.000299905286059</v>
+        <v>0.9970655070986497</v>
       </c>
       <c r="F11">
-        <v>1.000833809521289</v>
+        <v>1.000886207663159</v>
       </c>
       <c r="G11">
-        <v>0.9997351845646913</v>
+        <v>1.004255291846079</v>
       </c>
       <c r="H11">
-        <v>1.000455861735736</v>
+        <v>0.9989056650958622</v>
       </c>
       <c r="I11">
-        <v>1.000833809521289</v>
+        <v>1.002776325247888</v>
       </c>
       <c r="J11">
-        <v>0.9987697250871665</v>
+        <v>0.9970655070986497</v>
       </c>
       <c r="K11">
-        <v>0.9997490417996656</v>
+        <v>0.9970655070986497</v>
       </c>
       <c r="L11">
-        <v>1.000311826639849</v>
+        <v>0.9984262332657451</v>
       </c>
       <c r="M11">
-        <v>0.999198739733415</v>
+        <v>1.000917662219304</v>
       </c>
       <c r="N11">
-        <v>1.000833809521289</v>
+        <v>0.9970655070986497</v>
       </c>
       <c r="O11">
-        <v>1.000299905286059</v>
+        <v>0.9989910918505308</v>
       </c>
       <c r="P11">
-        <v>0.999534815186613</v>
+        <v>1.001623191848305</v>
       </c>
       <c r="Q11">
-        <v>1.000017544925375</v>
+        <v>0.9999543770349175</v>
       </c>
       <c r="R11">
-        <v>0.9999678132981714</v>
+        <v>1.00010396359842</v>
       </c>
       <c r="S11">
-        <v>0.9996016049793058</v>
+        <v>1.001388015305305</v>
       </c>
       <c r="T11">
-        <v>0.9999678132981714</v>
+        <v>1.00010396359842</v>
       </c>
       <c r="U11">
-        <v>0.9999096561148014</v>
+        <v>1.000307388253641</v>
       </c>
       <c r="V11">
-        <v>1.000094486796099</v>
+        <v>0.9996590120226425</v>
       </c>
       <c r="W11">
-        <v>0.9999192617959839</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33">
+        <v>1.000277998035902</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,70 +1310,70 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9920441157028639</v>
+        <v>0.9921544834210541</v>
       </c>
       <c r="D12">
-        <v>1.011900432336229</v>
+        <v>1.001915478452633</v>
       </c>
       <c r="E12">
-        <v>0.9970374114771907</v>
+        <v>1.005311937852631</v>
       </c>
       <c r="F12">
-        <v>0.9920441157028639</v>
+        <v>0.9984015232842081</v>
       </c>
       <c r="G12">
-        <v>1.002557863807517</v>
+        <v>0.9921544834210541</v>
       </c>
       <c r="H12">
-        <v>0.9955839789808788</v>
+        <v>1.001986879284209</v>
       </c>
       <c r="I12">
-        <v>0.9920441157028639</v>
+        <v>0.994890853452632</v>
       </c>
       <c r="J12">
-        <v>1.011900432336229</v>
+        <v>1.005311937852631</v>
       </c>
       <c r="K12">
-        <v>1.002388097741924</v>
+        <v>1.005311937852631</v>
       </c>
       <c r="L12">
-        <v>0.9970179290362796</v>
+        <v>1.00290736758947</v>
       </c>
       <c r="M12">
-        <v>1.007739902697986</v>
+        <v>0.998311426305264</v>
       </c>
       <c r="N12">
-        <v>0.9920441157028639</v>
+        <v>1.005311937852631</v>
       </c>
       <c r="O12">
-        <v>0.9970374114771907</v>
+        <v>1.001915478452633</v>
       </c>
       <c r="P12">
-        <v>1.00446892190671</v>
+        <v>0.9970349809368437</v>
       </c>
       <c r="Q12">
-        <v>0.9997976376423541</v>
+        <v>1.000113452378949</v>
       </c>
       <c r="R12">
-        <v>1.000327319838761</v>
+        <v>0.9997939665754393</v>
       </c>
       <c r="S12">
-        <v>1.003831902540312</v>
+        <v>0.9974604627263172</v>
       </c>
       <c r="T12">
-        <v>1.000327319838761</v>
+        <v>0.9997939665754393</v>
       </c>
       <c r="U12">
-        <v>1.00088495583095</v>
+        <v>0.9994233315078955</v>
       </c>
       <c r="V12">
-        <v>0.9991167878053329</v>
+        <v>1.000601052776843</v>
       </c>
       <c r="W12">
-        <v>1.000783716472609</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33">
+        <v>0.9994849937052626</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,70 +1381,70 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9979486510136296</v>
+        <v>1.00531680606041</v>
       </c>
       <c r="D13">
-        <v>1.003092392309799</v>
+        <v>0.9986786091333335</v>
       </c>
       <c r="E13">
-        <v>0.9992211398179152</v>
+        <v>0.9964415780368485</v>
       </c>
       <c r="F13">
-        <v>0.9979486510136296</v>
+        <v>1.001068359872898</v>
       </c>
       <c r="G13">
-        <v>1.000664135200781</v>
+        <v>1.00531680606041</v>
       </c>
       <c r="H13">
-        <v>0.9988515272108537</v>
+        <v>0.9986664585994167</v>
       </c>
       <c r="I13">
-        <v>0.9979486510136296</v>
+        <v>1.003458370875478</v>
       </c>
       <c r="J13">
-        <v>1.003092392309799</v>
+        <v>0.9964415780368485</v>
       </c>
       <c r="K13">
-        <v>1.00061479192147</v>
+        <v>0.9964415780368485</v>
       </c>
       <c r="L13">
-        <v>0.9992301057684592</v>
+        <v>0.9980272709185766</v>
       </c>
       <c r="M13">
-        <v>1.002009691371328</v>
+        <v>1.00114292217613</v>
       </c>
       <c r="N13">
-        <v>0.9979486510136296</v>
+        <v>0.9964415780368485</v>
       </c>
       <c r="O13">
-        <v>0.9992211398179152</v>
+        <v>0.9986786091333335</v>
       </c>
       <c r="P13">
-        <v>1.001156766063857</v>
+        <v>1.001997707596872</v>
       </c>
       <c r="Q13">
-        <v>0.9999426375093483</v>
+        <v>0.9999107656547319</v>
       </c>
       <c r="R13">
-        <v>1.000087394380448</v>
+        <v>1.000145664410197</v>
       </c>
       <c r="S13">
-        <v>1.000992555776165</v>
+        <v>1.001712779123291</v>
       </c>
       <c r="T13">
-        <v>1.000087394380448</v>
+        <v>1.000145664410197</v>
       </c>
       <c r="U13">
-        <v>1.000231579585531</v>
+        <v>1.000394978851681</v>
       </c>
       <c r="V13">
-        <v>0.9997749938711511</v>
+        <v>0.9996042986887141</v>
       </c>
       <c r="W13">
-        <v>1.00020405432678</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33">
+        <v>1.000350046959137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,70 +1452,70 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.02384479496947</v>
+        <v>0.9534276099999992</v>
       </c>
       <c r="D14">
-        <v>0.9631303094325089</v>
+        <v>1.011390400000001</v>
       </c>
       <c r="E14">
-        <v>1.009630860170504</v>
+        <v>1.0314974</v>
       </c>
       <c r="F14">
-        <v>1.02384479496947</v>
+        <v>0.9905238300000004</v>
       </c>
       <c r="G14">
-        <v>0.9921024356548201</v>
+        <v>0.9534276099999992</v>
       </c>
       <c r="H14">
-        <v>1.013729099860233</v>
+        <v>1.011783500000001</v>
       </c>
       <c r="I14">
-        <v>1.02384479496947</v>
+        <v>0.9696746199999998</v>
       </c>
       <c r="J14">
-        <v>0.9631303094325089</v>
+        <v>1.0314974</v>
       </c>
       <c r="K14">
-        <v>0.9928906591822821</v>
+        <v>1.0314974</v>
       </c>
       <c r="L14">
-        <v>1.008987733906296</v>
+        <v>1.0172607</v>
       </c>
       <c r="M14">
-        <v>0.9760986970092749</v>
+        <v>0.9899775199999981</v>
       </c>
       <c r="N14">
-        <v>1.02384479496947</v>
+        <v>1.0314974</v>
       </c>
       <c r="O14">
-        <v>1.009630860170504</v>
+        <v>1.011390400000001</v>
       </c>
       <c r="P14">
-        <v>0.9863805848015066</v>
+        <v>0.9824090050000001</v>
       </c>
       <c r="Q14">
-        <v>1.000866647912662</v>
+        <v>1.000683959999999</v>
       </c>
       <c r="R14">
-        <v>0.9988686548574947</v>
+        <v>0.9987718033333334</v>
       </c>
       <c r="S14">
-        <v>0.9882878684192778</v>
+        <v>0.9849318433333328</v>
       </c>
       <c r="T14">
-        <v>0.9988686548574944</v>
+        <v>0.9987718033333334</v>
       </c>
       <c r="U14">
-        <v>0.9971771000568259</v>
+        <v>0.9965732324999996</v>
       </c>
       <c r="V14">
-        <v>1.002510639039355</v>
+        <v>1.003558066</v>
       </c>
       <c r="W14">
-        <v>0.9975518237731738</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
+        <v>0.9969419474999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,70 +1523,70 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.006751230633846</v>
+        <v>0.8759446600000002</v>
       </c>
       <c r="D15">
-        <v>0.9903291887809755</v>
+        <v>1.0301398</v>
       </c>
       <c r="E15">
-        <v>1.002246693879998</v>
+        <v>1.0842575</v>
       </c>
       <c r="F15">
-        <v>1.006751230633846</v>
+        <v>0.97462952</v>
       </c>
       <c r="G15">
-        <v>0.9979116945411328</v>
+        <v>0.8759446600000002</v>
       </c>
       <c r="H15">
-        <v>1.003571771507939</v>
+        <v>1.0314994</v>
       </c>
       <c r="I15">
-        <v>1.006751230633846</v>
+        <v>0.91918716</v>
       </c>
       <c r="J15">
-        <v>0.9903291887809755</v>
+        <v>1.0842575</v>
       </c>
       <c r="K15">
-        <v>0.9979563900521016</v>
+        <v>1.0842575</v>
       </c>
       <c r="L15">
-        <v>1.002512707982678</v>
+        <v>1.0459565</v>
       </c>
       <c r="M15">
-        <v>0.9936823756656112</v>
+        <v>0.9732909399999999</v>
       </c>
       <c r="N15">
-        <v>1.006751230633846</v>
+        <v>1.0842575</v>
       </c>
       <c r="O15">
-        <v>1.002246693879998</v>
+        <v>1.0301398</v>
       </c>
       <c r="P15">
-        <v>0.9962879413304866</v>
+        <v>0.9530422300000001</v>
       </c>
       <c r="Q15">
-        <v>1.000079194210565</v>
+        <v>1.00171537</v>
       </c>
       <c r="R15">
-        <v>0.9997757044316063</v>
+        <v>0.9967806533333334</v>
       </c>
       <c r="S15">
-        <v>0.996829192400702</v>
+        <v>0.9597918000000001</v>
       </c>
       <c r="T15">
-        <v>0.9997757044316063</v>
+        <v>0.9967806533333334</v>
       </c>
       <c r="U15">
-        <v>0.9993097019589879</v>
+        <v>0.9909082250000001</v>
       </c>
       <c r="V15">
-        <v>1.00079800769396</v>
+        <v>1.00957808</v>
       </c>
       <c r="W15">
-        <v>0.9993702566305352</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33">
+        <v>0.9918631849999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000000378302178</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="D16">
-        <v>0.9999958985931375</v>
+        <v>1.012634</v>
       </c>
       <c r="E16">
-        <v>1.000002349555793</v>
+        <v>1.0301398</v>
       </c>
       <c r="F16">
-        <v>1.000000378302178</v>
+        <v>0.9910432999999998</v>
       </c>
       <c r="G16">
-        <v>0.9999991983811195</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="H16">
-        <v>1.000001660911303</v>
+        <v>1.0113912</v>
       </c>
       <c r="I16">
-        <v>1.000000378302178</v>
+        <v>0.9693574700000001</v>
       </c>
       <c r="J16">
-        <v>0.9999958985931375</v>
+        <v>1.0301398</v>
       </c>
       <c r="K16">
-        <v>1.000000029576204</v>
+        <v>1.0301398</v>
       </c>
       <c r="L16">
-        <v>1.000000289101727</v>
+        <v>1.0176561</v>
       </c>
       <c r="M16">
-        <v>0.9999975637498933</v>
+        <v>0.9898757500000001</v>
       </c>
       <c r="N16">
-        <v>1.000000378302178</v>
+        <v>1.0301398</v>
       </c>
       <c r="O16">
-        <v>1.000002349555793</v>
+        <v>1.012634</v>
       </c>
       <c r="P16">
-        <v>0.999999124074465</v>
+        <v>0.9826469</v>
       </c>
       <c r="Q16">
-        <v>1.000000773968456</v>
+        <v>1.001254875</v>
       </c>
       <c r="R16">
-        <v>0.9999995421503692</v>
+        <v>0.9984778666666667</v>
       </c>
       <c r="S16">
-        <v>0.9999991488433498</v>
+        <v>0.9850565166666666</v>
       </c>
       <c r="T16">
-        <v>0.9999995421503693</v>
+        <v>0.9984778666666667</v>
       </c>
       <c r="U16">
-        <v>0.9999994562080569</v>
+        <v>0.9963273375</v>
       </c>
       <c r="V16">
-        <v>0.999999640626881</v>
+        <v>1.00308983</v>
       </c>
       <c r="W16">
-        <v>0.9999996710214194</v>
+        <v>0.9968446774999999</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000047512949314</v>
+        <v>0.95342312</v>
       </c>
       <c r="D17">
-        <v>0.9999353741012039</v>
+        <v>1.0113915</v>
       </c>
       <c r="E17">
-        <v>1.000013664376807</v>
+        <v>1.0315004</v>
       </c>
       <c r="F17">
-        <v>1.000047512949314</v>
+        <v>0.99052292</v>
       </c>
       <c r="G17">
-        <v>0.999985963712824</v>
+        <v>0.95342312</v>
       </c>
       <c r="H17">
-        <v>1.000023727047024</v>
+        <v>1.0117846</v>
       </c>
       <c r="I17">
-        <v>1.000047512949314</v>
+        <v>0.9696716999999999</v>
       </c>
       <c r="J17">
-        <v>0.9999353741012039</v>
+        <v>1.0315004</v>
       </c>
       <c r="K17">
-        <v>0.9999854820288959</v>
+        <v>1.0315004</v>
       </c>
       <c r="L17">
-        <v>1.000017540400062</v>
+        <v>1.0172624</v>
       </c>
       <c r="M17">
-        <v>0.9999575497064417</v>
+        <v>0.9899765600000001</v>
       </c>
       <c r="N17">
-        <v>1.000047512949314</v>
+        <v>1.0315004</v>
       </c>
       <c r="O17">
-        <v>1.000013664376807</v>
+        <v>1.0113915</v>
       </c>
       <c r="P17">
-        <v>0.9999745192390053</v>
+        <v>0.9824073099999999</v>
       </c>
       <c r="Q17">
-        <v>0.9999998140448154</v>
+        <v>1.00068403</v>
       </c>
       <c r="R17">
-        <v>0.9999988504757749</v>
+        <v>0.9987716733333333</v>
       </c>
       <c r="S17">
-        <v>0.9999783340636115</v>
+        <v>0.9849303933333333</v>
       </c>
       <c r="T17">
-        <v>0.9999988504757749</v>
+        <v>0.9987716733333333</v>
       </c>
       <c r="U17">
-        <v>0.9999956287850371</v>
+        <v>0.996572895</v>
       </c>
       <c r="V17">
-        <v>1.000006005617892</v>
+        <v>1.003558396</v>
       </c>
       <c r="W17">
-        <v>0.9999958517903216</v>
+        <v>0.9969416499999999</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.00014897154126</v>
+        <v>0.9809506079452054</v>
       </c>
       <c r="D18">
-        <v>0.9997621758003074</v>
+        <v>1.004828233972603</v>
       </c>
       <c r="E18">
-        <v>1.000064843675734</v>
+        <v>1.012582444109589</v>
       </c>
       <c r="F18">
-        <v>1.00014897154126</v>
+        <v>0.996232296986301</v>
       </c>
       <c r="G18">
-        <v>0.9999492215724902</v>
+        <v>0.9809506079452054</v>
       </c>
       <c r="H18">
-        <v>1.000088844382107</v>
+        <v>1.00472573369863</v>
       </c>
       <c r="I18">
-        <v>1.00014897154126</v>
+        <v>0.9876253915068492</v>
       </c>
       <c r="J18">
-        <v>0.9997621758003074</v>
+        <v>1.012582444109589</v>
       </c>
       <c r="K18">
-        <v>0.9999558814590455</v>
+        <v>1.012582444109589</v>
       </c>
       <c r="L18">
-        <v>1.000056464699326</v>
+        <v>1.007077878630137</v>
       </c>
       <c r="M18">
-        <v>0.9998463027462602</v>
+        <v>0.9959107046575345</v>
       </c>
       <c r="N18">
-        <v>1.00014897154126</v>
+        <v>1.012582444109589</v>
       </c>
       <c r="O18">
-        <v>1.000064843675734</v>
+        <v>1.004828233972603</v>
       </c>
       <c r="P18">
-        <v>0.9999135097380205</v>
+        <v>0.9928894209589041</v>
       </c>
       <c r="Q18">
-        <v>1.000007032624112</v>
+        <v>1.000369469315069</v>
       </c>
       <c r="R18">
-        <v>0.999991997005767</v>
+        <v>0.9994537620091323</v>
       </c>
       <c r="S18">
-        <v>0.9999254136828437</v>
+        <v>0.9938965155251142</v>
       </c>
       <c r="T18">
-        <v>0.999991997005767</v>
+        <v>0.9994537620091323</v>
       </c>
       <c r="U18">
-        <v>0.9999813031474478</v>
+        <v>0.9985679976712328</v>
       </c>
       <c r="V18">
-        <v>1.00001483682621</v>
+        <v>1.001370886958904</v>
       </c>
       <c r="W18">
-        <v>0.9999840882345662</v>
+        <v>0.9987416614383561</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.000337564965188</v>
+        <v>0.9530422889473683</v>
       </c>
       <c r="D19">
-        <v>0.9994364206954567</v>
+        <v>1.01201257368421</v>
       </c>
       <c r="E19">
-        <v>1.000162356846793</v>
+        <v>1.030819547368421</v>
       </c>
       <c r="F19">
-        <v>1.000337564965188</v>
+        <v>0.9907832736842105</v>
       </c>
       <c r="G19">
-        <v>0.999880191432483</v>
+        <v>0.9530422889473683</v>
       </c>
       <c r="H19">
-        <v>1.00021145247161</v>
+        <v>1.011587684210526</v>
       </c>
       <c r="I19">
-        <v>1.000337564965188</v>
+        <v>0.9695151210526316</v>
       </c>
       <c r="J19">
-        <v>0.9994364206954567</v>
+        <v>1.030819547368421</v>
       </c>
       <c r="K19">
-        <v>0.9999010236639695</v>
+        <v>1.030819547368421</v>
       </c>
       <c r="L19">
-        <v>1.000128976715944</v>
+        <v>1.017458952631579</v>
       </c>
       <c r="M19">
-        <v>0.9996372793556936</v>
+        <v>0.989926330526316</v>
       </c>
       <c r="N19">
-        <v>1.000337564965188</v>
+        <v>1.030819547368421</v>
       </c>
       <c r="O19">
-        <v>1.000162356846793</v>
+        <v>1.01201257368421</v>
       </c>
       <c r="P19">
-        <v>0.999799388771125</v>
+        <v>0.9825274313157895</v>
       </c>
       <c r="Q19">
-        <v>1.000021274139638</v>
+        <v>1.000969452105263</v>
       </c>
       <c r="R19">
-        <v>0.9999787808358128</v>
+        <v>0.9986248033333333</v>
       </c>
       <c r="S19">
-        <v>0.9998263229915776</v>
+        <v>0.9849937310526317</v>
       </c>
       <c r="T19">
-        <v>0.9999787808358128</v>
+        <v>0.9986248033333333</v>
       </c>
       <c r="U19">
-        <v>0.9999541334849803</v>
+        <v>0.996450185131579</v>
       </c>
       <c r="V19">
-        <v>1.000030819781022</v>
+        <v>1.003324057578947</v>
       </c>
       <c r="W19">
-        <v>0.9999619082683923</v>
+        <v>0.9968932215131578</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9790700236842105</v>
+      </c>
+      <c r="D20">
+        <v>1.004966313157895</v>
+      </c>
+      <c r="E20">
+        <v>1.014426531578947</v>
+      </c>
+      <c r="F20">
+        <v>0.99564365</v>
+      </c>
+      <c r="G20">
+        <v>0.9790700236842105</v>
+      </c>
+      <c r="H20">
+        <v>1.005380383157895</v>
+      </c>
+      <c r="I20">
+        <v>0.9863451168421055</v>
+      </c>
+      <c r="J20">
+        <v>1.014426531578947</v>
+      </c>
+      <c r="K20">
+        <v>1.014426531578947</v>
+      </c>
+      <c r="L20">
+        <v>1.007741071052632</v>
+      </c>
+      <c r="M20">
+        <v>0.9954866447368419</v>
+      </c>
+      <c r="N20">
+        <v>1.014426531578947</v>
+      </c>
+      <c r="O20">
+        <v>1.004966313157895</v>
+      </c>
+      <c r="P20">
+        <v>0.9920181684210526</v>
+      </c>
+      <c r="Q20">
+        <v>1.000226478947368</v>
+      </c>
+      <c r="R20">
+        <v>0.9994876228070174</v>
+      </c>
+      <c r="S20">
+        <v>0.9931743271929824</v>
+      </c>
+      <c r="T20">
+        <v>0.9994876228070174</v>
+      </c>
+      <c r="U20">
+        <v>0.9984873782894735</v>
+      </c>
+      <c r="V20">
+        <v>1.001675208947368</v>
+      </c>
+      <c r="W20">
+        <v>0.9986324667763158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9631303094325089</v>
+      </c>
+      <c r="D21">
+        <v>1.009630860170504</v>
+      </c>
+      <c r="E21">
+        <v>1.02384479496947</v>
+      </c>
+      <c r="F21">
+        <v>0.9928906591822821</v>
+      </c>
+      <c r="G21">
+        <v>0.9631303094325089</v>
+      </c>
+      <c r="H21">
+        <v>1.008987733906296</v>
+      </c>
+      <c r="I21">
+        <v>0.9760986970092749</v>
+      </c>
+      <c r="J21">
+        <v>1.02384479496947</v>
+      </c>
+      <c r="K21">
+        <v>1.02384479496947</v>
+      </c>
+      <c r="L21">
+        <v>1.013729099860233</v>
+      </c>
+      <c r="M21">
+        <v>0.9921024356548199</v>
+      </c>
+      <c r="N21">
+        <v>1.02384479496947</v>
+      </c>
+      <c r="O21">
+        <v>1.009630860170504</v>
+      </c>
+      <c r="P21">
+        <v>0.9863805848015066</v>
+      </c>
+      <c r="Q21">
+        <v>1.000866647912662</v>
+      </c>
+      <c r="R21">
+        <v>0.9988686548574947</v>
+      </c>
+      <c r="S21">
+        <v>0.9882878684192776</v>
+      </c>
+      <c r="T21">
+        <v>0.9988686548574944</v>
+      </c>
+      <c r="U21">
+        <v>0.9971771000568258</v>
+      </c>
+      <c r="V21">
+        <v>1.002510639039355</v>
+      </c>
+      <c r="W21">
+        <v>0.9975518237731735</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9903291887809755</v>
+      </c>
+      <c r="D22">
+        <v>1.002246693879998</v>
+      </c>
+      <c r="E22">
+        <v>1.006751230633846</v>
+      </c>
+      <c r="F22">
+        <v>0.9979563900521016</v>
+      </c>
+      <c r="G22">
+        <v>0.9903291887809755</v>
+      </c>
+      <c r="H22">
+        <v>1.002512707982678</v>
+      </c>
+      <c r="I22">
+        <v>0.9936823756656112</v>
+      </c>
+      <c r="J22">
+        <v>1.006751230633846</v>
+      </c>
+      <c r="K22">
+        <v>1.006751230633846</v>
+      </c>
+      <c r="L22">
+        <v>1.003571771507939</v>
+      </c>
+      <c r="M22">
+        <v>0.9979116945411328</v>
+      </c>
+      <c r="N22">
+        <v>1.006751230633846</v>
+      </c>
+      <c r="O22">
+        <v>1.002246693879998</v>
+      </c>
+      <c r="P22">
+        <v>0.9962879413304866</v>
+      </c>
+      <c r="Q22">
+        <v>1.000079194210565</v>
+      </c>
+      <c r="R22">
+        <v>0.9997757044316063</v>
+      </c>
+      <c r="S22">
+        <v>0.996829192400702</v>
+      </c>
+      <c r="T22">
+        <v>0.9997757044316063</v>
+      </c>
+      <c r="U22">
+        <v>0.9993097019589879</v>
+      </c>
+      <c r="V22">
+        <v>1.00079800769396</v>
+      </c>
+      <c r="W22">
+        <v>0.9993702566305352</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.011900432336229</v>
+      </c>
+      <c r="D23">
+        <v>0.9970374114771908</v>
+      </c>
+      <c r="E23">
+        <v>0.9920441157028639</v>
+      </c>
+      <c r="F23">
+        <v>1.002388097741924</v>
+      </c>
+      <c r="G23">
+        <v>1.011900432336229</v>
+      </c>
+      <c r="H23">
+        <v>0.9970179290362796</v>
+      </c>
+      <c r="I23">
+        <v>1.007739902697986</v>
+      </c>
+      <c r="J23">
+        <v>0.9920441157028639</v>
+      </c>
+      <c r="K23">
+        <v>0.9920441157028639</v>
+      </c>
+      <c r="L23">
+        <v>0.9955839789808788</v>
+      </c>
+      <c r="M23">
+        <v>1.002557863807517</v>
+      </c>
+      <c r="N23">
+        <v>0.9920441157028639</v>
+      </c>
+      <c r="O23">
+        <v>0.9970374114771908</v>
+      </c>
+      <c r="P23">
+        <v>1.00446892190671</v>
+      </c>
+      <c r="Q23">
+        <v>0.9997976376423541</v>
+      </c>
+      <c r="R23">
+        <v>1.000327319838761</v>
+      </c>
+      <c r="S23">
+        <v>1.003831902540312</v>
+      </c>
+      <c r="T23">
+        <v>1.000327319838761</v>
+      </c>
+      <c r="U23">
+        <v>1.00088495583095</v>
+      </c>
+      <c r="V23">
+        <v>0.9991167878053329</v>
+      </c>
+      <c r="W23">
+        <v>1.000783716472609</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.003092392309799</v>
+      </c>
+      <c r="D24">
+        <v>0.9992211398179152</v>
+      </c>
+      <c r="E24">
+        <v>0.9979486510136296</v>
+      </c>
+      <c r="F24">
+        <v>1.00061479192147</v>
+      </c>
+      <c r="G24">
+        <v>1.003092392309799</v>
+      </c>
+      <c r="H24">
+        <v>0.9992301057684592</v>
+      </c>
+      <c r="I24">
+        <v>1.002009691371328</v>
+      </c>
+      <c r="J24">
+        <v>0.9979486510136296</v>
+      </c>
+      <c r="K24">
+        <v>0.9979486510136296</v>
+      </c>
+      <c r="L24">
+        <v>0.9988515272108537</v>
+      </c>
+      <c r="M24">
+        <v>1.000664135200781</v>
+      </c>
+      <c r="N24">
+        <v>0.9979486510136296</v>
+      </c>
+      <c r="O24">
+        <v>0.9992211398179152</v>
+      </c>
+      <c r="P24">
+        <v>1.001156766063857</v>
+      </c>
+      <c r="Q24">
+        <v>0.9999426375093483</v>
+      </c>
+      <c r="R24">
+        <v>1.000087394380448</v>
+      </c>
+      <c r="S24">
+        <v>1.000992555776165</v>
+      </c>
+      <c r="T24">
+        <v>1.000087394380448</v>
+      </c>
+      <c r="U24">
+        <v>1.000231579585531</v>
+      </c>
+      <c r="V24">
+        <v>0.9997749938711511</v>
+      </c>
+      <c r="W24">
+        <v>1.00020405432678</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.037408405204385</v>
+      </c>
+      <c r="D25">
+        <v>0.9904425353262464</v>
+      </c>
+      <c r="E25">
+        <v>0.9754261572522006</v>
+      </c>
+      <c r="F25">
+        <v>1.007350248002653</v>
+      </c>
+      <c r="G25">
+        <v>1.037408405204385</v>
+      </c>
+      <c r="H25">
+        <v>0.9907619887829876</v>
+      </c>
+      <c r="I25">
+        <v>1.024287595839436</v>
+      </c>
+      <c r="J25">
+        <v>0.9754261572522006</v>
+      </c>
+      <c r="K25">
+        <v>0.9754261572522006</v>
+      </c>
+      <c r="L25">
+        <v>0.9860927760842482</v>
+      </c>
+      <c r="M25">
+        <v>1.008025819181727</v>
+      </c>
+      <c r="N25">
+        <v>0.9754261572522006</v>
+      </c>
+      <c r="O25">
+        <v>0.9904425353262464</v>
+      </c>
+      <c r="P25">
+        <v>1.013925470265316</v>
+      </c>
+      <c r="Q25">
+        <v>0.9992341772539866</v>
+      </c>
+      <c r="R25">
+        <v>1.001092365927611</v>
+      </c>
+      <c r="S25">
+        <v>1.01195891990412</v>
+      </c>
+      <c r="T25">
+        <v>1.001092365927611</v>
+      </c>
+      <c r="U25">
+        <v>1.00282572924114</v>
+      </c>
+      <c r="V25">
+        <v>0.9973458148433518</v>
+      </c>
+      <c r="W25">
+        <v>1.002474440709236</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.009886374988196</v>
+      </c>
+      <c r="D26">
+        <v>0.9976114016248713</v>
+      </c>
+      <c r="E26">
+        <v>0.9932615448418654</v>
+      </c>
+      <c r="F26">
+        <v>1.002030387587287</v>
+      </c>
+      <c r="G26">
+        <v>1.009886374988196</v>
+      </c>
+      <c r="H26">
+        <v>0.9974822932536055</v>
+      </c>
+      <c r="I26">
+        <v>1.006442551086529</v>
+      </c>
+      <c r="J26">
+        <v>0.9932615448418654</v>
+      </c>
+      <c r="K26">
+        <v>0.9932615448418654</v>
+      </c>
+      <c r="L26">
+        <v>0.9963389829089473</v>
+      </c>
+      <c r="M26">
+        <v>1.002129334132218</v>
+      </c>
+      <c r="N26">
+        <v>0.9932615448418654</v>
+      </c>
+      <c r="O26">
+        <v>0.9976114016248713</v>
+      </c>
+      <c r="P26">
+        <v>1.003748888306534</v>
+      </c>
+      <c r="Q26">
+        <v>0.9998703678785448</v>
+      </c>
+      <c r="R26">
+        <v>1.000253107151644</v>
+      </c>
+      <c r="S26">
+        <v>1.003209036915095</v>
+      </c>
+      <c r="T26">
+        <v>1.000253107151644</v>
+      </c>
+      <c r="U26">
+        <v>1.000722163896788</v>
+      </c>
+      <c r="V26">
+        <v>0.9992300400858033</v>
+      </c>
+      <c r="W26">
+        <v>1.00064785880294</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9972091470990151</v>
+      </c>
+      <c r="D27">
+        <v>1.000703463735362</v>
+      </c>
+      <c r="E27">
+        <v>1.00185034238029</v>
+      </c>
+      <c r="F27">
+        <v>0.9994455036034408</v>
+      </c>
+      <c r="G27">
+        <v>0.9972091470990151</v>
+      </c>
+      <c r="H27">
+        <v>1.000694522585504</v>
+      </c>
+      <c r="I27">
+        <v>0.9981863705629614</v>
+      </c>
+      <c r="J27">
+        <v>1.00185034238029</v>
+      </c>
+      <c r="K27">
+        <v>1.00185034238029</v>
+      </c>
+      <c r="L27">
+        <v>1.001036534569038</v>
+      </c>
+      <c r="M27">
+        <v>0.9994006546502689</v>
+      </c>
+      <c r="N27">
+        <v>1.00185034238029</v>
+      </c>
+      <c r="O27">
+        <v>1.000703463735362</v>
+      </c>
+      <c r="P27">
+        <v>0.9989563054171888</v>
+      </c>
+      <c r="Q27">
+        <v>1.000052059192816</v>
+      </c>
+      <c r="R27">
+        <v>0.9999209844048892</v>
+      </c>
+      <c r="S27">
+        <v>0.9991044218282156</v>
+      </c>
+      <c r="T27">
+        <v>0.9999209844048892</v>
+      </c>
+      <c r="U27">
+        <v>0.9997909019662341</v>
+      </c>
+      <c r="V27">
+        <v>1.000202790049045</v>
+      </c>
+      <c r="W27">
+        <v>0.999815817398235</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9972430042087267</v>
+      </c>
+      <c r="D28">
+        <v>1.000724560131472</v>
+      </c>
+      <c r="E28">
+        <v>1.001775217940601</v>
+      </c>
+      <c r="F28">
+        <v>0.9994712029435705</v>
+      </c>
+      <c r="G28">
+        <v>0.9972430042087267</v>
+      </c>
+      <c r="H28">
+        <v>1.000669636801303</v>
+      </c>
+      <c r="I28">
+        <v>0.998213508265255</v>
+      </c>
+      <c r="J28">
+        <v>1.001775217940601</v>
+      </c>
+      <c r="K28">
+        <v>1.001775217940601</v>
+      </c>
+      <c r="L28">
+        <v>1.0010270844067</v>
+      </c>
+      <c r="M28">
+        <v>0.9994097142742324</v>
+      </c>
+      <c r="N28">
+        <v>1.001775217940601</v>
+      </c>
+      <c r="O28">
+        <v>1.000724560131472</v>
+      </c>
+      <c r="P28">
+        <v>0.9989837821700993</v>
+      </c>
+      <c r="Q28">
+        <v>1.000067137202852</v>
+      </c>
+      <c r="R28">
+        <v>0.9999142607602666</v>
+      </c>
+      <c r="S28">
+        <v>0.9991257595381438</v>
+      </c>
+      <c r="T28">
+        <v>0.9999142607602666</v>
+      </c>
+      <c r="U28">
+        <v>0.9997881241387581</v>
+      </c>
+      <c r="V28">
+        <v>1.000185542899127</v>
+      </c>
+      <c r="W28">
+        <v>0.9998167411214824</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.005525112434104</v>
+      </c>
+      <c r="D29">
+        <v>0.998597375154899</v>
+      </c>
+      <c r="E29">
+        <v>0.9963545432700812</v>
+      </c>
+      <c r="F29">
+        <v>1.001091370237678</v>
+      </c>
+      <c r="G29">
+        <v>1.005525112434104</v>
+      </c>
+      <c r="H29">
+        <v>0.9986305896284924</v>
+      </c>
+      <c r="I29">
+        <v>1.003588777315701</v>
+      </c>
+      <c r="J29">
+        <v>0.9963545432700812</v>
+      </c>
+      <c r="K29">
+        <v>0.9963545432700812</v>
+      </c>
+      <c r="L29">
+        <v>0.9979468989794275</v>
+      </c>
+      <c r="M29">
+        <v>1.001185932650153</v>
+      </c>
+      <c r="N29">
+        <v>0.9963545432700812</v>
+      </c>
+      <c r="O29">
+        <v>0.998597375154899</v>
+      </c>
+      <c r="P29">
+        <v>1.002061243794501</v>
+      </c>
+      <c r="Q29">
+        <v>0.999891653902526</v>
+      </c>
+      <c r="R29">
+        <v>1.000159010286361</v>
+      </c>
+      <c r="S29">
+        <v>1.001769473413052</v>
+      </c>
+      <c r="T29">
+        <v>1.000159010286361</v>
+      </c>
+      <c r="U29">
+        <v>1.000415740877309</v>
+      </c>
+      <c r="V29">
+        <v>0.9996035013558636</v>
+      </c>
+      <c r="W29">
+        <v>1.000365074958817</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/CopperA-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/CopperA-HW40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9925287322123724</v>
+        <v>0.9938350625127605</v>
       </c>
       <c r="D4">
-        <v>1.001944550056633</v>
+        <v>1.001519876326294</v>
       </c>
       <c r="E4">
-        <v>1.004844426022796</v>
+        <v>1.004147923631342</v>
       </c>
       <c r="F4">
-        <v>0.998554859342634</v>
+        <v>0.9987533462632899</v>
       </c>
       <c r="G4">
-        <v>0.9925287322123724</v>
+        <v>0.9938350625127605</v>
       </c>
       <c r="H4">
-        <v>1.001825183956162</v>
+        <v>1.001553098832244</v>
       </c>
       <c r="I4">
-        <v>0.9951554259965935</v>
+        <v>0.99598782529064</v>
       </c>
       <c r="J4">
-        <v>1.004844426022796</v>
+        <v>1.004147923631342</v>
       </c>
       <c r="K4">
-        <v>1.004844426022796</v>
+        <v>1.004147923631342</v>
       </c>
       <c r="L4">
-        <v>1.002781319427469</v>
+        <v>1.002286127790005</v>
       </c>
       <c r="M4">
-        <v>0.9983992164839069</v>
+        <v>0.9986740186969879</v>
       </c>
       <c r="N4">
-        <v>1.004844426022796</v>
+        <v>1.004147923631342</v>
       </c>
       <c r="O4">
-        <v>1.001944550056633</v>
+        <v>1.001519876326294</v>
       </c>
       <c r="P4">
-        <v>0.9972366411345025</v>
+        <v>0.9976774694195273</v>
       </c>
       <c r="Q4">
-        <v>1.00017188327027</v>
+        <v>1.000096947511641</v>
       </c>
       <c r="R4">
-        <v>0.9997725694306002</v>
+        <v>0.9998342874901321</v>
       </c>
       <c r="S4">
-        <v>0.9976241662509707</v>
+        <v>0.9980096525120142</v>
       </c>
       <c r="T4">
-        <v>0.9997725694306002</v>
+        <v>0.9998342874901321</v>
       </c>
       <c r="U4">
-        <v>0.9994292311939269</v>
+        <v>0.9995442202918461</v>
       </c>
       <c r="V4">
-        <v>1.000512270159701</v>
+        <v>1.000464960959745</v>
       </c>
       <c r="W4">
-        <v>0.9995042141873207</v>
+        <v>0.9995946599179454</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9918932464985607</v>
+        <v>0.9835397744832932</v>
       </c>
       <c r="D5">
-        <v>1.001995315367437</v>
+        <v>1.003863953474714</v>
       </c>
       <c r="E5">
-        <v>1.005460269351582</v>
+        <v>1.011419896858945</v>
       </c>
       <c r="F5">
-        <v>0.9983585744092227</v>
+        <v>0.9965472491412568</v>
       </c>
       <c r="G5">
-        <v>0.9918932464985607</v>
+        <v>0.9835397744832932</v>
       </c>
       <c r="H5">
-        <v>1.002044117074929</v>
+        <v>1.004254568284014</v>
       </c>
       <c r="I5">
-        <v>0.9947235115850159</v>
+        <v>0.9892539844968623</v>
       </c>
       <c r="J5">
-        <v>1.005460269351582</v>
+        <v>1.011419896858945</v>
       </c>
       <c r="K5">
-        <v>1.005460269351582</v>
+        <v>1.011419896858945</v>
       </c>
       <c r="L5">
-        <v>1.003005860453888</v>
+        <v>1.006083523288294</v>
       </c>
       <c r="M5">
-        <v>0.9982561669668547</v>
+        <v>0.9964479929250627</v>
       </c>
       <c r="N5">
-        <v>1.005460269351582</v>
+        <v>1.011419896858945</v>
       </c>
       <c r="O5">
-        <v>1.001995315367437</v>
+        <v>1.003863953474714</v>
       </c>
       <c r="P5">
-        <v>0.9969442809329987</v>
+        <v>0.9937018639790038</v>
       </c>
       <c r="Q5">
-        <v>1.000125741167146</v>
+        <v>1.000155973199889</v>
       </c>
       <c r="R5">
-        <v>0.9997829437391932</v>
+        <v>0.9996078749389842</v>
       </c>
       <c r="S5">
-        <v>0.9973815762776174</v>
+        <v>0.9946172402943567</v>
       </c>
       <c r="T5">
-        <v>0.9997829437391932</v>
+        <v>0.9996078749389842</v>
       </c>
       <c r="U5">
-        <v>0.9994012495461085</v>
+        <v>0.9988179044355039</v>
       </c>
       <c r="V5">
-        <v>1.000613053507203</v>
+        <v>1.001338302920192</v>
       </c>
       <c r="W5">
-        <v>0.9994671327134362</v>
+        <v>0.9989263678690554</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9734344280050384</v>
+        <v>0.9925287322123724</v>
       </c>
       <c r="D6">
-        <v>1.006502701740315</v>
+        <v>1.001944550056633</v>
       </c>
       <c r="E6">
-        <v>1.017956891462178</v>
+        <v>1.004844426022796</v>
       </c>
       <c r="F6">
-        <v>0.9945981417537488</v>
+        <v>0.998554859342634</v>
       </c>
       <c r="G6">
-        <v>0.9734344280050384</v>
+        <v>0.9925287322123724</v>
       </c>
       <c r="H6">
-        <v>1.006718450423402</v>
+        <v>1.001825183956162</v>
       </c>
       <c r="I6">
-        <v>0.9827029036667746</v>
+        <v>0.9951554259965935</v>
       </c>
       <c r="J6">
-        <v>1.017956891462178</v>
+        <v>1.004844426022796</v>
       </c>
       <c r="K6">
-        <v>1.017956891462178</v>
+        <v>1.004844426022796</v>
       </c>
       <c r="L6">
-        <v>1.009846329914978</v>
+        <v>1.002781319427469</v>
       </c>
       <c r="M6">
-        <v>0.994283358648875</v>
+        <v>0.9983992164839069</v>
       </c>
       <c r="N6">
-        <v>1.017956891462178</v>
+        <v>1.004844426022796</v>
       </c>
       <c r="O6">
-        <v>1.006502701740315</v>
+        <v>1.001944550056633</v>
       </c>
       <c r="P6">
-        <v>0.9899685648726769</v>
+        <v>0.9972366411345025</v>
       </c>
       <c r="Q6">
-        <v>1.000393030194595</v>
+        <v>1.00017188327027</v>
       </c>
       <c r="R6">
-        <v>0.9992980070691772</v>
+        <v>0.9997725694306002</v>
       </c>
       <c r="S6">
-        <v>0.991406829464743</v>
+        <v>0.9976241662509707</v>
       </c>
       <c r="T6">
-        <v>0.9992980070691772</v>
+        <v>0.9997725694306002</v>
       </c>
       <c r="U6">
-        <v>0.9980443449641015</v>
+        <v>0.9994292311939269</v>
       </c>
       <c r="V6">
-        <v>1.002026854263717</v>
+        <v>1.000512270159701</v>
       </c>
       <c r="W6">
-        <v>0.9982554007019138</v>
+        <v>0.9995042141873207</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9991283159091601</v>
+        <v>0.9918932464985607</v>
       </c>
       <c r="D7">
-        <v>1.000218842449253</v>
+        <v>1.001995315367437</v>
       </c>
       <c r="E7">
-        <v>1.00057948312</v>
+        <v>1.005460269351582</v>
       </c>
       <c r="F7">
-        <v>0.999826255486405</v>
+        <v>0.9983585744092227</v>
       </c>
       <c r="G7">
-        <v>0.9991283159091601</v>
+        <v>0.9918932464985607</v>
       </c>
       <c r="H7">
-        <v>1.000217408302308</v>
+        <v>1.002044117074929</v>
       </c>
       <c r="I7">
-        <v>0.9994333865012439</v>
+        <v>0.9947235115850159</v>
       </c>
       <c r="J7">
-        <v>1.00057948312</v>
+        <v>1.005460269351582</v>
       </c>
       <c r="K7">
-        <v>1.00057948312</v>
+        <v>1.005460269351582</v>
       </c>
       <c r="L7">
-        <v>1.000323657782904</v>
+        <v>1.003005860453888</v>
       </c>
       <c r="M7">
-        <v>0.9998127518177365</v>
+        <v>0.9982561669668547</v>
       </c>
       <c r="N7">
-        <v>1.00057948312</v>
+        <v>1.005460269351582</v>
       </c>
       <c r="O7">
-        <v>1.000218842449253</v>
+        <v>1.001995315367437</v>
       </c>
       <c r="P7">
-        <v>0.9996735791792064</v>
+        <v>0.9969442809329987</v>
       </c>
       <c r="Q7">
-        <v>1.000015797133495</v>
+        <v>1.000125741167146</v>
       </c>
       <c r="R7">
-        <v>0.999975547159471</v>
+        <v>0.9997829437391932</v>
       </c>
       <c r="S7">
-        <v>0.9997199700587164</v>
+        <v>0.9973815762776174</v>
       </c>
       <c r="T7">
-        <v>0.999975547159471</v>
+        <v>0.9997829437391932</v>
       </c>
       <c r="U7">
-        <v>0.9999348483240373</v>
+        <v>0.9994012495461085</v>
       </c>
       <c r="V7">
-        <v>1.00006377528323</v>
+        <v>1.000613053507203</v>
       </c>
       <c r="W7">
-        <v>0.9999425126711263</v>
+        <v>0.9994671327134362</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999353741012039</v>
+        <v>0.9734344280050384</v>
       </c>
       <c r="D8">
-        <v>1.000013664376807</v>
+        <v>1.006502701740315</v>
       </c>
       <c r="E8">
-        <v>1.000047512949314</v>
+        <v>1.017956891462178</v>
       </c>
       <c r="F8">
-        <v>0.9999854820288959</v>
+        <v>0.9945981417537488</v>
       </c>
       <c r="G8">
-        <v>0.9999353741012039</v>
+        <v>0.9734344280050384</v>
       </c>
       <c r="H8">
-        <v>1.000017540400062</v>
+        <v>1.006718450423402</v>
       </c>
       <c r="I8">
-        <v>0.9999575497064418</v>
+        <v>0.9827029036667746</v>
       </c>
       <c r="J8">
-        <v>1.000047512949314</v>
+        <v>1.017956891462178</v>
       </c>
       <c r="K8">
-        <v>1.000047512949314</v>
+        <v>1.017956891462178</v>
       </c>
       <c r="L8">
-        <v>1.000023727047024</v>
+        <v>1.009846329914978</v>
       </c>
       <c r="M8">
-        <v>0.999985963712824</v>
+        <v>0.994283358648875</v>
       </c>
       <c r="N8">
-        <v>1.000047512949314</v>
+        <v>1.017956891462178</v>
       </c>
       <c r="O8">
-        <v>1.000013664376807</v>
+        <v>1.006502701740315</v>
       </c>
       <c r="P8">
-        <v>0.9999745192390053</v>
+        <v>0.9899685648726769</v>
       </c>
       <c r="Q8">
-        <v>0.9999998140448154</v>
+        <v>1.000393030194595</v>
       </c>
       <c r="R8">
-        <v>0.9999988504757749</v>
+        <v>0.9992980070691772</v>
       </c>
       <c r="S8">
-        <v>0.9999783340636115</v>
+        <v>0.991406829464743</v>
       </c>
       <c r="T8">
-        <v>0.9999988504757749</v>
+        <v>0.9992980070691772</v>
       </c>
       <c r="U8">
-        <v>0.9999956287850371</v>
+        <v>0.9980443449641015</v>
       </c>
       <c r="V8">
-        <v>1.000006005617892</v>
+        <v>1.002026854263717</v>
       </c>
       <c r="W8">
-        <v>0.9999958517903216</v>
+        <v>0.9982554007019138</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9985294072045284</v>
+        <v>0.9991283159091601</v>
       </c>
       <c r="D9">
-        <v>1.000373151298786</v>
+        <v>1.000218842449253</v>
       </c>
       <c r="E9">
-        <v>1.000970607713255</v>
+        <v>1.00057948312</v>
       </c>
       <c r="F9">
-        <v>0.999709407598304</v>
+        <v>0.999826255486405</v>
       </c>
       <c r="G9">
-        <v>0.9985294072045284</v>
+        <v>0.9991283159091601</v>
       </c>
       <c r="H9">
-        <v>1.00036458846483</v>
+        <v>1.000217408302308</v>
       </c>
       <c r="I9">
-        <v>0.9990447674872985</v>
+        <v>0.9994333865012439</v>
       </c>
       <c r="J9">
-        <v>1.000970607713255</v>
+        <v>1.00057948312</v>
       </c>
       <c r="K9">
-        <v>1.000970607713255</v>
+        <v>1.00057948312</v>
       </c>
       <c r="L9">
-        <v>1.0005464477392</v>
+        <v>1.000323657782904</v>
       </c>
       <c r="M9">
-        <v>0.9996843367449811</v>
+        <v>0.9998127518177365</v>
       </c>
       <c r="N9">
-        <v>1.000970607713255</v>
+        <v>1.00057948312</v>
       </c>
       <c r="O9">
-        <v>1.000373151298786</v>
+        <v>1.000218842449253</v>
       </c>
       <c r="P9">
-        <v>0.9994512792516574</v>
+        <v>0.9996735791792064</v>
       </c>
       <c r="Q9">
-        <v>1.000028744021884</v>
+        <v>1.000015797133495</v>
       </c>
       <c r="R9">
-        <v>0.9999577220721901</v>
+        <v>0.999975547159471</v>
       </c>
       <c r="S9">
-        <v>0.9995289650827653</v>
+        <v>0.9997199700587164</v>
       </c>
       <c r="T9">
-        <v>0.9999577220721901</v>
+        <v>0.999975547159471</v>
       </c>
       <c r="U9">
-        <v>0.9998893757403878</v>
+        <v>0.9999348483240373</v>
       </c>
       <c r="V9">
-        <v>1.000105622134961</v>
+        <v>1.00006377528323</v>
       </c>
       <c r="W9">
-        <v>0.999902839281398</v>
+        <v>0.9999425126711263</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9730416487440269</v>
+        <v>0.9999353741012039</v>
       </c>
       <c r="D10">
-        <v>1.00659657855665</v>
+        <v>1.000013664376807</v>
       </c>
       <c r="E10">
-        <v>1.018226420655612</v>
+        <v>1.000047512949314</v>
       </c>
       <c r="F10">
-        <v>0.9945168220059994</v>
+        <v>0.9999854820288959</v>
       </c>
       <c r="G10">
-        <v>0.9730416487440269</v>
+        <v>0.9999353741012039</v>
       </c>
       <c r="H10">
-        <v>1.006819044154509</v>
+        <v>1.000017540400062</v>
       </c>
       <c r="I10">
-        <v>0.9824467685433133</v>
+        <v>0.9999575497064418</v>
       </c>
       <c r="J10">
-        <v>1.018226420655612</v>
+        <v>1.000047512949314</v>
       </c>
       <c r="K10">
-        <v>1.018226420655612</v>
+        <v>1.000047512949314</v>
       </c>
       <c r="L10">
-        <v>1.009991673261425</v>
+        <v>1.000023727047024</v>
       </c>
       <c r="M10">
-        <v>0.9941986996291773</v>
+        <v>0.999985963712824</v>
       </c>
       <c r="N10">
-        <v>1.018226420655612</v>
+        <v>1.000047512949314</v>
       </c>
       <c r="O10">
-        <v>1.00659657855665</v>
+        <v>1.000013664376807</v>
       </c>
       <c r="P10">
-        <v>0.9898191136503387</v>
+        <v>0.9999745192390053</v>
       </c>
       <c r="Q10">
-        <v>1.000397639092914</v>
+        <v>0.9999998140448154</v>
       </c>
       <c r="R10">
-        <v>0.9992882159854298</v>
+        <v>0.9999988504757749</v>
       </c>
       <c r="S10">
-        <v>0.9912789756432848</v>
+        <v>0.9999783340636115</v>
       </c>
       <c r="T10">
-        <v>0.9992882159854298</v>
+        <v>0.9999988504757749</v>
       </c>
       <c r="U10">
-        <v>0.9980158368963666</v>
+        <v>0.9999956287850371</v>
       </c>
       <c r="V10">
-        <v>1.002057953648216</v>
+        <v>1.000006005617892</v>
       </c>
       <c r="W10">
-        <v>0.9982297069438393</v>
+        <v>0.9999958517903216</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.004255291846079</v>
+        <v>0.9985294072045284</v>
       </c>
       <c r="D11">
-        <v>0.9989910918505308</v>
+        <v>1.000373151298786</v>
       </c>
       <c r="E11">
-        <v>0.9970655070986497</v>
+        <v>1.000970607713255</v>
       </c>
       <c r="F11">
-        <v>1.000886207663159</v>
+        <v>0.999709407598304</v>
       </c>
       <c r="G11">
-        <v>1.004255291846079</v>
+        <v>0.9985294072045284</v>
       </c>
       <c r="H11">
-        <v>0.9989056650958622</v>
+        <v>1.00036458846483</v>
       </c>
       <c r="I11">
-        <v>1.002776325247888</v>
+        <v>0.9990447674872985</v>
       </c>
       <c r="J11">
-        <v>0.9970655070986497</v>
+        <v>1.000970607713255</v>
       </c>
       <c r="K11">
-        <v>0.9970655070986497</v>
+        <v>1.000970607713255</v>
       </c>
       <c r="L11">
-        <v>0.9984262332657451</v>
+        <v>1.0005464477392</v>
       </c>
       <c r="M11">
-        <v>1.000917662219304</v>
+        <v>0.9996843367449811</v>
       </c>
       <c r="N11">
-        <v>0.9970655070986497</v>
+        <v>1.000970607713255</v>
       </c>
       <c r="O11">
-        <v>0.9989910918505308</v>
+        <v>1.000373151298786</v>
       </c>
       <c r="P11">
-        <v>1.001623191848305</v>
+        <v>0.9994512792516574</v>
       </c>
       <c r="Q11">
-        <v>0.9999543770349175</v>
+        <v>1.000028744021884</v>
       </c>
       <c r="R11">
-        <v>1.00010396359842</v>
+        <v>0.9999577220721901</v>
       </c>
       <c r="S11">
-        <v>1.001388015305305</v>
+        <v>0.9995289650827653</v>
       </c>
       <c r="T11">
-        <v>1.00010396359842</v>
+        <v>0.9999577220721901</v>
       </c>
       <c r="U11">
-        <v>1.000307388253641</v>
+        <v>0.9998893757403878</v>
       </c>
       <c r="V11">
-        <v>0.9996590120226425</v>
+        <v>1.000105622134961</v>
       </c>
       <c r="W11">
-        <v>1.000277998035902</v>
+        <v>0.999902839281398</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9921544834210541</v>
+        <v>0.9730416487440269</v>
       </c>
       <c r="D12">
-        <v>1.001915478452633</v>
+        <v>1.00659657855665</v>
       </c>
       <c r="E12">
-        <v>1.005311937852631</v>
+        <v>1.018226420655612</v>
       </c>
       <c r="F12">
-        <v>0.9984015232842081</v>
+        <v>0.9945168220059994</v>
       </c>
       <c r="G12">
-        <v>0.9921544834210541</v>
+        <v>0.9730416487440269</v>
       </c>
       <c r="H12">
-        <v>1.001986879284209</v>
+        <v>1.006819044154509</v>
       </c>
       <c r="I12">
-        <v>0.994890853452632</v>
+        <v>0.9824467685433133</v>
       </c>
       <c r="J12">
-        <v>1.005311937852631</v>
+        <v>1.018226420655612</v>
       </c>
       <c r="K12">
-        <v>1.005311937852631</v>
+        <v>1.018226420655612</v>
       </c>
       <c r="L12">
-        <v>1.00290736758947</v>
+        <v>1.009991673261425</v>
       </c>
       <c r="M12">
-        <v>0.998311426305264</v>
+        <v>0.9941986996291773</v>
       </c>
       <c r="N12">
-        <v>1.005311937852631</v>
+        <v>1.018226420655612</v>
       </c>
       <c r="O12">
-        <v>1.001915478452633</v>
+        <v>1.00659657855665</v>
       </c>
       <c r="P12">
-        <v>0.9970349809368437</v>
+        <v>0.9898191136503387</v>
       </c>
       <c r="Q12">
-        <v>1.000113452378949</v>
+        <v>1.000397639092914</v>
       </c>
       <c r="R12">
-        <v>0.9997939665754393</v>
+        <v>0.9992882159854298</v>
       </c>
       <c r="S12">
-        <v>0.9974604627263172</v>
+        <v>0.9912789756432848</v>
       </c>
       <c r="T12">
-        <v>0.9997939665754393</v>
+        <v>0.9992882159854298</v>
       </c>
       <c r="U12">
-        <v>0.9994233315078955</v>
+        <v>0.9980158368963666</v>
       </c>
       <c r="V12">
-        <v>1.000601052776843</v>
+        <v>1.002057953648216</v>
       </c>
       <c r="W12">
-        <v>0.9994849937052626</v>
+        <v>0.9982297069438393</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.00531680606041</v>
+        <v>1.004255291846079</v>
       </c>
       <c r="D13">
-        <v>0.9986786091333335</v>
+        <v>0.9989910918505308</v>
       </c>
       <c r="E13">
-        <v>0.9964415780368485</v>
+        <v>0.9970655070986497</v>
       </c>
       <c r="F13">
-        <v>1.001068359872898</v>
+        <v>1.000886207663159</v>
       </c>
       <c r="G13">
-        <v>1.00531680606041</v>
+        <v>1.004255291846079</v>
       </c>
       <c r="H13">
-        <v>0.9986664585994167</v>
+        <v>0.9989056650958622</v>
       </c>
       <c r="I13">
-        <v>1.003458370875478</v>
+        <v>1.002776325247888</v>
       </c>
       <c r="J13">
-        <v>0.9964415780368485</v>
+        <v>0.9970655070986497</v>
       </c>
       <c r="K13">
-        <v>0.9964415780368485</v>
+        <v>0.9970655070986497</v>
       </c>
       <c r="L13">
-        <v>0.9980272709185766</v>
+        <v>0.9984262332657451</v>
       </c>
       <c r="M13">
-        <v>1.00114292217613</v>
+        <v>1.000917662219304</v>
       </c>
       <c r="N13">
-        <v>0.9964415780368485</v>
+        <v>0.9970655070986497</v>
       </c>
       <c r="O13">
-        <v>0.9986786091333335</v>
+        <v>0.9989910918505308</v>
       </c>
       <c r="P13">
-        <v>1.001997707596872</v>
+        <v>1.001623191848305</v>
       </c>
       <c r="Q13">
-        <v>0.9999107656547319</v>
+        <v>0.9999543770349175</v>
       </c>
       <c r="R13">
-        <v>1.000145664410197</v>
+        <v>1.00010396359842</v>
       </c>
       <c r="S13">
-        <v>1.001712779123291</v>
+        <v>1.001388015305305</v>
       </c>
       <c r="T13">
-        <v>1.000145664410197</v>
+        <v>1.00010396359842</v>
       </c>
       <c r="U13">
-        <v>1.000394978851681</v>
+        <v>1.000307388253641</v>
       </c>
       <c r="V13">
-        <v>0.9996042986887141</v>
+        <v>0.9996590120226425</v>
       </c>
       <c r="W13">
-        <v>1.000350046959137</v>
+        <v>1.000277998035902</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9534276099999992</v>
+        <v>0.9921544834210541</v>
       </c>
       <c r="D14">
-        <v>1.011390400000001</v>
+        <v>1.001915478452633</v>
       </c>
       <c r="E14">
-        <v>1.0314974</v>
+        <v>1.005311937852631</v>
       </c>
       <c r="F14">
-        <v>0.9905238300000004</v>
+        <v>0.9984015232842081</v>
       </c>
       <c r="G14">
-        <v>0.9534276099999992</v>
+        <v>0.9921544834210541</v>
       </c>
       <c r="H14">
-        <v>1.011783500000001</v>
+        <v>1.001986879284209</v>
       </c>
       <c r="I14">
-        <v>0.9696746199999998</v>
+        <v>0.994890853452632</v>
       </c>
       <c r="J14">
-        <v>1.0314974</v>
+        <v>1.005311937852631</v>
       </c>
       <c r="K14">
-        <v>1.0314974</v>
+        <v>1.005311937852631</v>
       </c>
       <c r="L14">
-        <v>1.0172607</v>
+        <v>1.00290736758947</v>
       </c>
       <c r="M14">
-        <v>0.9899775199999981</v>
+        <v>0.998311426305264</v>
       </c>
       <c r="N14">
-        <v>1.0314974</v>
+        <v>1.005311937852631</v>
       </c>
       <c r="O14">
-        <v>1.011390400000001</v>
+        <v>1.001915478452633</v>
       </c>
       <c r="P14">
-        <v>0.9824090050000001</v>
+        <v>0.9970349809368437</v>
       </c>
       <c r="Q14">
-        <v>1.000683959999999</v>
+        <v>1.000113452378949</v>
       </c>
       <c r="R14">
-        <v>0.9987718033333334</v>
+        <v>0.9997939665754393</v>
       </c>
       <c r="S14">
-        <v>0.9849318433333328</v>
+        <v>0.9974604627263172</v>
       </c>
       <c r="T14">
-        <v>0.9987718033333334</v>
+        <v>0.9997939665754393</v>
       </c>
       <c r="U14">
-        <v>0.9965732324999996</v>
+        <v>0.9994233315078955</v>
       </c>
       <c r="V14">
-        <v>1.003558066</v>
+        <v>1.000601052776843</v>
       </c>
       <c r="W14">
-        <v>0.9969419474999999</v>
+        <v>0.9994849937052626</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.8759446600000002</v>
+        <v>1.00531680606041</v>
       </c>
       <c r="D15">
-        <v>1.0301398</v>
+        <v>0.9986786091333335</v>
       </c>
       <c r="E15">
-        <v>1.0842575</v>
+        <v>0.9964415780368485</v>
       </c>
       <c r="F15">
-        <v>0.97462952</v>
+        <v>1.001068359872898</v>
       </c>
       <c r="G15">
-        <v>0.8759446600000002</v>
+        <v>1.00531680606041</v>
       </c>
       <c r="H15">
-        <v>1.0314994</v>
+        <v>0.9986664585994167</v>
       </c>
       <c r="I15">
-        <v>0.91918716</v>
+        <v>1.003458370875478</v>
       </c>
       <c r="J15">
-        <v>1.0842575</v>
+        <v>0.9964415780368485</v>
       </c>
       <c r="K15">
-        <v>1.0842575</v>
+        <v>0.9964415780368485</v>
       </c>
       <c r="L15">
-        <v>1.0459565</v>
+        <v>0.9980272709185766</v>
       </c>
       <c r="M15">
-        <v>0.9732909399999999</v>
+        <v>1.00114292217613</v>
       </c>
       <c r="N15">
-        <v>1.0842575</v>
+        <v>0.9964415780368485</v>
       </c>
       <c r="O15">
-        <v>1.0301398</v>
+        <v>0.9986786091333335</v>
       </c>
       <c r="P15">
-        <v>0.9530422300000001</v>
+        <v>1.001997707596872</v>
       </c>
       <c r="Q15">
-        <v>1.00171537</v>
+        <v>0.9999107656547319</v>
       </c>
       <c r="R15">
-        <v>0.9967806533333334</v>
+        <v>1.000145664410197</v>
       </c>
       <c r="S15">
-        <v>0.9597918000000001</v>
+        <v>1.001712779123291</v>
       </c>
       <c r="T15">
-        <v>0.9967806533333334</v>
+        <v>1.000145664410197</v>
       </c>
       <c r="U15">
-        <v>0.9909082250000001</v>
+        <v>1.000394978851681</v>
       </c>
       <c r="V15">
-        <v>1.00957808</v>
+        <v>0.9996042986887141</v>
       </c>
       <c r="W15">
-        <v>0.9918631849999999</v>
+        <v>1.000350046959137</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1594,67 +1600,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9526597999999999</v>
+        <v>0.9534276099999992</v>
       </c>
       <c r="D16">
-        <v>1.012634</v>
+        <v>1.011390400000001</v>
       </c>
       <c r="E16">
-        <v>1.0301398</v>
+        <v>1.0314974</v>
       </c>
       <c r="F16">
-        <v>0.9910432999999998</v>
+        <v>0.9905238300000004</v>
       </c>
       <c r="G16">
-        <v>0.9526597999999999</v>
+        <v>0.9534276099999992</v>
       </c>
       <c r="H16">
-        <v>1.0113912</v>
+        <v>1.011783500000001</v>
       </c>
       <c r="I16">
-        <v>0.9693574700000001</v>
+        <v>0.9696746199999998</v>
       </c>
       <c r="J16">
-        <v>1.0301398</v>
+        <v>1.0314974</v>
       </c>
       <c r="K16">
-        <v>1.0301398</v>
+        <v>1.0314974</v>
       </c>
       <c r="L16">
-        <v>1.0176561</v>
+        <v>1.0172607</v>
       </c>
       <c r="M16">
-        <v>0.9898757500000001</v>
+        <v>0.9899775199999981</v>
       </c>
       <c r="N16">
-        <v>1.0301398</v>
+        <v>1.0314974</v>
       </c>
       <c r="O16">
-        <v>1.012634</v>
+        <v>1.011390400000001</v>
       </c>
       <c r="P16">
-        <v>0.9826469</v>
+        <v>0.9824090050000001</v>
       </c>
       <c r="Q16">
-        <v>1.001254875</v>
+        <v>1.000683959999999</v>
       </c>
       <c r="R16">
-        <v>0.9984778666666667</v>
+        <v>0.9987718033333334</v>
       </c>
       <c r="S16">
-        <v>0.9850565166666666</v>
+        <v>0.9849318433333328</v>
       </c>
       <c r="T16">
-        <v>0.9984778666666667</v>
+        <v>0.9987718033333334</v>
       </c>
       <c r="U16">
-        <v>0.9963273375</v>
+        <v>0.9965732324999996</v>
       </c>
       <c r="V16">
-        <v>1.00308983</v>
+        <v>1.003558066</v>
       </c>
       <c r="W16">
-        <v>0.9968446774999999</v>
+        <v>0.9969419474999999</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.95342312</v>
+        <v>0.8759446600000002</v>
       </c>
       <c r="D17">
-        <v>1.0113915</v>
+        <v>1.0301398</v>
       </c>
       <c r="E17">
-        <v>1.0315004</v>
+        <v>1.0842575</v>
       </c>
       <c r="F17">
-        <v>0.99052292</v>
+        <v>0.97462952</v>
       </c>
       <c r="G17">
-        <v>0.95342312</v>
+        <v>0.8759446600000002</v>
       </c>
       <c r="H17">
-        <v>1.0117846</v>
+        <v>1.0314994</v>
       </c>
       <c r="I17">
-        <v>0.9696716999999999</v>
+        <v>0.91918716</v>
       </c>
       <c r="J17">
-        <v>1.0315004</v>
+        <v>1.0842575</v>
       </c>
       <c r="K17">
-        <v>1.0315004</v>
+        <v>1.0842575</v>
       </c>
       <c r="L17">
-        <v>1.0172624</v>
+        <v>1.0459565</v>
       </c>
       <c r="M17">
-        <v>0.9899765600000001</v>
+        <v>0.9732909399999999</v>
       </c>
       <c r="N17">
-        <v>1.0315004</v>
+        <v>1.0842575</v>
       </c>
       <c r="O17">
-        <v>1.0113915</v>
+        <v>1.0301398</v>
       </c>
       <c r="P17">
-        <v>0.9824073099999999</v>
+        <v>0.9530422300000001</v>
       </c>
       <c r="Q17">
-        <v>1.00068403</v>
+        <v>1.00171537</v>
       </c>
       <c r="R17">
-        <v>0.9987716733333333</v>
+        <v>0.9967806533333334</v>
       </c>
       <c r="S17">
-        <v>0.9849303933333333</v>
+        <v>0.9597918000000001</v>
       </c>
       <c r="T17">
-        <v>0.9987716733333333</v>
+        <v>0.9967806533333334</v>
       </c>
       <c r="U17">
-        <v>0.996572895</v>
+        <v>0.9909082250000001</v>
       </c>
       <c r="V17">
-        <v>1.003558396</v>
+        <v>1.00957808</v>
       </c>
       <c r="W17">
-        <v>0.9969416499999999</v>
+        <v>0.9918631849999999</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9809506079452054</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="D18">
-        <v>1.004828233972603</v>
+        <v>1.012634</v>
       </c>
       <c r="E18">
-        <v>1.012582444109589</v>
+        <v>1.0301398</v>
       </c>
       <c r="F18">
-        <v>0.996232296986301</v>
+        <v>0.9910432999999998</v>
       </c>
       <c r="G18">
-        <v>0.9809506079452054</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="H18">
-        <v>1.00472573369863</v>
+        <v>1.0113912</v>
       </c>
       <c r="I18">
-        <v>0.9876253915068492</v>
+        <v>0.9693574700000001</v>
       </c>
       <c r="J18">
-        <v>1.012582444109589</v>
+        <v>1.0301398</v>
       </c>
       <c r="K18">
-        <v>1.012582444109589</v>
+        <v>1.0301398</v>
       </c>
       <c r="L18">
-        <v>1.007077878630137</v>
+        <v>1.0176561</v>
       </c>
       <c r="M18">
-        <v>0.9959107046575345</v>
+        <v>0.9898757500000001</v>
       </c>
       <c r="N18">
-        <v>1.012582444109589</v>
+        <v>1.0301398</v>
       </c>
       <c r="O18">
-        <v>1.004828233972603</v>
+        <v>1.012634</v>
       </c>
       <c r="P18">
-        <v>0.9928894209589041</v>
+        <v>0.9826469</v>
       </c>
       <c r="Q18">
-        <v>1.000369469315069</v>
+        <v>1.001254875</v>
       </c>
       <c r="R18">
-        <v>0.9994537620091323</v>
+        <v>0.9984778666666667</v>
       </c>
       <c r="S18">
-        <v>0.9938965155251142</v>
+        <v>0.9850565166666666</v>
       </c>
       <c r="T18">
-        <v>0.9994537620091323</v>
+        <v>0.9984778666666667</v>
       </c>
       <c r="U18">
-        <v>0.9985679976712328</v>
+        <v>0.9963273375</v>
       </c>
       <c r="V18">
-        <v>1.001370886958904</v>
+        <v>1.00308983</v>
       </c>
       <c r="W18">
-        <v>0.9987416614383561</v>
+        <v>0.9968446774999999</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9530422889473683</v>
+        <v>0.95342312</v>
       </c>
       <c r="D19">
-        <v>1.01201257368421</v>
+        <v>1.0113915</v>
       </c>
       <c r="E19">
-        <v>1.030819547368421</v>
+        <v>1.0315004</v>
       </c>
       <c r="F19">
-        <v>0.9907832736842105</v>
+        <v>0.99052292</v>
       </c>
       <c r="G19">
-        <v>0.9530422889473683</v>
+        <v>0.95342312</v>
       </c>
       <c r="H19">
-        <v>1.011587684210526</v>
+        <v>1.0117846</v>
       </c>
       <c r="I19">
-        <v>0.9695151210526316</v>
+        <v>0.9696716999999999</v>
       </c>
       <c r="J19">
-        <v>1.030819547368421</v>
+        <v>1.0315004</v>
       </c>
       <c r="K19">
-        <v>1.030819547368421</v>
+        <v>1.0315004</v>
       </c>
       <c r="L19">
-        <v>1.017458952631579</v>
+        <v>1.0172624</v>
       </c>
       <c r="M19">
-        <v>0.989926330526316</v>
+        <v>0.9899765600000001</v>
       </c>
       <c r="N19">
-        <v>1.030819547368421</v>
+        <v>1.0315004</v>
       </c>
       <c r="O19">
-        <v>1.01201257368421</v>
+        <v>1.0113915</v>
       </c>
       <c r="P19">
-        <v>0.9825274313157895</v>
+        <v>0.9824073099999999</v>
       </c>
       <c r="Q19">
-        <v>1.000969452105263</v>
+        <v>1.00068403</v>
       </c>
       <c r="R19">
-        <v>0.9986248033333333</v>
+        <v>0.9987716733333333</v>
       </c>
       <c r="S19">
-        <v>0.9849937310526317</v>
+        <v>0.9849303933333333</v>
       </c>
       <c r="T19">
-        <v>0.9986248033333333</v>
+        <v>0.9987716733333333</v>
       </c>
       <c r="U19">
-        <v>0.996450185131579</v>
+        <v>0.996572895</v>
       </c>
       <c r="V19">
-        <v>1.003324057578947</v>
+        <v>1.003558396</v>
       </c>
       <c r="W19">
-        <v>0.9968932215131578</v>
+        <v>0.9969416499999999</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9790700236842105</v>
+        <v>0.9809506079452054</v>
       </c>
       <c r="D20">
-        <v>1.004966313157895</v>
+        <v>1.004828233972603</v>
       </c>
       <c r="E20">
-        <v>1.014426531578947</v>
+        <v>1.012582444109589</v>
       </c>
       <c r="F20">
-        <v>0.99564365</v>
+        <v>0.996232296986301</v>
       </c>
       <c r="G20">
-        <v>0.9790700236842105</v>
+        <v>0.9809506079452054</v>
       </c>
       <c r="H20">
-        <v>1.005380383157895</v>
+        <v>1.00472573369863</v>
       </c>
       <c r="I20">
-        <v>0.9863451168421055</v>
+        <v>0.9876253915068492</v>
       </c>
       <c r="J20">
-        <v>1.014426531578947</v>
+        <v>1.012582444109589</v>
       </c>
       <c r="K20">
-        <v>1.014426531578947</v>
+        <v>1.012582444109589</v>
       </c>
       <c r="L20">
-        <v>1.007741071052632</v>
+        <v>1.007077878630137</v>
       </c>
       <c r="M20">
-        <v>0.9954866447368419</v>
+        <v>0.9959107046575345</v>
       </c>
       <c r="N20">
-        <v>1.014426531578947</v>
+        <v>1.012582444109589</v>
       </c>
       <c r="O20">
-        <v>1.004966313157895</v>
+        <v>1.004828233972603</v>
       </c>
       <c r="P20">
-        <v>0.9920181684210526</v>
+        <v>0.9928894209589041</v>
       </c>
       <c r="Q20">
-        <v>1.000226478947368</v>
+        <v>1.000369469315069</v>
       </c>
       <c r="R20">
-        <v>0.9994876228070174</v>
+        <v>0.9994537620091323</v>
       </c>
       <c r="S20">
-        <v>0.9931743271929824</v>
+        <v>0.9938965155251142</v>
       </c>
       <c r="T20">
-        <v>0.9994876228070174</v>
+        <v>0.9994537620091323</v>
       </c>
       <c r="U20">
-        <v>0.9984873782894735</v>
+        <v>0.9985679976712328</v>
       </c>
       <c r="V20">
-        <v>1.001675208947368</v>
+        <v>1.001370886958904</v>
       </c>
       <c r="W20">
-        <v>0.9986324667763158</v>
+        <v>0.9987416614383561</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9631303094325089</v>
+        <v>0.9530422889473683</v>
       </c>
       <c r="D21">
-        <v>1.009630860170504</v>
+        <v>1.01201257368421</v>
       </c>
       <c r="E21">
-        <v>1.02384479496947</v>
+        <v>1.030819547368421</v>
       </c>
       <c r="F21">
-        <v>0.9928906591822821</v>
+        <v>0.9907832736842105</v>
       </c>
       <c r="G21">
-        <v>0.9631303094325089</v>
+        <v>0.9530422889473683</v>
       </c>
       <c r="H21">
-        <v>1.008987733906296</v>
+        <v>1.011587684210526</v>
       </c>
       <c r="I21">
-        <v>0.9760986970092749</v>
+        <v>0.9695151210526316</v>
       </c>
       <c r="J21">
-        <v>1.02384479496947</v>
+        <v>1.030819547368421</v>
       </c>
       <c r="K21">
-        <v>1.02384479496947</v>
+        <v>1.030819547368421</v>
       </c>
       <c r="L21">
-        <v>1.013729099860233</v>
+        <v>1.017458952631579</v>
       </c>
       <c r="M21">
-        <v>0.9921024356548199</v>
+        <v>0.989926330526316</v>
       </c>
       <c r="N21">
-        <v>1.02384479496947</v>
+        <v>1.030819547368421</v>
       </c>
       <c r="O21">
-        <v>1.009630860170504</v>
+        <v>1.01201257368421</v>
       </c>
       <c r="P21">
-        <v>0.9863805848015066</v>
+        <v>0.9825274313157895</v>
       </c>
       <c r="Q21">
-        <v>1.000866647912662</v>
+        <v>1.000969452105263</v>
       </c>
       <c r="R21">
-        <v>0.9988686548574947</v>
+        <v>0.9986248033333333</v>
       </c>
       <c r="S21">
-        <v>0.9882878684192776</v>
+        <v>0.9849937310526317</v>
       </c>
       <c r="T21">
-        <v>0.9988686548574944</v>
+        <v>0.9986248033333333</v>
       </c>
       <c r="U21">
-        <v>0.9971771000568258</v>
+        <v>0.996450185131579</v>
       </c>
       <c r="V21">
-        <v>1.002510639039355</v>
+        <v>1.003324057578947</v>
       </c>
       <c r="W21">
-        <v>0.9975518237731735</v>
+        <v>0.9968932215131578</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9903291887809755</v>
+        <v>0.9790700236842105</v>
       </c>
       <c r="D22">
-        <v>1.002246693879998</v>
+        <v>1.004966313157895</v>
       </c>
       <c r="E22">
-        <v>1.006751230633846</v>
+        <v>1.014426531578947</v>
       </c>
       <c r="F22">
-        <v>0.9979563900521016</v>
+        <v>0.99564365</v>
       </c>
       <c r="G22">
-        <v>0.9903291887809755</v>
+        <v>0.9790700236842105</v>
       </c>
       <c r="H22">
-        <v>1.002512707982678</v>
+        <v>1.005380383157895</v>
       </c>
       <c r="I22">
-        <v>0.9936823756656112</v>
+        <v>0.9863451168421055</v>
       </c>
       <c r="J22">
-        <v>1.006751230633846</v>
+        <v>1.014426531578947</v>
       </c>
       <c r="K22">
-        <v>1.006751230633846</v>
+        <v>1.014426531578947</v>
       </c>
       <c r="L22">
-        <v>1.003571771507939</v>
+        <v>1.007741071052632</v>
       </c>
       <c r="M22">
-        <v>0.9979116945411328</v>
+        <v>0.9954866447368419</v>
       </c>
       <c r="N22">
-        <v>1.006751230633846</v>
+        <v>1.014426531578947</v>
       </c>
       <c r="O22">
-        <v>1.002246693879998</v>
+        <v>1.004966313157895</v>
       </c>
       <c r="P22">
-        <v>0.9962879413304866</v>
+        <v>0.9920181684210526</v>
       </c>
       <c r="Q22">
-        <v>1.000079194210565</v>
+        <v>1.000226478947368</v>
       </c>
       <c r="R22">
-        <v>0.9997757044316063</v>
+        <v>0.9994876228070174</v>
       </c>
       <c r="S22">
-        <v>0.996829192400702</v>
+        <v>0.9931743271929824</v>
       </c>
       <c r="T22">
-        <v>0.9997757044316063</v>
+        <v>0.9994876228070174</v>
       </c>
       <c r="U22">
-        <v>0.9993097019589879</v>
+        <v>0.9984873782894735</v>
       </c>
       <c r="V22">
-        <v>1.00079800769396</v>
+        <v>1.001675208947368</v>
       </c>
       <c r="W22">
-        <v>0.9993702566305352</v>
+        <v>0.9986324667763158</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.011900432336229</v>
+        <v>0.9631303094325089</v>
       </c>
       <c r="D23">
-        <v>0.9970374114771908</v>
+        <v>1.009630860170504</v>
       </c>
       <c r="E23">
-        <v>0.9920441157028639</v>
+        <v>1.02384479496947</v>
       </c>
       <c r="F23">
-        <v>1.002388097741924</v>
+        <v>0.9928906591822821</v>
       </c>
       <c r="G23">
-        <v>1.011900432336229</v>
+        <v>0.9631303094325089</v>
       </c>
       <c r="H23">
-        <v>0.9970179290362796</v>
+        <v>1.008987733906296</v>
       </c>
       <c r="I23">
-        <v>1.007739902697986</v>
+        <v>0.9760986970092749</v>
       </c>
       <c r="J23">
-        <v>0.9920441157028639</v>
+        <v>1.02384479496947</v>
       </c>
       <c r="K23">
-        <v>0.9920441157028639</v>
+        <v>1.02384479496947</v>
       </c>
       <c r="L23">
-        <v>0.9955839789808788</v>
+        <v>1.013729099860233</v>
       </c>
       <c r="M23">
-        <v>1.002557863807517</v>
+        <v>0.9921024356548199</v>
       </c>
       <c r="N23">
-        <v>0.9920441157028639</v>
+        <v>1.02384479496947</v>
       </c>
       <c r="O23">
-        <v>0.9970374114771908</v>
+        <v>1.009630860170504</v>
       </c>
       <c r="P23">
-        <v>1.00446892190671</v>
+        <v>0.9863805848015066</v>
       </c>
       <c r="Q23">
-        <v>0.9997976376423541</v>
+        <v>1.000866647912662</v>
       </c>
       <c r="R23">
-        <v>1.000327319838761</v>
+        <v>0.9988686548574947</v>
       </c>
       <c r="S23">
-        <v>1.003831902540312</v>
+        <v>0.9882878684192776</v>
       </c>
       <c r="T23">
-        <v>1.000327319838761</v>
+        <v>0.9988686548574944</v>
       </c>
       <c r="U23">
-        <v>1.00088495583095</v>
+        <v>0.9971771000568258</v>
       </c>
       <c r="V23">
-        <v>0.9991167878053329</v>
+        <v>1.002510639039355</v>
       </c>
       <c r="W23">
-        <v>1.000783716472609</v>
+        <v>0.9975518237731735</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.003092392309799</v>
+        <v>0.9903291887809755</v>
       </c>
       <c r="D24">
-        <v>0.9992211398179152</v>
+        <v>1.002246693879998</v>
       </c>
       <c r="E24">
-        <v>0.9979486510136296</v>
+        <v>1.006751230633846</v>
       </c>
       <c r="F24">
-        <v>1.00061479192147</v>
+        <v>0.9979563900521016</v>
       </c>
       <c r="G24">
-        <v>1.003092392309799</v>
+        <v>0.9903291887809755</v>
       </c>
       <c r="H24">
-        <v>0.9992301057684592</v>
+        <v>1.002512707982678</v>
       </c>
       <c r="I24">
-        <v>1.002009691371328</v>
+        <v>0.9936823756656112</v>
       </c>
       <c r="J24">
-        <v>0.9979486510136296</v>
+        <v>1.006751230633846</v>
       </c>
       <c r="K24">
-        <v>0.9979486510136296</v>
+        <v>1.006751230633846</v>
       </c>
       <c r="L24">
-        <v>0.9988515272108537</v>
+        <v>1.003571771507939</v>
       </c>
       <c r="M24">
-        <v>1.000664135200781</v>
+        <v>0.9979116945411328</v>
       </c>
       <c r="N24">
-        <v>0.9979486510136296</v>
+        <v>1.006751230633846</v>
       </c>
       <c r="O24">
-        <v>0.9992211398179152</v>
+        <v>1.002246693879998</v>
       </c>
       <c r="P24">
-        <v>1.001156766063857</v>
+        <v>0.9962879413304866</v>
       </c>
       <c r="Q24">
-        <v>0.9999426375093483</v>
+        <v>1.000079194210565</v>
       </c>
       <c r="R24">
-        <v>1.000087394380448</v>
+        <v>0.9997757044316063</v>
       </c>
       <c r="S24">
-        <v>1.000992555776165</v>
+        <v>0.996829192400702</v>
       </c>
       <c r="T24">
-        <v>1.000087394380448</v>
+        <v>0.9997757044316063</v>
       </c>
       <c r="U24">
-        <v>1.000231579585531</v>
+        <v>0.9993097019589879</v>
       </c>
       <c r="V24">
-        <v>0.9997749938711511</v>
+        <v>1.00079800769396</v>
       </c>
       <c r="W24">
-        <v>1.00020405432678</v>
+        <v>0.9993702566305352</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.037408405204385</v>
+        <v>1.011900432336229</v>
       </c>
       <c r="D25">
-        <v>0.9904425353262464</v>
+        <v>0.9970374114771908</v>
       </c>
       <c r="E25">
-        <v>0.9754261572522006</v>
+        <v>0.9920441157028639</v>
       </c>
       <c r="F25">
-        <v>1.007350248002653</v>
+        <v>1.002388097741924</v>
       </c>
       <c r="G25">
-        <v>1.037408405204385</v>
+        <v>1.011900432336229</v>
       </c>
       <c r="H25">
-        <v>0.9907619887829876</v>
+        <v>0.9970179290362796</v>
       </c>
       <c r="I25">
-        <v>1.024287595839436</v>
+        <v>1.007739902697986</v>
       </c>
       <c r="J25">
-        <v>0.9754261572522006</v>
+        <v>0.9920441157028639</v>
       </c>
       <c r="K25">
-        <v>0.9754261572522006</v>
+        <v>0.9920441157028639</v>
       </c>
       <c r="L25">
-        <v>0.9860927760842482</v>
+        <v>0.9955839789808788</v>
       </c>
       <c r="M25">
-        <v>1.008025819181727</v>
+        <v>1.002557863807517</v>
       </c>
       <c r="N25">
-        <v>0.9754261572522006</v>
+        <v>0.9920441157028639</v>
       </c>
       <c r="O25">
-        <v>0.9904425353262464</v>
+        <v>0.9970374114771908</v>
       </c>
       <c r="P25">
-        <v>1.013925470265316</v>
+        <v>1.00446892190671</v>
       </c>
       <c r="Q25">
-        <v>0.9992341772539866</v>
+        <v>0.9997976376423541</v>
       </c>
       <c r="R25">
-        <v>1.001092365927611</v>
+        <v>1.000327319838761</v>
       </c>
       <c r="S25">
-        <v>1.01195891990412</v>
+        <v>1.003831902540312</v>
       </c>
       <c r="T25">
-        <v>1.001092365927611</v>
+        <v>1.000327319838761</v>
       </c>
       <c r="U25">
-        <v>1.00282572924114</v>
+        <v>1.00088495583095</v>
       </c>
       <c r="V25">
-        <v>0.9973458148433518</v>
+        <v>0.9991167878053329</v>
       </c>
       <c r="W25">
-        <v>1.002474440709236</v>
+        <v>1.000783716472609</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.009886374988196</v>
+        <v>1.003092392309799</v>
       </c>
       <c r="D26">
-        <v>0.9976114016248713</v>
+        <v>0.9992211398179152</v>
       </c>
       <c r="E26">
-        <v>0.9932615448418654</v>
+        <v>0.9979486510136296</v>
       </c>
       <c r="F26">
-        <v>1.002030387587287</v>
+        <v>1.00061479192147</v>
       </c>
       <c r="G26">
-        <v>1.009886374988196</v>
+        <v>1.003092392309799</v>
       </c>
       <c r="H26">
-        <v>0.9974822932536055</v>
+        <v>0.9992301057684592</v>
       </c>
       <c r="I26">
-        <v>1.006442551086529</v>
+        <v>1.002009691371328</v>
       </c>
       <c r="J26">
-        <v>0.9932615448418654</v>
+        <v>0.9979486510136296</v>
       </c>
       <c r="K26">
-        <v>0.9932615448418654</v>
+        <v>0.9979486510136296</v>
       </c>
       <c r="L26">
-        <v>0.9963389829089473</v>
+        <v>0.9988515272108537</v>
       </c>
       <c r="M26">
-        <v>1.002129334132218</v>
+        <v>1.000664135200781</v>
       </c>
       <c r="N26">
-        <v>0.9932615448418654</v>
+        <v>0.9979486510136296</v>
       </c>
       <c r="O26">
-        <v>0.9976114016248713</v>
+        <v>0.9992211398179152</v>
       </c>
       <c r="P26">
-        <v>1.003748888306534</v>
+        <v>1.001156766063857</v>
       </c>
       <c r="Q26">
-        <v>0.9998703678785448</v>
+        <v>0.9999426375093483</v>
       </c>
       <c r="R26">
-        <v>1.000253107151644</v>
+        <v>1.000087394380448</v>
       </c>
       <c r="S26">
-        <v>1.003209036915095</v>
+        <v>1.000992555776165</v>
       </c>
       <c r="T26">
-        <v>1.000253107151644</v>
+        <v>1.000087394380448</v>
       </c>
       <c r="U26">
-        <v>1.000722163896788</v>
+        <v>1.000231579585531</v>
       </c>
       <c r="V26">
-        <v>0.9992300400858033</v>
+        <v>0.9997749938711511</v>
       </c>
       <c r="W26">
-        <v>1.00064785880294</v>
+        <v>1.00020405432678</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9972091470990151</v>
+        <v>1.037408405204385</v>
       </c>
       <c r="D27">
-        <v>1.000703463735362</v>
+        <v>0.9904425353262464</v>
       </c>
       <c r="E27">
-        <v>1.00185034238029</v>
+        <v>0.9754261572522006</v>
       </c>
       <c r="F27">
-        <v>0.9994455036034408</v>
+        <v>1.007350248002653</v>
       </c>
       <c r="G27">
-        <v>0.9972091470990151</v>
+        <v>1.037408405204385</v>
       </c>
       <c r="H27">
-        <v>1.000694522585504</v>
+        <v>0.9907619887829876</v>
       </c>
       <c r="I27">
-        <v>0.9981863705629614</v>
+        <v>1.024287595839436</v>
       </c>
       <c r="J27">
-        <v>1.00185034238029</v>
+        <v>0.9754261572522006</v>
       </c>
       <c r="K27">
-        <v>1.00185034238029</v>
+        <v>0.9754261572522006</v>
       </c>
       <c r="L27">
-        <v>1.001036534569038</v>
+        <v>0.9860927760842482</v>
       </c>
       <c r="M27">
-        <v>0.9994006546502689</v>
+        <v>1.008025819181727</v>
       </c>
       <c r="N27">
-        <v>1.00185034238029</v>
+        <v>0.9754261572522006</v>
       </c>
       <c r="O27">
-        <v>1.000703463735362</v>
+        <v>0.9904425353262464</v>
       </c>
       <c r="P27">
-        <v>0.9989563054171888</v>
+        <v>1.013925470265316</v>
       </c>
       <c r="Q27">
-        <v>1.000052059192816</v>
+        <v>0.9992341772539866</v>
       </c>
       <c r="R27">
-        <v>0.9999209844048892</v>
+        <v>1.001092365927611</v>
       </c>
       <c r="S27">
-        <v>0.9991044218282156</v>
+        <v>1.01195891990412</v>
       </c>
       <c r="T27">
-        <v>0.9999209844048892</v>
+        <v>1.001092365927611</v>
       </c>
       <c r="U27">
-        <v>0.9997909019662341</v>
+        <v>1.00282572924114</v>
       </c>
       <c r="V27">
-        <v>1.000202790049045</v>
+        <v>0.9973458148433518</v>
       </c>
       <c r="W27">
-        <v>0.999815817398235</v>
+        <v>1.002474440709236</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9972430042087267</v>
+        <v>1.009886374988196</v>
       </c>
       <c r="D28">
-        <v>1.000724560131472</v>
+        <v>0.9976114016248713</v>
       </c>
       <c r="E28">
-        <v>1.001775217940601</v>
+        <v>0.9932615448418654</v>
       </c>
       <c r="F28">
-        <v>0.9994712029435705</v>
+        <v>1.002030387587287</v>
       </c>
       <c r="G28">
-        <v>0.9972430042087267</v>
+        <v>1.009886374988196</v>
       </c>
       <c r="H28">
-        <v>1.000669636801303</v>
+        <v>0.9974822932536055</v>
       </c>
       <c r="I28">
-        <v>0.998213508265255</v>
+        <v>1.006442551086529</v>
       </c>
       <c r="J28">
-        <v>1.001775217940601</v>
+        <v>0.9932615448418654</v>
       </c>
       <c r="K28">
-        <v>1.001775217940601</v>
+        <v>0.9932615448418654</v>
       </c>
       <c r="L28">
-        <v>1.0010270844067</v>
+        <v>0.9963389829089473</v>
       </c>
       <c r="M28">
-        <v>0.9994097142742324</v>
+        <v>1.002129334132218</v>
       </c>
       <c r="N28">
-        <v>1.001775217940601</v>
+        <v>0.9932615448418654</v>
       </c>
       <c r="O28">
-        <v>1.000724560131472</v>
+        <v>0.9976114016248713</v>
       </c>
       <c r="P28">
-        <v>0.9989837821700993</v>
+        <v>1.003748888306534</v>
       </c>
       <c r="Q28">
-        <v>1.000067137202852</v>
+        <v>0.9998703678785448</v>
       </c>
       <c r="R28">
-        <v>0.9999142607602666</v>
+        <v>1.000253107151644</v>
       </c>
       <c r="S28">
-        <v>0.9991257595381438</v>
+        <v>1.003209036915095</v>
       </c>
       <c r="T28">
-        <v>0.9999142607602666</v>
+        <v>1.000253107151644</v>
       </c>
       <c r="U28">
-        <v>0.9997881241387581</v>
+        <v>1.000722163896788</v>
       </c>
       <c r="V28">
-        <v>1.000185542899127</v>
+        <v>0.9992300400858033</v>
       </c>
       <c r="W28">
-        <v>0.9998167411214824</v>
+        <v>1.00064785880294</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9972091470990151</v>
+      </c>
+      <c r="D29">
+        <v>1.000703463735362</v>
+      </c>
+      <c r="E29">
+        <v>1.00185034238029</v>
+      </c>
+      <c r="F29">
+        <v>0.9994455036034408</v>
+      </c>
+      <c r="G29">
+        <v>0.9972091470990151</v>
+      </c>
+      <c r="H29">
+        <v>1.000694522585504</v>
+      </c>
+      <c r="I29">
+        <v>0.9981863705629614</v>
+      </c>
+      <c r="J29">
+        <v>1.00185034238029</v>
+      </c>
+      <c r="K29">
+        <v>1.00185034238029</v>
+      </c>
+      <c r="L29">
+        <v>1.001036534569038</v>
+      </c>
+      <c r="M29">
+        <v>0.9994006546502689</v>
+      </c>
+      <c r="N29">
+        <v>1.00185034238029</v>
+      </c>
+      <c r="O29">
+        <v>1.000703463735362</v>
+      </c>
+      <c r="P29">
+        <v>0.9989563054171888</v>
+      </c>
+      <c r="Q29">
+        <v>1.000052059192816</v>
+      </c>
+      <c r="R29">
+        <v>0.9999209844048892</v>
+      </c>
+      <c r="S29">
+        <v>0.9991044218282156</v>
+      </c>
+      <c r="T29">
+        <v>0.9999209844048892</v>
+      </c>
+      <c r="U29">
+        <v>0.9997909019662341</v>
+      </c>
+      <c r="V29">
+        <v>1.000202790049045</v>
+      </c>
+      <c r="W29">
+        <v>0.999815817398235</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9972430042087267</v>
+      </c>
+      <c r="D30">
+        <v>1.000724560131472</v>
+      </c>
+      <c r="E30">
+        <v>1.001775217940601</v>
+      </c>
+      <c r="F30">
+        <v>0.9994712029435705</v>
+      </c>
+      <c r="G30">
+        <v>0.9972430042087267</v>
+      </c>
+      <c r="H30">
+        <v>1.000669636801303</v>
+      </c>
+      <c r="I30">
+        <v>0.998213508265255</v>
+      </c>
+      <c r="J30">
+        <v>1.001775217940601</v>
+      </c>
+      <c r="K30">
+        <v>1.001775217940601</v>
+      </c>
+      <c r="L30">
+        <v>1.0010270844067</v>
+      </c>
+      <c r="M30">
+        <v>0.9994097142742324</v>
+      </c>
+      <c r="N30">
+        <v>1.001775217940601</v>
+      </c>
+      <c r="O30">
+        <v>1.000724560131472</v>
+      </c>
+      <c r="P30">
+        <v>0.9989837821700993</v>
+      </c>
+      <c r="Q30">
+        <v>1.000067137202852</v>
+      </c>
+      <c r="R30">
+        <v>0.9999142607602666</v>
+      </c>
+      <c r="S30">
+        <v>0.9991257595381438</v>
+      </c>
+      <c r="T30">
+        <v>0.9999142607602666</v>
+      </c>
+      <c r="U30">
+        <v>0.9997881241387581</v>
+      </c>
+      <c r="V30">
+        <v>1.000185542899127</v>
+      </c>
+      <c r="W30">
+        <v>0.9998167411214824</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.005525112434104</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.998597375154899</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.9963545432700812</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.001091370237678</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.005525112434104</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.9986305896284924</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.003588777315701</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.9963545432700812</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9963545432700812</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9979468989794275</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.001185932650153</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.9963545432700812</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.998597375154899</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.002061243794501</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.999891653902526</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.000159010286361</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.001769473413052</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.000159010286361</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>1.000415740877309</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>0.9996035013558636</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>1.000365074958817</v>
       </c>
     </row>
